--- a/COSC 60 - IT 2D/COSC 60 - IT 2D.xlsx
+++ b/COSC 60 - IT 2D/COSC 60 - IT 2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\COSC 60 - IT 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A1DC9-34C3-4E31-9188-09A4C019E503}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502DE4D-9C5B-4429-A08B-95768DDFC403}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Attendance Sheet - Laboratory'!$A$1:$J$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Attendance Sheet - Lecture'!$A$1:$J$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">BACKPAGE!$A$1:$H$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$6:$P$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$1:$P$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SEMESTRAL GRADE'!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -6979,9 +6979,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10783,16 +10783,14 @@
         <f>UPPER(CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!F21))</f>
         <v>BONILLA JERRYCO D</v>
       </c>
-      <c r="D20" s="89">
-        <v>19</v>
-      </c>
+      <c r="D20" s="89"/>
       <c r="E20" s="76">
         <f t="shared" si="43"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F20" s="79">
         <f t="shared" si="0"/>
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="89"/>
       <c r="H20" s="76">
@@ -10907,11 +10905,11 @@
       </c>
       <c r="BC20" s="81">
         <f t="shared" si="18"/>
-        <v>46.4</v>
+        <v>35</v>
       </c>
       <c r="BD20" s="81">
         <f t="shared" si="19"/>
-        <v>46.4</v>
+        <v>35</v>
       </c>
       <c r="BE20" s="89"/>
       <c r="BF20" s="76" t="str">
@@ -11035,7 +11033,7 @@
       </c>
       <c r="CS20" s="87">
         <f t="shared" si="41"/>
-        <v>40.31</v>
+        <v>35.75</v>
       </c>
       <c r="CT20" s="87">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -22220,26 +22218,26 @@
         <v>VILLANUEVA JAKE S</v>
       </c>
       <c r="D61" s="89">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E61" s="76">
         <f t="shared" si="43"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F61" s="79">
         <f t="shared" si="46"/>
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="G61" s="89">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H61" s="76">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I61" s="79">
         <f t="shared" si="47"/>
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="J61" s="88">
         <v>10</v>
@@ -22343,11 +22341,11 @@
       </c>
       <c r="BC61" s="81">
         <f t="shared" si="18"/>
-        <v>84.2</v>
+        <v>84.8</v>
       </c>
       <c r="BD61" s="81">
         <f t="shared" si="19"/>
-        <v>84.2</v>
+        <v>84.8</v>
       </c>
       <c r="BE61" s="89"/>
       <c r="BF61" s="76" t="str">
@@ -22473,7 +22471,7 @@
       </c>
       <c r="CS61" s="87">
         <f t="shared" si="45"/>
-        <v>78.53</v>
+        <v>78.77000000000001</v>
       </c>
       <c r="CT61" s="87">
         <f>IFERROR(VLOOKUP(CS61,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -22498,26 +22496,26 @@
         <v>VILLAREAL JOVELYN A</v>
       </c>
       <c r="D62" s="89">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E62" s="76">
         <f t="shared" si="43"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F62" s="79">
         <f t="shared" si="46"/>
-        <v>20.399999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="G62" s="89">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H62" s="76">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I62" s="79">
         <f t="shared" si="47"/>
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="J62" s="88">
         <v>10</v>
@@ -22623,11 +22621,11 @@
       </c>
       <c r="BC62" s="81">
         <f t="shared" si="18"/>
-        <v>89.26666666666668</v>
+        <v>89.866666666666674</v>
       </c>
       <c r="BD62" s="81">
         <f t="shared" si="19"/>
-        <v>89.27</v>
+        <v>89.87</v>
       </c>
       <c r="BE62" s="89"/>
       <c r="BF62" s="76" t="str">
@@ -22755,7 +22753,7 @@
       </c>
       <c r="CS62" s="87">
         <f t="shared" si="45"/>
-        <v>88.807999999999993</v>
+        <v>89.048000000000002</v>
       </c>
       <c r="CT62" s="87">
         <f>IFERROR(VLOOKUP(CS62,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -22780,26 +22778,26 @@
         <v>VILLAREAL JANINE A.</v>
       </c>
       <c r="D63" s="89">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E63" s="76">
         <f t="shared" si="43"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F63" s="79">
         <f t="shared" si="46"/>
-        <v>28.799999999999997</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="G63" s="89">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H63" s="76">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I63" s="79">
         <f t="shared" si="47"/>
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="J63" s="88">
         <v>10</v>
@@ -22905,11 +22903,11 @@
       </c>
       <c r="BC63" s="81">
         <f t="shared" si="18"/>
-        <v>97.666666666666671</v>
+        <v>98.266666666666666</v>
       </c>
       <c r="BD63" s="81">
         <f t="shared" si="19"/>
-        <v>97.67</v>
+        <v>98.27</v>
       </c>
       <c r="BE63" s="89"/>
       <c r="BF63" s="76" t="str">
@@ -23037,7 +23035,7 @@
       </c>
       <c r="CS63" s="87">
         <f t="shared" si="45"/>
-        <v>92.168000000000006</v>
+        <v>92.408000000000001</v>
       </c>
       <c r="CT63" s="87">
         <f>IFERROR(VLOOKUP(CS63,REGISTRATION!$Q$22:$R$32,2),"")</f>
@@ -24937,13 +24935,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:P79"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:P77"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25240,64 +25236,64 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="str">
-        <f>'RAW GRADES'!C11</f>
-        <v>ACA-AC REINA JOY S</v>
+        <f>'RAW GRADES'!C12</f>
+        <v>ADRIANO JOMARI A</v>
       </c>
       <c r="C14" s="52">
-        <f>'RAW GRADES'!F11</f>
-        <v>0</v>
+        <f>'RAW GRADES'!F12</f>
+        <v>23.4</v>
       </c>
       <c r="D14" s="73">
-        <f>'RAW GRADES'!I11</f>
-        <v>0</v>
+        <f>'RAW GRADES'!I12</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E14" s="47">
-        <f>'RAW GRADES'!AN11</f>
-        <v>8.75</v>
+        <f>'RAW GRADES'!AN12</f>
+        <v>12.75</v>
       </c>
       <c r="F14" s="47">
-        <f>'RAW GRADES'!AU11</f>
-        <v>7</v>
+        <f>'RAW GRADES'!AU12</f>
+        <v>9.5</v>
       </c>
       <c r="G14" s="47">
-        <f>'RAW GRADES'!BB11</f>
+        <f>'RAW GRADES'!BB12</f>
+        <v>4.5</v>
+      </c>
+      <c r="H14" s="48">
+        <f>'RAW GRADES'!BC12</f>
+        <v>77.349999999999994</v>
+      </c>
+      <c r="I14" s="48">
+        <f>'RAW GRADES'!BD12</f>
+        <v>77.349999999999994</v>
+      </c>
+      <c r="J14" s="47">
+        <f>'RAW GRADES'!BK12</f>
+        <v>47.5</v>
+      </c>
+      <c r="K14" s="47">
+        <f>'RAW GRADES'!CP12</f>
+        <v>40.625</v>
+      </c>
+      <c r="L14" s="47">
+        <f>'RAW GRADES'!CQ12</f>
+        <v>88.125</v>
+      </c>
+      <c r="M14" s="49">
+        <f>'RAW GRADES'!CR12</f>
+        <v>88.13</v>
+      </c>
+      <c r="N14" s="53">
+        <f>'RAW GRADES'!CS12</f>
+        <v>83.817999999999984</v>
+      </c>
+      <c r="O14" s="51">
+        <f>'RAW GRADES'!CT12</f>
         <v>2</v>
       </c>
-      <c r="H14" s="48">
-        <f>'RAW GRADES'!BC11</f>
-        <v>17.75</v>
-      </c>
-      <c r="I14" s="48">
-        <f>'RAW GRADES'!BD11</f>
-        <v>17.75</v>
-      </c>
-      <c r="J14" s="47">
-        <f>'RAW GRADES'!BK11</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="47">
-        <f>'RAW GRADES'!CP11</f>
-        <v>19.375</v>
-      </c>
-      <c r="L14" s="47">
-        <f>'RAW GRADES'!CQ11</f>
-        <v>19.375</v>
-      </c>
-      <c r="M14" s="49">
-        <f>'RAW GRADES'!CR11</f>
-        <v>19.38</v>
-      </c>
-      <c r="N14" s="53">
-        <f>'RAW GRADES'!CS11</f>
-        <v>18.727999999999998</v>
-      </c>
-      <c r="O14" s="51">
-        <f>'RAW GRADES'!CT11</f>
-        <v>5</v>
-      </c>
       <c r="P14" s="54" t="str">
-        <f>IF(O14&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <f t="shared" ref="P14:P55" si="0">IF(O14&gt;3,"FAILED","PASSED")</f>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -25305,63 +25301,63 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="str">
-        <f>'RAW GRADES'!C12</f>
-        <v>ADRIANO JOMARI A</v>
+        <f>'RAW GRADES'!C13</f>
+        <v>ALVAREZ DARYL L</v>
       </c>
       <c r="C15" s="52">
-        <f>'RAW GRADES'!F12</f>
-        <v>23.4</v>
+        <f>'RAW GRADES'!F13</f>
+        <v>25.8</v>
       </c>
       <c r="D15" s="73">
-        <f>'RAW GRADES'!I12</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I13</f>
+        <v>28.400000000000002</v>
       </c>
       <c r="E15" s="47">
-        <f>'RAW GRADES'!AN12</f>
-        <v>12.75</v>
+        <f>'RAW GRADES'!AN13</f>
+        <v>12</v>
       </c>
       <c r="F15" s="47">
-        <f>'RAW GRADES'!AU12</f>
+        <f>'RAW GRADES'!AU13</f>
         <v>9.5</v>
       </c>
       <c r="G15" s="47">
-        <f>'RAW GRADES'!BB12</f>
-        <v>4.5</v>
+        <f>'RAW GRADES'!BB13</f>
+        <v>9</v>
       </c>
       <c r="H15" s="48">
-        <f>'RAW GRADES'!BC12</f>
-        <v>77.349999999999994</v>
+        <f>'RAW GRADES'!BC13</f>
+        <v>84.7</v>
       </c>
       <c r="I15" s="48">
-        <f>'RAW GRADES'!BD12</f>
-        <v>77.349999999999994</v>
+        <f>'RAW GRADES'!BD13</f>
+        <v>84.7</v>
       </c>
       <c r="J15" s="47">
-        <f>'RAW GRADES'!BK12</f>
-        <v>47.5</v>
+        <f>'RAW GRADES'!BK13</f>
+        <v>44</v>
       </c>
       <c r="K15" s="47">
-        <f>'RAW GRADES'!CP12</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP13</f>
+        <v>38.125</v>
       </c>
       <c r="L15" s="47">
-        <f>'RAW GRADES'!CQ12</f>
-        <v>88.125</v>
+        <f>'RAW GRADES'!CQ13</f>
+        <v>82.125</v>
       </c>
       <c r="M15" s="49">
-        <f>'RAW GRADES'!CR12</f>
-        <v>88.13</v>
+        <f>'RAW GRADES'!CR13</f>
+        <v>82.13</v>
       </c>
       <c r="N15" s="53">
-        <f>'RAW GRADES'!CS12</f>
-        <v>83.817999999999984</v>
+        <f>'RAW GRADES'!CS13</f>
+        <v>83.158000000000001</v>
       </c>
       <c r="O15" s="51">
-        <f>'RAW GRADES'!CT12</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT13</f>
+        <v>2.25</v>
       </c>
       <c r="P15" s="54" t="str">
-        <f t="shared" ref="P15:P73" si="0">IF(O15&gt;3,"FAILED","PASSED")</f>
+        <f t="shared" si="0"/>
         <v>PASSED</v>
       </c>
     </row>
@@ -25370,60 +25366,60 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="str">
-        <f>'RAW GRADES'!C13</f>
-        <v>ALVAREZ DARYL L</v>
+        <f>'RAW GRADES'!C14</f>
+        <v>ANENIAS DANILO DANIEL  M</v>
       </c>
       <c r="C16" s="52">
-        <f>'RAW GRADES'!F13</f>
-        <v>25.8</v>
+        <f>'RAW GRADES'!F14</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="D16" s="73">
-        <f>'RAW GRADES'!I13</f>
-        <v>28.400000000000002</v>
+        <f>'RAW GRADES'!I14</f>
+        <v>30</v>
       </c>
       <c r="E16" s="47">
-        <f>'RAW GRADES'!AN13</f>
-        <v>12</v>
+        <f>'RAW GRADES'!AN14</f>
+        <v>18.5</v>
       </c>
       <c r="F16" s="47">
-        <f>'RAW GRADES'!AU13</f>
+        <f>'RAW GRADES'!AU14</f>
         <v>9.5</v>
       </c>
       <c r="G16" s="47">
-        <f>'RAW GRADES'!BB13</f>
-        <v>9</v>
+        <f>'RAW GRADES'!BB14</f>
+        <v>8.5</v>
       </c>
       <c r="H16" s="48">
-        <f>'RAW GRADES'!BC13</f>
-        <v>84.7</v>
+        <f>'RAW GRADES'!BC14</f>
+        <v>94.1</v>
       </c>
       <c r="I16" s="48">
-        <f>'RAW GRADES'!BD13</f>
-        <v>84.7</v>
+        <f>'RAW GRADES'!BD14</f>
+        <v>94.1</v>
       </c>
       <c r="J16" s="47">
-        <f>'RAW GRADES'!BK13</f>
-        <v>44</v>
+        <f>'RAW GRADES'!BK14</f>
+        <v>45</v>
       </c>
       <c r="K16" s="47">
-        <f>'RAW GRADES'!CP13</f>
-        <v>38.125</v>
+        <f>'RAW GRADES'!CP14</f>
+        <v>40.625</v>
       </c>
       <c r="L16" s="47">
-        <f>'RAW GRADES'!CQ13</f>
-        <v>82.125</v>
+        <f>'RAW GRADES'!CQ14</f>
+        <v>85.625</v>
       </c>
       <c r="M16" s="49">
-        <f>'RAW GRADES'!CR13</f>
-        <v>82.13</v>
+        <f>'RAW GRADES'!CR14</f>
+        <v>85.63</v>
       </c>
       <c r="N16" s="53">
-        <f>'RAW GRADES'!CS13</f>
-        <v>83.158000000000001</v>
+        <f>'RAW GRADES'!CS14</f>
+        <v>89.018000000000001</v>
       </c>
       <c r="O16" s="51">
-        <f>'RAW GRADES'!CT13</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT14</f>
+        <v>1.75</v>
       </c>
       <c r="P16" s="54" t="str">
         <f t="shared" si="0"/>
@@ -25435,60 +25431,60 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="str">
-        <f>'RAW GRADES'!C14</f>
-        <v>ANENIAS DANILO DANIEL  M</v>
+        <f>'RAW GRADES'!C15</f>
+        <v>ANGCON NIGUELITO H</v>
       </c>
       <c r="C17" s="52">
-        <f>'RAW GRADES'!F14</f>
-        <v>27.599999999999998</v>
+        <f>'RAW GRADES'!F15</f>
+        <v>15</v>
       </c>
       <c r="D17" s="73">
-        <f>'RAW GRADES'!I14</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I15</f>
+        <v>21.2</v>
       </c>
       <c r="E17" s="47">
-        <f>'RAW GRADES'!AN14</f>
-        <v>18.5</v>
+        <f>'RAW GRADES'!AN15</f>
+        <v>16.5</v>
       </c>
       <c r="F17" s="47">
-        <f>'RAW GRADES'!AU14</f>
+        <f>'RAW GRADES'!AU15</f>
         <v>9.5</v>
       </c>
       <c r="G17" s="47">
-        <f>'RAW GRADES'!BB14</f>
-        <v>8.5</v>
+        <f>'RAW GRADES'!BB15</f>
+        <v>10</v>
       </c>
       <c r="H17" s="48">
-        <f>'RAW GRADES'!BC14</f>
-        <v>94.1</v>
+        <f>'RAW GRADES'!BC15</f>
+        <v>72.2</v>
       </c>
       <c r="I17" s="48">
-        <f>'RAW GRADES'!BD14</f>
-        <v>94.1</v>
+        <f>'RAW GRADES'!BD15</f>
+        <v>72.2</v>
       </c>
       <c r="J17" s="47">
-        <f>'RAW GRADES'!BK14</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK15</f>
+        <v>38.5</v>
       </c>
       <c r="K17" s="47">
-        <f>'RAW GRADES'!CP14</f>
+        <f>'RAW GRADES'!CP15</f>
         <v>40.625</v>
       </c>
       <c r="L17" s="47">
-        <f>'RAW GRADES'!CQ14</f>
-        <v>85.625</v>
+        <f>'RAW GRADES'!CQ15</f>
+        <v>79.125</v>
       </c>
       <c r="M17" s="49">
-        <f>'RAW GRADES'!CR14</f>
-        <v>85.63</v>
+        <f>'RAW GRADES'!CR15</f>
+        <v>79.13</v>
       </c>
       <c r="N17" s="53">
-        <f>'RAW GRADES'!CS14</f>
-        <v>89.018000000000001</v>
+        <f>'RAW GRADES'!CS15</f>
+        <v>76.358000000000004</v>
       </c>
       <c r="O17" s="51">
-        <f>'RAW GRADES'!CT14</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT15</f>
+        <v>2.75</v>
       </c>
       <c r="P17" s="54" t="str">
         <f t="shared" si="0"/>
@@ -25500,64 +25496,64 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="str">
-        <f>'RAW GRADES'!C15</f>
-        <v>ANGCON NIGUELITO H</v>
+        <f>'RAW GRADES'!C16</f>
+        <v>ATIENZA MHEL VINCE V</v>
       </c>
       <c r="C18" s="52">
-        <f>'RAW GRADES'!F15</f>
-        <v>15</v>
+        <f>'RAW GRADES'!F16</f>
+        <v>22.8</v>
       </c>
       <c r="D18" s="73">
-        <f>'RAW GRADES'!I15</f>
-        <v>21.2</v>
+        <f>'RAW GRADES'!I16</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E18" s="47">
-        <f>'RAW GRADES'!AN15</f>
-        <v>16.5</v>
+        <f>'RAW GRADES'!AN16</f>
+        <v>11.5</v>
       </c>
       <c r="F18" s="47">
-        <f>'RAW GRADES'!AU15</f>
+        <f>'RAW GRADES'!AU16</f>
         <v>9.5</v>
       </c>
       <c r="G18" s="47">
-        <f>'RAW GRADES'!BB15</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB16</f>
+        <v>7</v>
       </c>
       <c r="H18" s="48">
-        <f>'RAW GRADES'!BC15</f>
-        <v>72.2</v>
+        <f>'RAW GRADES'!BC16</f>
+        <v>78</v>
       </c>
       <c r="I18" s="48">
-        <f>'RAW GRADES'!BD15</f>
-        <v>72.2</v>
+        <f>'RAW GRADES'!BD16</f>
+        <v>78</v>
       </c>
       <c r="J18" s="47">
-        <f>'RAW GRADES'!BK15</f>
-        <v>38.5</v>
+        <f>'RAW GRADES'!BK16</f>
+        <v>0</v>
       </c>
       <c r="K18" s="47">
-        <f>'RAW GRADES'!CP15</f>
+        <f>'RAW GRADES'!CP16</f>
         <v>40.625</v>
       </c>
       <c r="L18" s="47">
-        <f>'RAW GRADES'!CQ15</f>
-        <v>79.125</v>
+        <f>'RAW GRADES'!CQ16</f>
+        <v>40.625</v>
       </c>
       <c r="M18" s="49">
-        <f>'RAW GRADES'!CR15</f>
-        <v>79.13</v>
+        <f>'RAW GRADES'!CR16</f>
+        <v>40.630000000000003</v>
       </c>
       <c r="N18" s="53">
-        <f>'RAW GRADES'!CS15</f>
-        <v>76.358000000000004</v>
+        <f>'RAW GRADES'!CS16</f>
+        <v>55.578000000000003</v>
       </c>
       <c r="O18" s="51">
-        <f>'RAW GRADES'!CT15</f>
-        <v>2.75</v>
+        <f>'RAW GRADES'!CT16</f>
+        <v>5</v>
       </c>
       <c r="P18" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>PASSED</v>
+        <v>FAILED</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -25565,64 +25561,64 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="str">
-        <f>'RAW GRADES'!C16</f>
-        <v>ATIENZA MHEL VINCE V</v>
+        <f>'RAW GRADES'!C17</f>
+        <v>BABADILLA MARK ANTHONY B</v>
       </c>
       <c r="C19" s="52">
-        <f>'RAW GRADES'!F16</f>
+        <f>'RAW GRADES'!F17</f>
         <v>22.8</v>
       </c>
       <c r="D19" s="73">
-        <f>'RAW GRADES'!I16</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I17</f>
+        <v>25.2</v>
       </c>
       <c r="E19" s="47">
-        <f>'RAW GRADES'!AN16</f>
-        <v>11.5</v>
+        <f>'RAW GRADES'!AN17</f>
+        <v>18.25</v>
       </c>
       <c r="F19" s="47">
-        <f>'RAW GRADES'!AU16</f>
+        <f>'RAW GRADES'!AU17</f>
         <v>9.5</v>
       </c>
       <c r="G19" s="47">
-        <f>'RAW GRADES'!BB16</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB17</f>
+        <v>10</v>
       </c>
       <c r="H19" s="48">
-        <f>'RAW GRADES'!BC16</f>
-        <v>78</v>
+        <f>'RAW GRADES'!BC17</f>
+        <v>85.75</v>
       </c>
       <c r="I19" s="48">
-        <f>'RAW GRADES'!BD16</f>
-        <v>78</v>
+        <f>'RAW GRADES'!BD17</f>
+        <v>85.75</v>
       </c>
       <c r="J19" s="47">
-        <f>'RAW GRADES'!BK16</f>
-        <v>0</v>
+        <f>'RAW GRADES'!BK17</f>
+        <v>39</v>
       </c>
       <c r="K19" s="47">
-        <f>'RAW GRADES'!CP16</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP17</f>
+        <v>36.25</v>
       </c>
       <c r="L19" s="47">
-        <f>'RAW GRADES'!CQ16</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CQ17</f>
+        <v>75.25</v>
       </c>
       <c r="M19" s="49">
-        <f>'RAW GRADES'!CR16</f>
-        <v>40.630000000000003</v>
+        <f>'RAW GRADES'!CR17</f>
+        <v>75.25</v>
       </c>
       <c r="N19" s="53">
-        <f>'RAW GRADES'!CS16</f>
-        <v>55.578000000000003</v>
+        <f>'RAW GRADES'!CS17</f>
+        <v>79.45</v>
       </c>
       <c r="O19" s="51">
-        <f>'RAW GRADES'!CT16</f>
-        <v>5</v>
+        <f>'RAW GRADES'!CT17</f>
+        <v>2.5</v>
       </c>
       <c r="P19" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -25630,60 +25626,60 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="str">
-        <f>'RAW GRADES'!C17</f>
-        <v>BABADILLA MARK ANTHONY B</v>
+        <f>'RAW GRADES'!C18</f>
+        <v>BACUNGAN KIMBERLY C</v>
       </c>
       <c r="C20" s="52">
-        <f>'RAW GRADES'!F17</f>
-        <v>22.8</v>
+        <f>'RAW GRADES'!F18</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="D20" s="73">
-        <f>'RAW GRADES'!I17</f>
-        <v>25.2</v>
+        <f>'RAW GRADES'!I18</f>
+        <v>30</v>
       </c>
       <c r="E20" s="47">
-        <f>'RAW GRADES'!AN17</f>
-        <v>18.25</v>
+        <f>'RAW GRADES'!AN18</f>
+        <v>11.75</v>
       </c>
       <c r="F20" s="47">
-        <f>'RAW GRADES'!AU17</f>
+        <f>'RAW GRADES'!AU18</f>
         <v>9.5</v>
       </c>
       <c r="G20" s="47">
-        <f>'RAW GRADES'!BB17</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB18</f>
+        <v>7</v>
       </c>
       <c r="H20" s="48">
-        <f>'RAW GRADES'!BC17</f>
-        <v>85.75</v>
+        <f>'RAW GRADES'!BC18</f>
+        <v>79.849999999999994</v>
       </c>
       <c r="I20" s="48">
-        <f>'RAW GRADES'!BD17</f>
-        <v>85.75</v>
+        <f>'RAW GRADES'!BD18</f>
+        <v>79.849999999999994</v>
       </c>
       <c r="J20" s="47">
-        <f>'RAW GRADES'!BK17</f>
-        <v>39</v>
+        <f>'RAW GRADES'!BK18</f>
+        <v>44</v>
       </c>
       <c r="K20" s="47">
-        <f>'RAW GRADES'!CP17</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP18</f>
+        <v>38.125</v>
       </c>
       <c r="L20" s="47">
-        <f>'RAW GRADES'!CQ17</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CQ18</f>
+        <v>82.125</v>
       </c>
       <c r="M20" s="49">
-        <f>'RAW GRADES'!CR17</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CR18</f>
+        <v>82.13</v>
       </c>
       <c r="N20" s="53">
-        <f>'RAW GRADES'!CS17</f>
-        <v>79.45</v>
+        <f>'RAW GRADES'!CS18</f>
+        <v>81.217999999999989</v>
       </c>
       <c r="O20" s="51">
-        <f>'RAW GRADES'!CT17</f>
-        <v>2.5</v>
+        <f>'RAW GRADES'!CT18</f>
+        <v>2.25</v>
       </c>
       <c r="P20" s="54" t="str">
         <f t="shared" si="0"/>
@@ -25695,385 +25691,385 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="str">
-        <f>'RAW GRADES'!C18</f>
-        <v>BACUNGAN KIMBERLY C</v>
+        <f>'RAW GRADES'!C19</f>
+        <v>BAYLA ADRIAN PAULO C</v>
       </c>
       <c r="C21" s="52">
-        <f>'RAW GRADES'!F18</f>
-        <v>21.599999999999998</v>
+        <f>'RAW GRADES'!F19</f>
+        <v>26.4</v>
       </c>
       <c r="D21" s="73">
-        <f>'RAW GRADES'!I18</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I19</f>
+        <v>26</v>
       </c>
       <c r="E21" s="47">
-        <f>'RAW GRADES'!AN18</f>
-        <v>11.75</v>
+        <f>'RAW GRADES'!AN19</f>
+        <v>16.833333333333332</v>
       </c>
       <c r="F21" s="47">
-        <f>'RAW GRADES'!AU18</f>
+        <f>'RAW GRADES'!AU19</f>
         <v>9.5</v>
       </c>
       <c r="G21" s="47">
-        <f>'RAW GRADES'!BB18</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB19</f>
+        <v>5</v>
       </c>
       <c r="H21" s="48">
-        <f>'RAW GRADES'!BC18</f>
-        <v>79.849999999999994</v>
+        <f>'RAW GRADES'!BC19</f>
+        <v>83.73333333333332</v>
       </c>
       <c r="I21" s="48">
-        <f>'RAW GRADES'!BD18</f>
-        <v>79.849999999999994</v>
+        <f>'RAW GRADES'!BD19</f>
+        <v>83.73</v>
       </c>
       <c r="J21" s="47">
-        <f>'RAW GRADES'!BK18</f>
+        <f>'RAW GRADES'!BK19</f>
         <v>44</v>
       </c>
       <c r="K21" s="47">
-        <f>'RAW GRADES'!CP18</f>
-        <v>38.125</v>
+        <f>'RAW GRADES'!CP19</f>
+        <v>40.625</v>
       </c>
       <c r="L21" s="47">
-        <f>'RAW GRADES'!CQ18</f>
-        <v>82.125</v>
+        <f>'RAW GRADES'!CQ19</f>
+        <v>84.625</v>
       </c>
       <c r="M21" s="49">
-        <f>'RAW GRADES'!CR18</f>
-        <v>82.13</v>
+        <f>'RAW GRADES'!CR19</f>
+        <v>84.63</v>
       </c>
       <c r="N21" s="53">
-        <f>'RAW GRADES'!CS18</f>
-        <v>81.217999999999989</v>
+        <f>'RAW GRADES'!CS19</f>
+        <v>84.27000000000001</v>
       </c>
       <c r="O21" s="51">
-        <f>'RAW GRADES'!CT18</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT19</f>
+        <v>2</v>
       </c>
       <c r="P21" s="54" t="str">
         <f t="shared" si="0"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>10</v>
       </c>
       <c r="B22" s="45" t="str">
-        <f>'RAW GRADES'!C19</f>
-        <v>BAYLA ADRIAN PAULO C</v>
+        <f>'RAW GRADES'!C20</f>
+        <v>BONILLA JERRYCO D</v>
       </c>
       <c r="C22" s="52">
-        <f>'RAW GRADES'!F19</f>
-        <v>26.4</v>
+        <f>'RAW GRADES'!F20</f>
+        <v>0</v>
       </c>
       <c r="D22" s="73">
-        <f>'RAW GRADES'!I19</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I20</f>
+        <v>0</v>
       </c>
       <c r="E22" s="47">
-        <f>'RAW GRADES'!AN19</f>
-        <v>16.833333333333332</v>
+        <f>'RAW GRADES'!AN20</f>
+        <v>15.5</v>
       </c>
       <c r="F22" s="47">
-        <f>'RAW GRADES'!AU19</f>
+        <f>'RAW GRADES'!AU20</f>
         <v>9.5</v>
       </c>
       <c r="G22" s="47">
-        <f>'RAW GRADES'!BB19</f>
+        <f>'RAW GRADES'!BB20</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="48">
+        <f>'RAW GRADES'!BC20</f>
+        <v>35</v>
+      </c>
+      <c r="I22" s="48">
+        <f>'RAW GRADES'!BD20</f>
+        <v>35</v>
+      </c>
+      <c r="J22" s="47">
+        <f>'RAW GRADES'!BK20</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="47">
+        <f>'RAW GRADES'!CP20</f>
+        <v>36.25</v>
+      </c>
+      <c r="L22" s="47">
+        <f>'RAW GRADES'!CQ20</f>
+        <v>36.25</v>
+      </c>
+      <c r="M22" s="49">
+        <f>'RAW GRADES'!CR20</f>
+        <v>36.25</v>
+      </c>
+      <c r="N22" s="53">
+        <f>'RAW GRADES'!CS20</f>
+        <v>35.75</v>
+      </c>
+      <c r="O22" s="51">
+        <f>'RAW GRADES'!CT20</f>
         <v>5</v>
-      </c>
-      <c r="H22" s="48">
-        <f>'RAW GRADES'!BC19</f>
-        <v>83.73333333333332</v>
-      </c>
-      <c r="I22" s="48">
-        <f>'RAW GRADES'!BD19</f>
-        <v>83.73</v>
-      </c>
-      <c r="J22" s="47">
-        <f>'RAW GRADES'!BK19</f>
-        <v>44</v>
-      </c>
-      <c r="K22" s="47">
-        <f>'RAW GRADES'!CP19</f>
-        <v>40.625</v>
-      </c>
-      <c r="L22" s="47">
-        <f>'RAW GRADES'!CQ19</f>
-        <v>84.625</v>
-      </c>
-      <c r="M22" s="49">
-        <f>'RAW GRADES'!CR19</f>
-        <v>84.63</v>
-      </c>
-      <c r="N22" s="53">
-        <f>'RAW GRADES'!CS19</f>
-        <v>84.27000000000001</v>
-      </c>
-      <c r="O22" s="51">
-        <f>'RAW GRADES'!CT19</f>
-        <v>2</v>
       </c>
       <c r="P22" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>PASSED</v>
+        <v>FAILED</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="45" t="str">
-        <f>'RAW GRADES'!C20</f>
-        <v>BONILLA JERRYCO D</v>
+        <f>'RAW GRADES'!C21</f>
+        <v>CABASAN ELMAR V</v>
       </c>
       <c r="C23" s="52">
-        <f>'RAW GRADES'!F20</f>
-        <v>11.4</v>
+        <f>'RAW GRADES'!F21</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="D23" s="73">
-        <f>'RAW GRADES'!I20</f>
-        <v>0</v>
+        <f>'RAW GRADES'!I21</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E23" s="47">
-        <f>'RAW GRADES'!AN20</f>
-        <v>15.5</v>
+        <f>'RAW GRADES'!AN21</f>
+        <v>19.5</v>
       </c>
       <c r="F23" s="47">
-        <f>'RAW GRADES'!AU20</f>
+        <f>'RAW GRADES'!AU21</f>
         <v>9.5</v>
       </c>
       <c r="G23" s="47">
-        <f>'RAW GRADES'!BB20</f>
+        <f>'RAW GRADES'!BB21</f>
         <v>10</v>
       </c>
       <c r="H23" s="48">
-        <f>'RAW GRADES'!BC20</f>
-        <v>46.4</v>
+        <f>'RAW GRADES'!BC21</f>
+        <v>87.799999999999983</v>
       </c>
       <c r="I23" s="48">
-        <f>'RAW GRADES'!BD20</f>
-        <v>46.4</v>
+        <f>'RAW GRADES'!BD21</f>
+        <v>87.8</v>
       </c>
       <c r="J23" s="47">
-        <f>'RAW GRADES'!BK20</f>
-        <v>0</v>
+        <f>'RAW GRADES'!BK21</f>
+        <v>45</v>
       </c>
       <c r="K23" s="47">
-        <f>'RAW GRADES'!CP20</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP21</f>
+        <v>40.625</v>
       </c>
       <c r="L23" s="47">
-        <f>'RAW GRADES'!CQ20</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CQ21</f>
+        <v>85.625</v>
       </c>
       <c r="M23" s="49">
-        <f>'RAW GRADES'!CR20</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CR21</f>
+        <v>85.63</v>
       </c>
       <c r="N23" s="53">
-        <f>'RAW GRADES'!CS20</f>
-        <v>40.31</v>
+        <f>'RAW GRADES'!CS21</f>
+        <v>86.49799999999999</v>
       </c>
       <c r="O23" s="51">
-        <f>'RAW GRADES'!CT20</f>
-        <v>5</v>
+        <f>'RAW GRADES'!CT21</f>
+        <v>2</v>
       </c>
       <c r="P23" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="45" t="str">
-        <f>'RAW GRADES'!C21</f>
-        <v>CABASAN ELMAR V</v>
+        <f>'RAW GRADES'!C22</f>
+        <v>CANDIDO PELEGRIN III D</v>
       </c>
       <c r="C24" s="52">
-        <f>'RAW GRADES'!F21</f>
+        <f>'RAW GRADES'!F22</f>
         <v>21.599999999999998</v>
       </c>
       <c r="D24" s="73">
-        <f>'RAW GRADES'!I21</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I22</f>
+        <v>21.2</v>
       </c>
       <c r="E24" s="47">
-        <f>'RAW GRADES'!AN21</f>
-        <v>19.5</v>
+        <f>'RAW GRADES'!AN22</f>
+        <v>18</v>
       </c>
       <c r="F24" s="47">
-        <f>'RAW GRADES'!AU21</f>
+        <f>'RAW GRADES'!AU22</f>
         <v>9.5</v>
       </c>
       <c r="G24" s="47">
-        <f>'RAW GRADES'!BB21</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB22</f>
+        <v>5</v>
       </c>
       <c r="H24" s="48">
-        <f>'RAW GRADES'!BC21</f>
-        <v>87.799999999999983</v>
+        <f>'RAW GRADES'!BC22</f>
+        <v>75.3</v>
       </c>
       <c r="I24" s="48">
-        <f>'RAW GRADES'!BD21</f>
-        <v>87.8</v>
+        <f>'RAW GRADES'!BD22</f>
+        <v>75.3</v>
       </c>
       <c r="J24" s="47">
-        <f>'RAW GRADES'!BK21</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK22</f>
+        <v>0</v>
       </c>
       <c r="K24" s="47">
-        <f>'RAW GRADES'!CP21</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP22</f>
+        <v>36.25</v>
       </c>
       <c r="L24" s="47">
-        <f>'RAW GRADES'!CQ21</f>
-        <v>85.625</v>
+        <f>'RAW GRADES'!CQ22</f>
+        <v>36.25</v>
       </c>
       <c r="M24" s="49">
-        <f>'RAW GRADES'!CR21</f>
-        <v>85.63</v>
+        <f>'RAW GRADES'!CR22</f>
+        <v>36.25</v>
       </c>
       <c r="N24" s="53">
-        <f>'RAW GRADES'!CS21</f>
-        <v>86.49799999999999</v>
+        <f>'RAW GRADES'!CS22</f>
+        <v>51.870000000000005</v>
       </c>
       <c r="O24" s="51">
-        <f>'RAW GRADES'!CT21</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT22</f>
+        <v>5</v>
       </c>
       <c r="P24" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>PASSED</v>
+        <v>FAILED</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="45" t="str">
-        <f>'RAW GRADES'!C22</f>
-        <v>CANDIDO PELEGRIN III D</v>
+        <f>'RAW GRADES'!C23</f>
+        <v>CANTORNE BLENNOX YAAQOV L</v>
       </c>
       <c r="C25" s="52">
-        <f>'RAW GRADES'!F22</f>
-        <v>21.599999999999998</v>
+        <f>'RAW GRADES'!F23</f>
+        <v>24</v>
       </c>
       <c r="D25" s="73">
-        <f>'RAW GRADES'!I22</f>
-        <v>21.2</v>
+        <f>'RAW GRADES'!I23</f>
+        <v>29.200000000000003</v>
       </c>
       <c r="E25" s="47">
-        <f>'RAW GRADES'!AN22</f>
-        <v>18</v>
+        <f>'RAW GRADES'!AN23</f>
+        <v>11.5</v>
       </c>
       <c r="F25" s="47">
-        <f>'RAW GRADES'!AU22</f>
+        <f>'RAW GRADES'!AU23</f>
         <v>9.5</v>
       </c>
       <c r="G25" s="47">
-        <f>'RAW GRADES'!BB22</f>
+        <f>'RAW GRADES'!BB23</f>
         <v>5</v>
       </c>
       <c r="H25" s="48">
-        <f>'RAW GRADES'!BC22</f>
-        <v>75.3</v>
+        <f>'RAW GRADES'!BC23</f>
+        <v>79.2</v>
       </c>
       <c r="I25" s="48">
-        <f>'RAW GRADES'!BD22</f>
-        <v>75.3</v>
+        <f>'RAW GRADES'!BD23</f>
+        <v>79.2</v>
       </c>
       <c r="J25" s="47">
-        <f>'RAW GRADES'!BK22</f>
-        <v>0</v>
+        <f>'RAW GRADES'!BK23</f>
+        <v>38.5</v>
       </c>
       <c r="K25" s="47">
-        <f>'RAW GRADES'!CP22</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP23</f>
+        <v>31.875</v>
       </c>
       <c r="L25" s="47">
-        <f>'RAW GRADES'!CQ22</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CQ23</f>
+        <v>70.375</v>
       </c>
       <c r="M25" s="49">
-        <f>'RAW GRADES'!CR22</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CR23</f>
+        <v>70.38</v>
       </c>
       <c r="N25" s="53">
-        <f>'RAW GRADES'!CS22</f>
-        <v>51.870000000000005</v>
+        <f>'RAW GRADES'!CS23</f>
+        <v>73.908000000000001</v>
       </c>
       <c r="O25" s="51">
-        <f>'RAW GRADES'!CT22</f>
-        <v>5</v>
+        <f>'RAW GRADES'!CT23</f>
+        <v>2.75</v>
       </c>
       <c r="P25" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="45" t="str">
-        <f>'RAW GRADES'!C23</f>
-        <v>CANTORNE BLENNOX YAAQOV L</v>
+        <f>'RAW GRADES'!C24</f>
+        <v>CANTUBA JOHN VINCENT B</v>
       </c>
       <c r="C26" s="52">
-        <f>'RAW GRADES'!F23</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F24</f>
+        <v>24.599999999999998</v>
       </c>
       <c r="D26" s="73">
-        <f>'RAW GRADES'!I23</f>
-        <v>29.200000000000003</v>
+        <f>'RAW GRADES'!I24</f>
+        <v>30</v>
       </c>
       <c r="E26" s="47">
-        <f>'RAW GRADES'!AN23</f>
-        <v>11.5</v>
+        <f>'RAW GRADES'!AN24</f>
+        <v>14.5</v>
       </c>
       <c r="F26" s="47">
-        <f>'RAW GRADES'!AU23</f>
+        <f>'RAW GRADES'!AU24</f>
         <v>9.5</v>
       </c>
       <c r="G26" s="47">
-        <f>'RAW GRADES'!BB23</f>
-        <v>5</v>
+        <f>'RAW GRADES'!BB24</f>
+        <v>10</v>
       </c>
       <c r="H26" s="48">
-        <f>'RAW GRADES'!BC23</f>
-        <v>79.2</v>
+        <f>'RAW GRADES'!BC24</f>
+        <v>88.6</v>
       </c>
       <c r="I26" s="48">
-        <f>'RAW GRADES'!BD23</f>
-        <v>79.2</v>
+        <f>'RAW GRADES'!BD24</f>
+        <v>88.6</v>
       </c>
       <c r="J26" s="47">
-        <f>'RAW GRADES'!BK23</f>
-        <v>38.5</v>
+        <f>'RAW GRADES'!BK24</f>
+        <v>45</v>
       </c>
       <c r="K26" s="47">
-        <f>'RAW GRADES'!CP23</f>
+        <f>'RAW GRADES'!CP24</f>
         <v>31.875</v>
       </c>
       <c r="L26" s="47">
-        <f>'RAW GRADES'!CQ23</f>
-        <v>70.375</v>
+        <f>'RAW GRADES'!CQ24</f>
+        <v>76.875</v>
       </c>
       <c r="M26" s="49">
-        <f>'RAW GRADES'!CR23</f>
-        <v>70.38</v>
+        <f>'RAW GRADES'!CR24</f>
+        <v>76.88</v>
       </c>
       <c r="N26" s="53">
-        <f>'RAW GRADES'!CS23</f>
-        <v>73.908000000000001</v>
+        <f>'RAW GRADES'!CS24</f>
+        <v>81.567999999999984</v>
       </c>
       <c r="O26" s="51">
-        <f>'RAW GRADES'!CT23</f>
-        <v>2.75</v>
+        <f>'RAW GRADES'!CT24</f>
+        <v>2.25</v>
       </c>
       <c r="P26" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26082,63 +26078,63 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="45" t="str">
-        <f>'RAW GRADES'!C24</f>
-        <v>CANTUBA JOHN VINCENT B</v>
+        <f>'RAW GRADES'!C25</f>
+        <v>CARPIO JAYSON JAY C</v>
       </c>
       <c r="C27" s="52">
-        <f>'RAW GRADES'!F24</f>
-        <v>24.599999999999998</v>
+        <f>'RAW GRADES'!F25</f>
+        <v>21</v>
       </c>
       <c r="D27" s="73">
-        <f>'RAW GRADES'!I24</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I25</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E27" s="47">
-        <f>'RAW GRADES'!AN24</f>
-        <v>14.5</v>
+        <f>'RAW GRADES'!AN25</f>
+        <v>19</v>
       </c>
       <c r="F27" s="47">
-        <f>'RAW GRADES'!AU24</f>
+        <f>'RAW GRADES'!AU25</f>
         <v>9.5</v>
       </c>
       <c r="G27" s="47">
-        <f>'RAW GRADES'!BB24</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB25</f>
+        <v>8</v>
       </c>
       <c r="H27" s="48">
-        <f>'RAW GRADES'!BC24</f>
-        <v>88.6</v>
+        <f>'RAW GRADES'!BC25</f>
+        <v>84.699999999999989</v>
       </c>
       <c r="I27" s="48">
-        <f>'RAW GRADES'!BD24</f>
-        <v>88.6</v>
+        <f>'RAW GRADES'!BD25</f>
+        <v>84.7</v>
       </c>
       <c r="J27" s="47">
-        <f>'RAW GRADES'!BK24</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK25</f>
+        <v>44</v>
       </c>
       <c r="K27" s="47">
-        <f>'RAW GRADES'!CP24</f>
-        <v>31.875</v>
+        <f>'RAW GRADES'!CP25</f>
+        <v>40.625</v>
       </c>
       <c r="L27" s="47">
-        <f>'RAW GRADES'!CQ24</f>
-        <v>76.875</v>
+        <f>'RAW GRADES'!CQ25</f>
+        <v>84.625</v>
       </c>
       <c r="M27" s="49">
-        <f>'RAW GRADES'!CR24</f>
-        <v>76.88</v>
+        <f>'RAW GRADES'!CR25</f>
+        <v>84.63</v>
       </c>
       <c r="N27" s="53">
-        <f>'RAW GRADES'!CS24</f>
-        <v>81.567999999999984</v>
+        <f>'RAW GRADES'!CS25</f>
+        <v>84.658000000000001</v>
       </c>
       <c r="O27" s="51">
-        <f>'RAW GRADES'!CT24</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT25</f>
+        <v>2</v>
       </c>
       <c r="P27" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26147,63 +26143,63 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="45" t="str">
-        <f>'RAW GRADES'!C25</f>
-        <v>CARPIO JAYSON JAY C</v>
+        <f>'RAW GRADES'!C26</f>
+        <v>CENTENO MATTHEW N</v>
       </c>
       <c r="C28" s="52">
-        <f>'RAW GRADES'!F25</f>
-        <v>21</v>
+        <f>'RAW GRADES'!F26</f>
+        <v>25.8</v>
       </c>
       <c r="D28" s="73">
-        <f>'RAW GRADES'!I25</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I26</f>
+        <v>22.400000000000002</v>
       </c>
       <c r="E28" s="47">
-        <f>'RAW GRADES'!AN25</f>
-        <v>19</v>
+        <f>'RAW GRADES'!AN26</f>
+        <v>10.25</v>
       </c>
       <c r="F28" s="47">
-        <f>'RAW GRADES'!AU25</f>
+        <f>'RAW GRADES'!AU26</f>
         <v>9.5</v>
       </c>
       <c r="G28" s="47">
-        <f>'RAW GRADES'!BB25</f>
-        <v>8</v>
+        <f>'RAW GRADES'!BB26</f>
+        <v>7</v>
       </c>
       <c r="H28" s="48">
-        <f>'RAW GRADES'!BC25</f>
-        <v>84.699999999999989</v>
+        <f>'RAW GRADES'!BC26</f>
+        <v>74.95</v>
       </c>
       <c r="I28" s="48">
-        <f>'RAW GRADES'!BD25</f>
-        <v>84.7</v>
+        <f>'RAW GRADES'!BD26</f>
+        <v>74.95</v>
       </c>
       <c r="J28" s="47">
-        <f>'RAW GRADES'!BK25</f>
-        <v>44</v>
+        <f>'RAW GRADES'!BK26</f>
+        <v>47.5</v>
       </c>
       <c r="K28" s="47">
-        <f>'RAW GRADES'!CP25</f>
+        <f>'RAW GRADES'!CP26</f>
         <v>40.625</v>
       </c>
       <c r="L28" s="47">
-        <f>'RAW GRADES'!CQ25</f>
-        <v>84.625</v>
+        <f>'RAW GRADES'!CQ26</f>
+        <v>88.125</v>
       </c>
       <c r="M28" s="49">
-        <f>'RAW GRADES'!CR25</f>
-        <v>84.63</v>
+        <f>'RAW GRADES'!CR26</f>
+        <v>88.13</v>
       </c>
       <c r="N28" s="53">
-        <f>'RAW GRADES'!CS25</f>
-        <v>84.658000000000001</v>
+        <f>'RAW GRADES'!CS26</f>
+        <v>82.858000000000004</v>
       </c>
       <c r="O28" s="51">
-        <f>'RAW GRADES'!CT25</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT26</f>
+        <v>2.25</v>
       </c>
       <c r="P28" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26212,63 +26208,63 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="45" t="str">
-        <f>'RAW GRADES'!C26</f>
-        <v>CENTENO MATTHEW N</v>
+        <f>'RAW GRADES'!C27</f>
+        <v>CERVANTES JESUS H</v>
       </c>
       <c r="C29" s="52">
-        <f>'RAW GRADES'!F26</f>
-        <v>25.8</v>
+        <f>'RAW GRADES'!F27</f>
+        <v>24</v>
       </c>
       <c r="D29" s="73">
-        <f>'RAW GRADES'!I26</f>
-        <v>22.400000000000002</v>
+        <f>'RAW GRADES'!I27</f>
+        <v>26</v>
       </c>
       <c r="E29" s="47">
-        <f>'RAW GRADES'!AN26</f>
-        <v>10.25</v>
+        <f>'RAW GRADES'!AN27</f>
+        <v>19.5</v>
       </c>
       <c r="F29" s="47">
-        <f>'RAW GRADES'!AU26</f>
+        <f>'RAW GRADES'!AU27</f>
         <v>9.5</v>
       </c>
       <c r="G29" s="47">
-        <f>'RAW GRADES'!BB26</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB27</f>
+        <v>10</v>
       </c>
       <c r="H29" s="48">
-        <f>'RAW GRADES'!BC26</f>
-        <v>74.95</v>
+        <f>'RAW GRADES'!BC27</f>
+        <v>89</v>
       </c>
       <c r="I29" s="48">
-        <f>'RAW GRADES'!BD26</f>
-        <v>74.95</v>
+        <f>'RAW GRADES'!BD27</f>
+        <v>89</v>
       </c>
       <c r="J29" s="47">
-        <f>'RAW GRADES'!BK26</f>
-        <v>47.5</v>
+        <f>'RAW GRADES'!BK27</f>
+        <v>46</v>
       </c>
       <c r="K29" s="47">
-        <f>'RAW GRADES'!CP26</f>
+        <f>'RAW GRADES'!CP27</f>
         <v>40.625</v>
       </c>
       <c r="L29" s="47">
-        <f>'RAW GRADES'!CQ26</f>
-        <v>88.125</v>
+        <f>'RAW GRADES'!CQ27</f>
+        <v>86.625</v>
       </c>
       <c r="M29" s="49">
-        <f>'RAW GRADES'!CR26</f>
-        <v>88.13</v>
+        <f>'RAW GRADES'!CR27</f>
+        <v>86.63</v>
       </c>
       <c r="N29" s="53">
-        <f>'RAW GRADES'!CS26</f>
-        <v>82.858000000000004</v>
+        <f>'RAW GRADES'!CS27</f>
+        <v>87.578000000000003</v>
       </c>
       <c r="O29" s="51">
-        <f>'RAW GRADES'!CT26</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT27</f>
+        <v>1.75</v>
       </c>
       <c r="P29" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26277,63 +26273,63 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="45" t="str">
-        <f>'RAW GRADES'!C27</f>
-        <v>CERVANTES JESUS H</v>
+        <f>'RAW GRADES'!C28</f>
+        <v>CONDE MARC ALDOUS S</v>
       </c>
       <c r="C30" s="52">
-        <f>'RAW GRADES'!F27</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F28</f>
+        <v>25.2</v>
       </c>
       <c r="D30" s="73">
-        <f>'RAW GRADES'!I27</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I28</f>
+        <v>30</v>
       </c>
       <c r="E30" s="47">
-        <f>'RAW GRADES'!AN27</f>
-        <v>19.5</v>
+        <f>'RAW GRADES'!AN28</f>
+        <v>19</v>
       </c>
       <c r="F30" s="47">
-        <f>'RAW GRADES'!AU27</f>
+        <f>'RAW GRADES'!AU28</f>
         <v>9.5</v>
       </c>
       <c r="G30" s="47">
-        <f>'RAW GRADES'!BB27</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB28</f>
+        <v>8</v>
       </c>
       <c r="H30" s="48">
-        <f>'RAW GRADES'!BC27</f>
-        <v>89</v>
+        <f>'RAW GRADES'!BC28</f>
+        <v>91.7</v>
       </c>
       <c r="I30" s="48">
-        <f>'RAW GRADES'!BD27</f>
-        <v>89</v>
+        <f>'RAW GRADES'!BD28</f>
+        <v>91.7</v>
       </c>
       <c r="J30" s="47">
-        <f>'RAW GRADES'!BK27</f>
-        <v>46</v>
+        <f>'RAW GRADES'!BK28</f>
+        <v>39</v>
       </c>
       <c r="K30" s="47">
-        <f>'RAW GRADES'!CP27</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP28</f>
+        <v>38.125</v>
       </c>
       <c r="L30" s="47">
-        <f>'RAW GRADES'!CQ27</f>
-        <v>86.625</v>
+        <f>'RAW GRADES'!CQ28</f>
+        <v>77.125</v>
       </c>
       <c r="M30" s="49">
-        <f>'RAW GRADES'!CR27</f>
-        <v>86.63</v>
+        <f>'RAW GRADES'!CR28</f>
+        <v>77.13</v>
       </c>
       <c r="N30" s="53">
-        <f>'RAW GRADES'!CS27</f>
-        <v>87.578000000000003</v>
+        <f>'RAW GRADES'!CS28</f>
+        <v>82.957999999999998</v>
       </c>
       <c r="O30" s="51">
-        <f>'RAW GRADES'!CT27</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT28</f>
+        <v>2.25</v>
       </c>
       <c r="P30" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26342,63 +26338,63 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="45" t="str">
-        <f>'RAW GRADES'!C28</f>
-        <v>CONDE MARC ALDOUS S</v>
+        <f>'RAW GRADES'!C29</f>
+        <v>CORTEZ ADRIAN PHILIP V</v>
       </c>
       <c r="C31" s="52">
-        <f>'RAW GRADES'!F28</f>
-        <v>25.2</v>
+        <f>'RAW GRADES'!F29</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="D31" s="73">
-        <f>'RAW GRADES'!I28</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I29</f>
+        <v>26</v>
       </c>
       <c r="E31" s="47">
-        <f>'RAW GRADES'!AN28</f>
-        <v>19</v>
+        <f>'RAW GRADES'!AN29</f>
+        <v>13</v>
       </c>
       <c r="F31" s="47">
-        <f>'RAW GRADES'!AU28</f>
+        <f>'RAW GRADES'!AU29</f>
         <v>9.5</v>
       </c>
       <c r="G31" s="47">
-        <f>'RAW GRADES'!BB28</f>
-        <v>8</v>
+        <f>'RAW GRADES'!BB29</f>
+        <v>8.5</v>
       </c>
       <c r="H31" s="48">
-        <f>'RAW GRADES'!BC28</f>
-        <v>91.7</v>
+        <f>'RAW GRADES'!BC29</f>
+        <v>84.6</v>
       </c>
       <c r="I31" s="48">
-        <f>'RAW GRADES'!BD28</f>
-        <v>91.7</v>
+        <f>'RAW GRADES'!BD29</f>
+        <v>84.6</v>
       </c>
       <c r="J31" s="47">
-        <f>'RAW GRADES'!BK28</f>
-        <v>39</v>
+        <f>'RAW GRADES'!BK29</f>
+        <v>45</v>
       </c>
       <c r="K31" s="47">
-        <f>'RAW GRADES'!CP28</f>
-        <v>38.125</v>
+        <f>'RAW GRADES'!CP29</f>
+        <v>40.625</v>
       </c>
       <c r="L31" s="47">
-        <f>'RAW GRADES'!CQ28</f>
-        <v>77.125</v>
+        <f>'RAW GRADES'!CQ29</f>
+        <v>85.625</v>
       </c>
       <c r="M31" s="49">
-        <f>'RAW GRADES'!CR28</f>
-        <v>77.13</v>
+        <f>'RAW GRADES'!CR29</f>
+        <v>85.63</v>
       </c>
       <c r="N31" s="53">
-        <f>'RAW GRADES'!CS28</f>
-        <v>82.957999999999998</v>
+        <f>'RAW GRADES'!CS29</f>
+        <v>85.217999999999989</v>
       </c>
       <c r="O31" s="51">
-        <f>'RAW GRADES'!CT28</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT29</f>
+        <v>2</v>
       </c>
       <c r="P31" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26407,63 +26403,63 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="45" t="str">
-        <f>'RAW GRADES'!C29</f>
-        <v>CORTEZ ADRIAN PHILIP V</v>
+        <f>'RAW GRADES'!C30</f>
+        <v>DELA CRUZ CHARLES B</v>
       </c>
       <c r="C32" s="52">
-        <f>'RAW GRADES'!F29</f>
-        <v>27.599999999999998</v>
+        <f>'RAW GRADES'!F30</f>
+        <v>15.6</v>
       </c>
       <c r="D32" s="73">
-        <f>'RAW GRADES'!I29</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I30</f>
+        <v>30</v>
       </c>
       <c r="E32" s="47">
-        <f>'RAW GRADES'!AN29</f>
-        <v>13</v>
+        <f>'RAW GRADES'!AN30</f>
+        <v>12</v>
       </c>
       <c r="F32" s="47">
-        <f>'RAW GRADES'!AU29</f>
+        <f>'RAW GRADES'!AU30</f>
         <v>9.5</v>
       </c>
       <c r="G32" s="47">
-        <f>'RAW GRADES'!BB29</f>
-        <v>8.5</v>
+        <f>'RAW GRADES'!BB30</f>
+        <v>10</v>
       </c>
       <c r="H32" s="48">
-        <f>'RAW GRADES'!BC29</f>
-        <v>84.6</v>
+        <f>'RAW GRADES'!BC30</f>
+        <v>77.099999999999994</v>
       </c>
       <c r="I32" s="48">
-        <f>'RAW GRADES'!BD29</f>
-        <v>84.6</v>
+        <f>'RAW GRADES'!BD30</f>
+        <v>77.099999999999994</v>
       </c>
       <c r="J32" s="47">
-        <f>'RAW GRADES'!BK29</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK30</f>
+        <v>46</v>
       </c>
       <c r="K32" s="47">
-        <f>'RAW GRADES'!CP29</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP30</f>
+        <v>37.8125</v>
       </c>
       <c r="L32" s="47">
-        <f>'RAW GRADES'!CQ29</f>
-        <v>85.625</v>
+        <f>'RAW GRADES'!CQ30</f>
+        <v>83.8125</v>
       </c>
       <c r="M32" s="49">
-        <f>'RAW GRADES'!CR29</f>
-        <v>85.63</v>
+        <f>'RAW GRADES'!CR30</f>
+        <v>83.81</v>
       </c>
       <c r="N32" s="53">
-        <f>'RAW GRADES'!CS29</f>
-        <v>85.217999999999989</v>
+        <f>'RAW GRADES'!CS30</f>
+        <v>81.126000000000005</v>
       </c>
       <c r="O32" s="51">
-        <f>'RAW GRADES'!CT29</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT30</f>
+        <v>2.25</v>
       </c>
       <c r="P32" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26472,63 +26468,63 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="45" t="str">
-        <f>'RAW GRADES'!C30</f>
-        <v>DELA CRUZ CHARLES B</v>
+        <f>'RAW GRADES'!C31</f>
+        <v>ELEPTICO RAYGIN F</v>
       </c>
       <c r="C33" s="52">
-        <f>'RAW GRADES'!F30</f>
-        <v>15.6</v>
+        <f>'RAW GRADES'!F31</f>
+        <v>18.599999999999998</v>
       </c>
       <c r="D33" s="73">
-        <f>'RAW GRADES'!I30</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I31</f>
+        <v>26</v>
       </c>
       <c r="E33" s="47">
-        <f>'RAW GRADES'!AN30</f>
-        <v>12</v>
+        <f>'RAW GRADES'!AN31</f>
+        <v>11</v>
       </c>
       <c r="F33" s="47">
-        <f>'RAW GRADES'!AU30</f>
+        <f>'RAW GRADES'!AU31</f>
         <v>9.5</v>
       </c>
       <c r="G33" s="47">
-        <f>'RAW GRADES'!BB30</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB31</f>
+        <v>5</v>
       </c>
       <c r="H33" s="48">
-        <f>'RAW GRADES'!BC30</f>
-        <v>77.099999999999994</v>
+        <f>'RAW GRADES'!BC31</f>
+        <v>70.099999999999994</v>
       </c>
       <c r="I33" s="48">
-        <f>'RAW GRADES'!BD30</f>
-        <v>77.099999999999994</v>
+        <f>'RAW GRADES'!BD31</f>
+        <v>70.099999999999994</v>
       </c>
       <c r="J33" s="47">
-        <f>'RAW GRADES'!BK30</f>
-        <v>46</v>
+        <f>'RAW GRADES'!BK31</f>
+        <v>44</v>
       </c>
       <c r="K33" s="47">
-        <f>'RAW GRADES'!CP30</f>
-        <v>37.8125</v>
+        <f>'RAW GRADES'!CP31</f>
+        <v>38.125</v>
       </c>
       <c r="L33" s="47">
-        <f>'RAW GRADES'!CQ30</f>
-        <v>83.8125</v>
+        <f>'RAW GRADES'!CQ31</f>
+        <v>82.125</v>
       </c>
       <c r="M33" s="49">
-        <f>'RAW GRADES'!CR30</f>
-        <v>83.81</v>
+        <f>'RAW GRADES'!CR31</f>
+        <v>82.13</v>
       </c>
       <c r="N33" s="53">
-        <f>'RAW GRADES'!CS30</f>
-        <v>81.126000000000005</v>
+        <f>'RAW GRADES'!CS31</f>
+        <v>77.317999999999998</v>
       </c>
       <c r="O33" s="51">
-        <f>'RAW GRADES'!CT30</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT31</f>
+        <v>2.5</v>
       </c>
       <c r="P33" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26537,63 +26533,63 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="45" t="str">
-        <f>'RAW GRADES'!C31</f>
-        <v>ELEPTICO RAYGIN F</v>
+        <f>'RAW GRADES'!C32</f>
+        <v>FRANCO JUNIEL C</v>
       </c>
       <c r="C34" s="52">
-        <f>'RAW GRADES'!F31</f>
-        <v>18.599999999999998</v>
+        <f>'RAW GRADES'!F32</f>
+        <v>19.8</v>
       </c>
       <c r="D34" s="73">
-        <f>'RAW GRADES'!I31</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I32</f>
+        <v>19.599999999999998</v>
       </c>
       <c r="E34" s="47">
-        <f>'RAW GRADES'!AN31</f>
-        <v>11</v>
+        <f>'RAW GRADES'!AN32</f>
+        <v>17.25</v>
       </c>
       <c r="F34" s="47">
-        <f>'RAW GRADES'!AU31</f>
+        <f>'RAW GRADES'!AU32</f>
         <v>9.5</v>
       </c>
       <c r="G34" s="47">
-        <f>'RAW GRADES'!BB31</f>
-        <v>5</v>
+        <f>'RAW GRADES'!BB32</f>
+        <v>7</v>
       </c>
       <c r="H34" s="48">
-        <f>'RAW GRADES'!BC31</f>
-        <v>70.099999999999994</v>
+        <f>'RAW GRADES'!BC32</f>
+        <v>73.149999999999991</v>
       </c>
       <c r="I34" s="48">
-        <f>'RAW GRADES'!BD31</f>
-        <v>70.099999999999994</v>
+        <f>'RAW GRADES'!BD32</f>
+        <v>73.150000000000006</v>
       </c>
       <c r="J34" s="47">
-        <f>'RAW GRADES'!BK31</f>
-        <v>44</v>
+        <f>'RAW GRADES'!BK32</f>
+        <v>44.5</v>
       </c>
       <c r="K34" s="47">
-        <f>'RAW GRADES'!CP31</f>
-        <v>38.125</v>
+        <f>'RAW GRADES'!CP32</f>
+        <v>40.625</v>
       </c>
       <c r="L34" s="47">
-        <f>'RAW GRADES'!CQ31</f>
-        <v>82.125</v>
+        <f>'RAW GRADES'!CQ32</f>
+        <v>85.125</v>
       </c>
       <c r="M34" s="49">
-        <f>'RAW GRADES'!CR31</f>
-        <v>82.13</v>
+        <f>'RAW GRADES'!CR32</f>
+        <v>85.13</v>
       </c>
       <c r="N34" s="53">
-        <f>'RAW GRADES'!CS31</f>
-        <v>77.317999999999998</v>
+        <f>'RAW GRADES'!CS32</f>
+        <v>80.337999999999994</v>
       </c>
       <c r="O34" s="51">
-        <f>'RAW GRADES'!CT31</f>
-        <v>2.5</v>
+        <f>'RAW GRADES'!CT32</f>
+        <v>2.25</v>
       </c>
       <c r="P34" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26602,63 +26598,63 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="45" t="str">
-        <f>'RAW GRADES'!C32</f>
-        <v>FRANCO JUNIEL C</v>
+        <f>'RAW GRADES'!C33</f>
+        <v>GOMEZ CELEEN MAE M</v>
       </c>
       <c r="C35" s="52">
-        <f>'RAW GRADES'!F32</f>
-        <v>19.8</v>
+        <f>'RAW GRADES'!F33</f>
+        <v>24</v>
       </c>
       <c r="D35" s="73">
-        <f>'RAW GRADES'!I32</f>
-        <v>19.599999999999998</v>
+        <f>'RAW GRADES'!I33</f>
+        <v>26</v>
       </c>
       <c r="E35" s="47">
-        <f>'RAW GRADES'!AN32</f>
-        <v>17.25</v>
+        <f>'RAW GRADES'!AN33</f>
+        <v>19</v>
       </c>
       <c r="F35" s="47">
-        <f>'RAW GRADES'!AU32</f>
+        <f>'RAW GRADES'!AU33</f>
         <v>9.5</v>
       </c>
       <c r="G35" s="47">
-        <f>'RAW GRADES'!BB32</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB33</f>
+        <v>10</v>
       </c>
       <c r="H35" s="48">
-        <f>'RAW GRADES'!BC32</f>
-        <v>73.149999999999991</v>
+        <f>'RAW GRADES'!BC33</f>
+        <v>88.5</v>
       </c>
       <c r="I35" s="48">
-        <f>'RAW GRADES'!BD32</f>
-        <v>73.150000000000006</v>
+        <f>'RAW GRADES'!BD33</f>
+        <v>88.5</v>
       </c>
       <c r="J35" s="47">
-        <f>'RAW GRADES'!BK32</f>
-        <v>44.5</v>
+        <f>'RAW GRADES'!BK33</f>
+        <v>49</v>
       </c>
       <c r="K35" s="47">
-        <f>'RAW GRADES'!CP32</f>
+        <f>'RAW GRADES'!CP33</f>
         <v>40.625</v>
       </c>
       <c r="L35" s="47">
-        <f>'RAW GRADES'!CQ32</f>
-        <v>85.125</v>
+        <f>'RAW GRADES'!CQ33</f>
+        <v>89.625</v>
       </c>
       <c r="M35" s="49">
-        <f>'RAW GRADES'!CR32</f>
-        <v>85.13</v>
+        <f>'RAW GRADES'!CR33</f>
+        <v>89.63</v>
       </c>
       <c r="N35" s="53">
-        <f>'RAW GRADES'!CS32</f>
-        <v>80.337999999999994</v>
+        <f>'RAW GRADES'!CS33</f>
+        <v>89.177999999999997</v>
       </c>
       <c r="O35" s="51">
-        <f>'RAW GRADES'!CT32</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT33</f>
+        <v>1.75</v>
       </c>
       <c r="P35" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26667,63 +26663,63 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="45" t="str">
-        <f>'RAW GRADES'!C33</f>
-        <v>GOMEZ CELEEN MAE M</v>
+        <f>'RAW GRADES'!C34</f>
+        <v>IMPERIO RONALD BENEDICT M</v>
       </c>
       <c r="C36" s="52">
-        <f>'RAW GRADES'!F33</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F34</f>
+        <v>21</v>
       </c>
       <c r="D36" s="73">
-        <f>'RAW GRADES'!I33</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I34</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E36" s="47">
-        <f>'RAW GRADES'!AN33</f>
-        <v>19</v>
+        <f>'RAW GRADES'!AN34</f>
+        <v>11.25</v>
       </c>
       <c r="F36" s="47">
-        <f>'RAW GRADES'!AU33</f>
+        <f>'RAW GRADES'!AU34</f>
         <v>9.5</v>
       </c>
       <c r="G36" s="47">
-        <f>'RAW GRADES'!BB33</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB34</f>
+        <v>5</v>
       </c>
       <c r="H36" s="48">
-        <f>'RAW GRADES'!BC33</f>
-        <v>88.5</v>
+        <f>'RAW GRADES'!BC34</f>
+        <v>73.949999999999989</v>
       </c>
       <c r="I36" s="48">
-        <f>'RAW GRADES'!BD33</f>
-        <v>88.5</v>
+        <f>'RAW GRADES'!BD34</f>
+        <v>73.95</v>
       </c>
       <c r="J36" s="47">
-        <f>'RAW GRADES'!BK33</f>
-        <v>49</v>
+        <f>'RAW GRADES'!BK34</f>
+        <v>38.5</v>
       </c>
       <c r="K36" s="47">
-        <f>'RAW GRADES'!CP33</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP34</f>
+        <v>31.875</v>
       </c>
       <c r="L36" s="47">
-        <f>'RAW GRADES'!CQ33</f>
-        <v>89.625</v>
+        <f>'RAW GRADES'!CQ34</f>
+        <v>70.375</v>
       </c>
       <c r="M36" s="49">
-        <f>'RAW GRADES'!CR33</f>
-        <v>89.63</v>
+        <f>'RAW GRADES'!CR34</f>
+        <v>70.38</v>
       </c>
       <c r="N36" s="53">
-        <f>'RAW GRADES'!CS33</f>
-        <v>89.177999999999997</v>
+        <f>'RAW GRADES'!CS34</f>
+        <v>71.807999999999993</v>
       </c>
       <c r="O36" s="51">
-        <f>'RAW GRADES'!CT33</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT34</f>
+        <v>3</v>
       </c>
       <c r="P36" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26732,63 +26728,63 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="45" t="str">
-        <f>'RAW GRADES'!C34</f>
-        <v>IMPERIO RONALD BENEDICT M</v>
+        <f>'RAW GRADES'!C35</f>
+        <v>JOSE RALPH RHOLWEN M</v>
       </c>
       <c r="C37" s="52">
-        <f>'RAW GRADES'!F34</f>
-        <v>21</v>
+        <f>'RAW GRADES'!F35</f>
+        <v>25.2</v>
       </c>
       <c r="D37" s="73">
-        <f>'RAW GRADES'!I34</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I35</f>
+        <v>26</v>
       </c>
       <c r="E37" s="47">
-        <f>'RAW GRADES'!AN34</f>
-        <v>11.25</v>
+        <f>'RAW GRADES'!AN35</f>
+        <v>18</v>
       </c>
       <c r="F37" s="47">
-        <f>'RAW GRADES'!AU34</f>
+        <f>'RAW GRADES'!AU35</f>
         <v>9.5</v>
       </c>
       <c r="G37" s="47">
-        <f>'RAW GRADES'!BB34</f>
-        <v>5</v>
+        <f>'RAW GRADES'!BB35</f>
+        <v>7</v>
       </c>
       <c r="H37" s="48">
-        <f>'RAW GRADES'!BC34</f>
-        <v>73.949999999999989</v>
+        <f>'RAW GRADES'!BC35</f>
+        <v>85.7</v>
       </c>
       <c r="I37" s="48">
-        <f>'RAW GRADES'!BD34</f>
-        <v>73.95</v>
+        <f>'RAW GRADES'!BD35</f>
+        <v>85.7</v>
       </c>
       <c r="J37" s="47">
-        <f>'RAW GRADES'!BK34</f>
-        <v>38.5</v>
+        <f>'RAW GRADES'!BK35</f>
+        <v>44.5</v>
       </c>
       <c r="K37" s="47">
-        <f>'RAW GRADES'!CP34</f>
-        <v>31.875</v>
+        <f>'RAW GRADES'!CP35</f>
+        <v>40.625</v>
       </c>
       <c r="L37" s="47">
-        <f>'RAW GRADES'!CQ34</f>
-        <v>70.375</v>
+        <f>'RAW GRADES'!CQ35</f>
+        <v>85.125</v>
       </c>
       <c r="M37" s="49">
-        <f>'RAW GRADES'!CR34</f>
-        <v>70.38</v>
+        <f>'RAW GRADES'!CR35</f>
+        <v>85.13</v>
       </c>
       <c r="N37" s="53">
-        <f>'RAW GRADES'!CS34</f>
-        <v>71.807999999999993</v>
+        <f>'RAW GRADES'!CS35</f>
+        <v>85.358000000000004</v>
       </c>
       <c r="O37" s="51">
-        <f>'RAW GRADES'!CT34</f>
-        <v>3</v>
+        <f>'RAW GRADES'!CT35</f>
+        <v>2</v>
       </c>
       <c r="P37" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26797,63 +26793,63 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="45" t="str">
-        <f>'RAW GRADES'!C35</f>
-        <v>JOSE RALPH RHOLWEN M</v>
+        <f>'RAW GRADES'!C37</f>
+        <v>LOZADA ANGELICA T</v>
       </c>
       <c r="C38" s="52">
-        <f>'RAW GRADES'!F35</f>
-        <v>25.2</v>
+        <f>'RAW GRADES'!F37</f>
+        <v>24</v>
       </c>
       <c r="D38" s="73">
-        <f>'RAW GRADES'!I35</f>
-        <v>26</v>
+        <f>'RAW GRADES'!I37</f>
+        <v>29.200000000000003</v>
       </c>
       <c r="E38" s="47">
-        <f>'RAW GRADES'!AN35</f>
-        <v>18</v>
+        <f>'RAW GRADES'!AN37</f>
+        <v>19.5</v>
       </c>
       <c r="F38" s="47">
-        <f>'RAW GRADES'!AU35</f>
+        <f>'RAW GRADES'!AU37</f>
         <v>9.5</v>
       </c>
       <c r="G38" s="47">
-        <f>'RAW GRADES'!BB35</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB37</f>
+        <v>10</v>
       </c>
       <c r="H38" s="48">
-        <f>'RAW GRADES'!BC35</f>
-        <v>85.7</v>
+        <f>'RAW GRADES'!BC37</f>
+        <v>92.2</v>
       </c>
       <c r="I38" s="48">
-        <f>'RAW GRADES'!BD35</f>
-        <v>85.7</v>
+        <f>'RAW GRADES'!BD37</f>
+        <v>92.2</v>
       </c>
       <c r="J38" s="47">
-        <f>'RAW GRADES'!BK35</f>
-        <v>44.5</v>
+        <f>'RAW GRADES'!BK37</f>
+        <v>49</v>
       </c>
       <c r="K38" s="47">
-        <f>'RAW GRADES'!CP35</f>
+        <f>'RAW GRADES'!CP37</f>
         <v>40.625</v>
       </c>
       <c r="L38" s="47">
-        <f>'RAW GRADES'!CQ35</f>
-        <v>85.125</v>
+        <f>'RAW GRADES'!CQ37</f>
+        <v>89.625</v>
       </c>
       <c r="M38" s="49">
-        <f>'RAW GRADES'!CR35</f>
-        <v>85.13</v>
+        <f>'RAW GRADES'!CR37</f>
+        <v>89.63</v>
       </c>
       <c r="N38" s="53">
-        <f>'RAW GRADES'!CS35</f>
-        <v>85.358000000000004</v>
+        <f>'RAW GRADES'!CS37</f>
+        <v>90.658000000000001</v>
       </c>
       <c r="O38" s="51">
-        <f>'RAW GRADES'!CT35</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT37</f>
+        <v>1.5</v>
       </c>
       <c r="P38" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26862,128 +26858,128 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="45" t="str">
-        <f>'RAW GRADES'!C36</f>
-        <v>JUANCITO ROSALYN JOYCE R</v>
+        <f>'RAW GRADES'!C38</f>
+        <v>MAGLIAN MATHEOJAY R</v>
       </c>
       <c r="C39" s="52">
-        <f>'RAW GRADES'!F36</f>
-        <v>0</v>
+        <f>'RAW GRADES'!F38</f>
+        <v>28.2</v>
       </c>
       <c r="D39" s="73">
-        <f>'RAW GRADES'!I36</f>
-        <v>0</v>
+        <f>'RAW GRADES'!I38</f>
+        <v>30</v>
       </c>
       <c r="E39" s="47">
-        <f>'RAW GRADES'!AN36</f>
-        <v>4.5</v>
+        <f>'RAW GRADES'!AN38</f>
+        <v>19.5</v>
       </c>
       <c r="F39" s="47">
-        <f>'RAW GRADES'!AU36</f>
-        <v>0</v>
+        <f>'RAW GRADES'!AU38</f>
+        <v>9.5</v>
       </c>
       <c r="G39" s="47">
-        <f>'RAW GRADES'!BB36</f>
-        <v>2</v>
+        <f>'RAW GRADES'!BB38</f>
+        <v>10</v>
       </c>
       <c r="H39" s="48">
-        <f>'RAW GRADES'!BC36</f>
-        <v>6.5</v>
+        <f>'RAW GRADES'!BC38</f>
+        <v>97.2</v>
       </c>
       <c r="I39" s="48">
-        <f>'RAW GRADES'!BD36</f>
-        <v>6.5</v>
+        <f>'RAW GRADES'!BD38</f>
+        <v>97.2</v>
       </c>
       <c r="J39" s="47">
-        <f>'RAW GRADES'!BK36</f>
-        <v>0</v>
+        <f>'RAW GRADES'!BK38</f>
+        <v>49</v>
       </c>
       <c r="K39" s="47">
-        <f>'RAW GRADES'!CP36</f>
-        <v>13.125</v>
+        <f>'RAW GRADES'!CP38</f>
+        <v>40.625</v>
       </c>
       <c r="L39" s="47">
-        <f>'RAW GRADES'!CQ36</f>
-        <v>13.125</v>
+        <f>'RAW GRADES'!CQ38</f>
+        <v>89.625</v>
       </c>
       <c r="M39" s="49">
-        <f>'RAW GRADES'!CR36</f>
-        <v>13.13</v>
+        <f>'RAW GRADES'!CR38</f>
+        <v>89.63</v>
       </c>
       <c r="N39" s="53">
-        <f>'RAW GRADES'!CS36</f>
-        <v>10.478</v>
+        <f>'RAW GRADES'!CS38</f>
+        <v>92.658000000000001</v>
       </c>
       <c r="O39" s="51">
-        <f>'RAW GRADES'!CT36</f>
-        <v>5</v>
+        <f>'RAW GRADES'!CT38</f>
+        <v>1.5</v>
       </c>
       <c r="P39" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="45" t="str">
-        <f>'RAW GRADES'!C37</f>
-        <v>LOZADA ANGELICA T</v>
+        <f>'RAW GRADES'!C39</f>
+        <v>MERCADO ALLEN PAUL S</v>
       </c>
       <c r="C40" s="52">
-        <f>'RAW GRADES'!F37</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F39</f>
+        <v>25.8</v>
       </c>
       <c r="D40" s="73">
-        <f>'RAW GRADES'!I37</f>
-        <v>29.200000000000003</v>
+        <f>'RAW GRADES'!I39</f>
+        <v>21.999999999999996</v>
       </c>
       <c r="E40" s="47">
-        <f>'RAW GRADES'!AN37</f>
-        <v>19.5</v>
+        <f>'RAW GRADES'!AN39</f>
+        <v>13</v>
       </c>
       <c r="F40" s="47">
-        <f>'RAW GRADES'!AU37</f>
+        <f>'RAW GRADES'!AU39</f>
         <v>9.5</v>
       </c>
       <c r="G40" s="47">
-        <f>'RAW GRADES'!BB37</f>
+        <f>'RAW GRADES'!BB39</f>
         <v>10</v>
       </c>
       <c r="H40" s="48">
-        <f>'RAW GRADES'!BC37</f>
-        <v>92.2</v>
+        <f>'RAW GRADES'!BC39</f>
+        <v>80.3</v>
       </c>
       <c r="I40" s="48">
-        <f>'RAW GRADES'!BD37</f>
-        <v>92.2</v>
+        <f>'RAW GRADES'!BD39</f>
+        <v>80.3</v>
       </c>
       <c r="J40" s="47">
-        <f>'RAW GRADES'!BK37</f>
+        <f>'RAW GRADES'!BK39</f>
         <v>49</v>
       </c>
       <c r="K40" s="47">
-        <f>'RAW GRADES'!CP37</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP39</f>
+        <v>36.25</v>
       </c>
       <c r="L40" s="47">
-        <f>'RAW GRADES'!CQ37</f>
-        <v>89.625</v>
+        <f>'RAW GRADES'!CQ39</f>
+        <v>85.25</v>
       </c>
       <c r="M40" s="49">
-        <f>'RAW GRADES'!CR37</f>
-        <v>89.63</v>
+        <f>'RAW GRADES'!CR39</f>
+        <v>85.25</v>
       </c>
       <c r="N40" s="53">
-        <f>'RAW GRADES'!CS37</f>
-        <v>90.658000000000001</v>
+        <f>'RAW GRADES'!CS39</f>
+        <v>83.27</v>
       </c>
       <c r="O40" s="51">
-        <f>'RAW GRADES'!CT37</f>
-        <v>1.5</v>
+        <f>'RAW GRADES'!CT39</f>
+        <v>2.25</v>
       </c>
       <c r="P40" s="54" t="str">
         <f t="shared" si="0"/>
@@ -26992,63 +26988,63 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="45" t="str">
-        <f>'RAW GRADES'!C38</f>
-        <v>MAGLIAN MATHEOJAY R</v>
+        <f>'RAW GRADES'!C40</f>
+        <v>MISCREOLA ANGEL JOY R</v>
       </c>
       <c r="C41" s="52">
-        <f>'RAW GRADES'!F38</f>
-        <v>28.2</v>
+        <f>'RAW GRADES'!F40</f>
+        <v>22.2</v>
       </c>
       <c r="D41" s="73">
-        <f>'RAW GRADES'!I38</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I40</f>
+        <v>23.599999999999998</v>
       </c>
       <c r="E41" s="47">
-        <f>'RAW GRADES'!AN38</f>
-        <v>19.5</v>
+        <f>'RAW GRADES'!AN40</f>
+        <v>14.5</v>
       </c>
       <c r="F41" s="47">
-        <f>'RAW GRADES'!AU38</f>
+        <f>'RAW GRADES'!AU40</f>
         <v>9.5</v>
       </c>
       <c r="G41" s="47">
-        <f>'RAW GRADES'!BB38</f>
+        <f>'RAW GRADES'!BB40</f>
         <v>10</v>
       </c>
       <c r="H41" s="48">
-        <f>'RAW GRADES'!BC38</f>
-        <v>97.2</v>
+        <f>'RAW GRADES'!BC40</f>
+        <v>79.8</v>
       </c>
       <c r="I41" s="48">
-        <f>'RAW GRADES'!BD38</f>
-        <v>97.2</v>
+        <f>'RAW GRADES'!BD40</f>
+        <v>79.8</v>
       </c>
       <c r="J41" s="47">
-        <f>'RAW GRADES'!BK38</f>
-        <v>49</v>
+        <f>'RAW GRADES'!BK40</f>
+        <v>36</v>
       </c>
       <c r="K41" s="47">
-        <f>'RAW GRADES'!CP38</f>
+        <f>'RAW GRADES'!CP40</f>
         <v>40.625</v>
       </c>
       <c r="L41" s="47">
-        <f>'RAW GRADES'!CQ38</f>
-        <v>89.625</v>
+        <f>'RAW GRADES'!CQ40</f>
+        <v>76.625</v>
       </c>
       <c r="M41" s="49">
-        <f>'RAW GRADES'!CR38</f>
-        <v>89.63</v>
+        <f>'RAW GRADES'!CR40</f>
+        <v>76.63</v>
       </c>
       <c r="N41" s="53">
-        <f>'RAW GRADES'!CS38</f>
-        <v>92.658000000000001</v>
+        <f>'RAW GRADES'!CS40</f>
+        <v>77.897999999999996</v>
       </c>
       <c r="O41" s="51">
-        <f>'RAW GRADES'!CT38</f>
-        <v>1.5</v>
+        <f>'RAW GRADES'!CT40</f>
+        <v>2.5</v>
       </c>
       <c r="P41" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27057,63 +27053,63 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
+        <v>29</v>
+      </c>
+      <c r="B42" s="45" t="str">
+        <f>'RAW GRADES'!C41</f>
+        <v>NAVARRA JHON ANGELO  D</v>
+      </c>
+      <c r="C42" s="52">
+        <f>'RAW GRADES'!F41</f>
+        <v>11.4</v>
+      </c>
+      <c r="D42" s="73">
+        <f>'RAW GRADES'!I41</f>
         <v>30</v>
       </c>
-      <c r="B42" s="45" t="str">
-        <f>'RAW GRADES'!C39</f>
-        <v>MERCADO ALLEN PAUL S</v>
-      </c>
-      <c r="C42" s="52">
-        <f>'RAW GRADES'!F39</f>
-        <v>25.8</v>
-      </c>
-      <c r="D42" s="73">
-        <f>'RAW GRADES'!I39</f>
-        <v>21.999999999999996</v>
-      </c>
       <c r="E42" s="47">
-        <f>'RAW GRADES'!AN39</f>
-        <v>13</v>
+        <f>'RAW GRADES'!AN41</f>
+        <v>18.5</v>
       </c>
       <c r="F42" s="47">
-        <f>'RAW GRADES'!AU39</f>
+        <f>'RAW GRADES'!AU41</f>
         <v>9.5</v>
       </c>
       <c r="G42" s="47">
-        <f>'RAW GRADES'!BB39</f>
+        <f>'RAW GRADES'!BB41</f>
         <v>10</v>
       </c>
       <c r="H42" s="48">
-        <f>'RAW GRADES'!BC39</f>
-        <v>80.3</v>
+        <f>'RAW GRADES'!BC41</f>
+        <v>79.400000000000006</v>
       </c>
       <c r="I42" s="48">
-        <f>'RAW GRADES'!BD39</f>
-        <v>80.3</v>
+        <f>'RAW GRADES'!BD41</f>
+        <v>79.400000000000006</v>
       </c>
       <c r="J42" s="47">
-        <f>'RAW GRADES'!BK39</f>
-        <v>49</v>
+        <f>'RAW GRADES'!BK41</f>
+        <v>39</v>
       </c>
       <c r="K42" s="47">
-        <f>'RAW GRADES'!CP39</f>
+        <f>'RAW GRADES'!CP41</f>
         <v>36.25</v>
       </c>
       <c r="L42" s="47">
-        <f>'RAW GRADES'!CQ39</f>
-        <v>85.25</v>
+        <f>'RAW GRADES'!CQ41</f>
+        <v>75.25</v>
       </c>
       <c r="M42" s="49">
-        <f>'RAW GRADES'!CR39</f>
-        <v>85.25</v>
+        <f>'RAW GRADES'!CR41</f>
+        <v>75.25</v>
       </c>
       <c r="N42" s="53">
-        <f>'RAW GRADES'!CS39</f>
-        <v>83.27</v>
+        <f>'RAW GRADES'!CS41</f>
+        <v>76.91</v>
       </c>
       <c r="O42" s="51">
-        <f>'RAW GRADES'!CT39</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT41</f>
+        <v>2.5</v>
       </c>
       <c r="P42" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27122,63 +27118,63 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="45" t="str">
-        <f>'RAW GRADES'!C40</f>
-        <v>MISCREOLA ANGEL JOY R</v>
+        <f>'RAW GRADES'!C42</f>
+        <v>NOVEROS KENNETH O</v>
       </c>
       <c r="C43" s="52">
-        <f>'RAW GRADES'!F40</f>
-        <v>22.2</v>
+        <f>'RAW GRADES'!F42</f>
+        <v>24</v>
       </c>
       <c r="D43" s="73">
-        <f>'RAW GRADES'!I40</f>
-        <v>23.599999999999998</v>
+        <f>'RAW GRADES'!I42</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E43" s="47">
-        <f>'RAW GRADES'!AN40</f>
-        <v>14.5</v>
+        <f>'RAW GRADES'!AN42</f>
+        <v>11.5</v>
       </c>
       <c r="F43" s="47">
-        <f>'RAW GRADES'!AU40</f>
+        <f>'RAW GRADES'!AU42</f>
         <v>9.5</v>
       </c>
       <c r="G43" s="47">
-        <f>'RAW GRADES'!BB40</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB42</f>
+        <v>8.5</v>
       </c>
       <c r="H43" s="48">
-        <f>'RAW GRADES'!BC40</f>
-        <v>79.8</v>
+        <f>'RAW GRADES'!BC42</f>
+        <v>80.699999999999989</v>
       </c>
       <c r="I43" s="48">
-        <f>'RAW GRADES'!BD40</f>
-        <v>79.8</v>
+        <f>'RAW GRADES'!BD42</f>
+        <v>80.7</v>
       </c>
       <c r="J43" s="47">
-        <f>'RAW GRADES'!BK40</f>
-        <v>36</v>
+        <f>'RAW GRADES'!BK42</f>
+        <v>47.5</v>
       </c>
       <c r="K43" s="47">
-        <f>'RAW GRADES'!CP40</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP42</f>
+        <v>36.25</v>
       </c>
       <c r="L43" s="47">
-        <f>'RAW GRADES'!CQ40</f>
-        <v>76.625</v>
+        <f>'RAW GRADES'!CQ42</f>
+        <v>83.75</v>
       </c>
       <c r="M43" s="49">
-        <f>'RAW GRADES'!CR40</f>
-        <v>76.63</v>
+        <f>'RAW GRADES'!CR42</f>
+        <v>83.75</v>
       </c>
       <c r="N43" s="53">
-        <f>'RAW GRADES'!CS40</f>
-        <v>77.897999999999996</v>
+        <f>'RAW GRADES'!CS42</f>
+        <v>82.53</v>
       </c>
       <c r="O43" s="51">
-        <f>'RAW GRADES'!CT40</f>
-        <v>2.5</v>
+        <f>'RAW GRADES'!CT42</f>
+        <v>2.25</v>
       </c>
       <c r="P43" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27187,63 +27183,63 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="45" t="str">
-        <f>'RAW GRADES'!C41</f>
-        <v>NAVARRA JHON ANGELO  D</v>
+        <f>'RAW GRADES'!C43</f>
+        <v>ONIA JAYVEE RENZ J</v>
       </c>
       <c r="C44" s="52">
-        <f>'RAW GRADES'!F41</f>
-        <v>11.4</v>
+        <f>'RAW GRADES'!F43</f>
+        <v>24.599999999999998</v>
       </c>
       <c r="D44" s="73">
-        <f>'RAW GRADES'!I41</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I43</f>
+        <v>27.999999999999996</v>
       </c>
       <c r="E44" s="47">
-        <f>'RAW GRADES'!AN41</f>
-        <v>18.5</v>
+        <f>'RAW GRADES'!AN43</f>
+        <v>12.333333333333334</v>
       </c>
       <c r="F44" s="47">
-        <f>'RAW GRADES'!AU41</f>
+        <f>'RAW GRADES'!AU43</f>
         <v>9.5</v>
       </c>
       <c r="G44" s="47">
-        <f>'RAW GRADES'!BB41</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB43</f>
+        <v>7</v>
       </c>
       <c r="H44" s="48">
-        <f>'RAW GRADES'!BC41</f>
-        <v>79.400000000000006</v>
+        <f>'RAW GRADES'!BC43</f>
+        <v>81.433333333333323</v>
       </c>
       <c r="I44" s="48">
-        <f>'RAW GRADES'!BD41</f>
-        <v>79.400000000000006</v>
+        <f>'RAW GRADES'!BD43</f>
+        <v>81.430000000000007</v>
       </c>
       <c r="J44" s="47">
-        <f>'RAW GRADES'!BK41</f>
-        <v>39</v>
+        <f>'RAW GRADES'!BK43</f>
+        <v>36</v>
       </c>
       <c r="K44" s="47">
-        <f>'RAW GRADES'!CP41</f>
+        <f>'RAW GRADES'!CP43</f>
         <v>36.25</v>
       </c>
       <c r="L44" s="47">
-        <f>'RAW GRADES'!CQ41</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CQ43</f>
+        <v>72.25</v>
       </c>
       <c r="M44" s="49">
-        <f>'RAW GRADES'!CR41</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CR43</f>
+        <v>72.25</v>
       </c>
       <c r="N44" s="53">
-        <f>'RAW GRADES'!CS41</f>
-        <v>76.91</v>
+        <f>'RAW GRADES'!CS43</f>
+        <v>75.921999999999997</v>
       </c>
       <c r="O44" s="51">
-        <f>'RAW GRADES'!CT41</f>
-        <v>2.5</v>
+        <f>'RAW GRADES'!CT43</f>
+        <v>2.75</v>
       </c>
       <c r="P44" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27252,63 +27248,63 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="44">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="45" t="str">
-        <f>'RAW GRADES'!C42</f>
-        <v>NOVEROS KENNETH O</v>
+        <f>'RAW GRADES'!C44</f>
+        <v>PEREA KIM NATHANIEL C</v>
       </c>
       <c r="C45" s="52">
-        <f>'RAW GRADES'!F42</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F44</f>
+        <v>25.2</v>
       </c>
       <c r="D45" s="73">
-        <f>'RAW GRADES'!I42</f>
-        <v>27.199999999999996</v>
+        <f>'RAW GRADES'!I44</f>
+        <v>27.999999999999996</v>
       </c>
       <c r="E45" s="47">
-        <f>'RAW GRADES'!AN42</f>
-        <v>11.5</v>
+        <f>'RAW GRADES'!AN44</f>
+        <v>17</v>
       </c>
       <c r="F45" s="47">
-        <f>'RAW GRADES'!AU42</f>
+        <f>'RAW GRADES'!AU44</f>
         <v>9.5</v>
       </c>
       <c r="G45" s="47">
-        <f>'RAW GRADES'!BB42</f>
-        <v>8.5</v>
+        <f>'RAW GRADES'!BB44</f>
+        <v>10</v>
       </c>
       <c r="H45" s="48">
-        <f>'RAW GRADES'!BC42</f>
-        <v>80.699999999999989</v>
+        <f>'RAW GRADES'!BC44</f>
+        <v>89.7</v>
       </c>
       <c r="I45" s="48">
-        <f>'RAW GRADES'!BD42</f>
-        <v>80.7</v>
+        <f>'RAW GRADES'!BD44</f>
+        <v>89.7</v>
       </c>
       <c r="J45" s="47">
-        <f>'RAW GRADES'!BK42</f>
+        <f>'RAW GRADES'!BK44</f>
         <v>47.5</v>
       </c>
       <c r="K45" s="47">
-        <f>'RAW GRADES'!CP42</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP44</f>
+        <v>40.625</v>
       </c>
       <c r="L45" s="47">
-        <f>'RAW GRADES'!CQ42</f>
-        <v>83.75</v>
+        <f>'RAW GRADES'!CQ44</f>
+        <v>88.125</v>
       </c>
       <c r="M45" s="49">
-        <f>'RAW GRADES'!CR42</f>
-        <v>83.75</v>
+        <f>'RAW GRADES'!CR44</f>
+        <v>88.13</v>
       </c>
       <c r="N45" s="53">
-        <f>'RAW GRADES'!CS42</f>
-        <v>82.53</v>
+        <f>'RAW GRADES'!CS44</f>
+        <v>88.757999999999996</v>
       </c>
       <c r="O45" s="51">
-        <f>'RAW GRADES'!CT42</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT44</f>
+        <v>1.75</v>
       </c>
       <c r="P45" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27317,63 +27313,63 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="45" t="str">
-        <f>'RAW GRADES'!C43</f>
-        <v>ONIA JAYVEE RENZ J</v>
+        <f>'RAW GRADES'!C45</f>
+        <v>PETINGLAY REX JR. A</v>
       </c>
       <c r="C46" s="52">
-        <f>'RAW GRADES'!F43</f>
-        <v>24.599999999999998</v>
+        <f>'RAW GRADES'!F45</f>
+        <v>23.4</v>
       </c>
       <c r="D46" s="73">
-        <f>'RAW GRADES'!I43</f>
-        <v>27.999999999999996</v>
+        <f>'RAW GRADES'!I45</f>
+        <v>23.599999999999998</v>
       </c>
       <c r="E46" s="47">
-        <f>'RAW GRADES'!AN43</f>
-        <v>12.333333333333334</v>
+        <f>'RAW GRADES'!AN45</f>
+        <v>18.75</v>
       </c>
       <c r="F46" s="47">
-        <f>'RAW GRADES'!AU43</f>
+        <f>'RAW GRADES'!AU45</f>
         <v>9.5</v>
       </c>
       <c r="G46" s="47">
-        <f>'RAW GRADES'!BB43</f>
-        <v>7</v>
+        <f>'RAW GRADES'!BB45</f>
+        <v>10</v>
       </c>
       <c r="H46" s="48">
-        <f>'RAW GRADES'!BC43</f>
-        <v>81.433333333333323</v>
+        <f>'RAW GRADES'!BC45</f>
+        <v>85.25</v>
       </c>
       <c r="I46" s="48">
-        <f>'RAW GRADES'!BD43</f>
-        <v>81.430000000000007</v>
+        <f>'RAW GRADES'!BD45</f>
+        <v>85.25</v>
       </c>
       <c r="J46" s="47">
-        <f>'RAW GRADES'!BK43</f>
-        <v>36</v>
+        <f>'RAW GRADES'!BK45</f>
+        <v>38.5</v>
       </c>
       <c r="K46" s="47">
-        <f>'RAW GRADES'!CP43</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP45</f>
+        <v>40.625</v>
       </c>
       <c r="L46" s="47">
-        <f>'RAW GRADES'!CQ43</f>
-        <v>72.25</v>
+        <f>'RAW GRADES'!CQ45</f>
+        <v>79.125</v>
       </c>
       <c r="M46" s="49">
-        <f>'RAW GRADES'!CR43</f>
-        <v>72.25</v>
+        <f>'RAW GRADES'!CR45</f>
+        <v>79.13</v>
       </c>
       <c r="N46" s="53">
-        <f>'RAW GRADES'!CS43</f>
-        <v>75.921999999999997</v>
+        <f>'RAW GRADES'!CS45</f>
+        <v>81.578000000000003</v>
       </c>
       <c r="O46" s="51">
-        <f>'RAW GRADES'!CT43</f>
-        <v>2.75</v>
+        <f>'RAW GRADES'!CT45</f>
+        <v>2.25</v>
       </c>
       <c r="P46" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27382,63 +27378,63 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="44">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="45" t="str">
-        <f>'RAW GRADES'!C44</f>
-        <v>PEREA KIM NATHANIEL C</v>
+        <f>'RAW GRADES'!C46</f>
+        <v>RAPAS JOHN CARLO C</v>
       </c>
       <c r="C47" s="52">
-        <f>'RAW GRADES'!F44</f>
-        <v>25.2</v>
+        <f>'RAW GRADES'!F46</f>
+        <v>24</v>
       </c>
       <c r="D47" s="73">
-        <f>'RAW GRADES'!I44</f>
-        <v>27.999999999999996</v>
+        <f>'RAW GRADES'!I46</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="E47" s="47">
-        <f>'RAW GRADES'!AN44</f>
-        <v>17</v>
+        <f>'RAW GRADES'!AN46</f>
+        <v>16.5</v>
       </c>
       <c r="F47" s="47">
-        <f>'RAW GRADES'!AU44</f>
+        <f>'RAW GRADES'!AU46</f>
         <v>9.5</v>
       </c>
       <c r="G47" s="47">
-        <f>'RAW GRADES'!BB44</f>
+        <f>'RAW GRADES'!BB46</f>
         <v>10</v>
       </c>
       <c r="H47" s="48">
-        <f>'RAW GRADES'!BC44</f>
-        <v>89.7</v>
+        <f>'RAW GRADES'!BC46</f>
+        <v>81.599999999999994</v>
       </c>
       <c r="I47" s="48">
-        <f>'RAW GRADES'!BD44</f>
-        <v>89.7</v>
+        <f>'RAW GRADES'!BD46</f>
+        <v>81.599999999999994</v>
       </c>
       <c r="J47" s="47">
-        <f>'RAW GRADES'!BK44</f>
-        <v>47.5</v>
+        <f>'RAW GRADES'!BK46</f>
+        <v>39</v>
       </c>
       <c r="K47" s="47">
-        <f>'RAW GRADES'!CP44</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP46</f>
+        <v>36.25</v>
       </c>
       <c r="L47" s="47">
-        <f>'RAW GRADES'!CQ44</f>
-        <v>88.125</v>
+        <f>'RAW GRADES'!CQ46</f>
+        <v>75.25</v>
       </c>
       <c r="M47" s="49">
-        <f>'RAW GRADES'!CR44</f>
-        <v>88.13</v>
+        <f>'RAW GRADES'!CR46</f>
+        <v>75.25</v>
       </c>
       <c r="N47" s="53">
-        <f>'RAW GRADES'!CS44</f>
-        <v>88.757999999999996</v>
+        <f>'RAW GRADES'!CS46</f>
+        <v>77.789999999999992</v>
       </c>
       <c r="O47" s="51">
-        <f>'RAW GRADES'!CT44</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT46</f>
+        <v>2.5</v>
       </c>
       <c r="P47" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27447,63 +27443,63 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="45" t="str">
-        <f>'RAW GRADES'!C45</f>
-        <v>PETINGLAY REX JR. A</v>
+        <f>'RAW GRADES'!C47</f>
+        <v xml:space="preserve">RAZO LINWEL JOHN </v>
       </c>
       <c r="C48" s="52">
-        <f>'RAW GRADES'!F45</f>
-        <v>23.4</v>
+        <f>'RAW GRADES'!F47</f>
+        <v>21</v>
       </c>
       <c r="D48" s="73">
-        <f>'RAW GRADES'!I45</f>
-        <v>23.599999999999998</v>
+        <f>'RAW GRADES'!I47</f>
+        <v>1.2</v>
       </c>
       <c r="E48" s="47">
-        <f>'RAW GRADES'!AN45</f>
-        <v>18.75</v>
+        <f>'RAW GRADES'!AN47</f>
+        <v>11.75</v>
       </c>
       <c r="F48" s="47">
-        <f>'RAW GRADES'!AU45</f>
+        <f>'RAW GRADES'!AU47</f>
         <v>9.5</v>
       </c>
       <c r="G48" s="47">
-        <f>'RAW GRADES'!BB45</f>
+        <f>'RAW GRADES'!BB47</f>
         <v>10</v>
       </c>
       <c r="H48" s="48">
-        <f>'RAW GRADES'!BC45</f>
-        <v>85.25</v>
+        <f>'RAW GRADES'!BC47</f>
+        <v>53.45</v>
       </c>
       <c r="I48" s="48">
-        <f>'RAW GRADES'!BD45</f>
-        <v>85.25</v>
+        <f>'RAW GRADES'!BD47</f>
+        <v>53.45</v>
       </c>
       <c r="J48" s="47">
-        <f>'RAW GRADES'!BK45</f>
-        <v>38.5</v>
+        <f>'RAW GRADES'!BK47</f>
+        <v>46</v>
       </c>
       <c r="K48" s="47">
-        <f>'RAW GRADES'!CP45</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP47</f>
+        <v>36.25</v>
       </c>
       <c r="L48" s="47">
-        <f>'RAW GRADES'!CQ45</f>
-        <v>79.125</v>
+        <f>'RAW GRADES'!CQ47</f>
+        <v>82.25</v>
       </c>
       <c r="M48" s="49">
-        <f>'RAW GRADES'!CR45</f>
-        <v>79.13</v>
+        <f>'RAW GRADES'!CR47</f>
+        <v>82.25</v>
       </c>
       <c r="N48" s="53">
-        <f>'RAW GRADES'!CS45</f>
-        <v>81.578000000000003</v>
+        <f>'RAW GRADES'!CS47</f>
+        <v>70.73</v>
       </c>
       <c r="O48" s="51">
-        <f>'RAW GRADES'!CT45</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT47</f>
+        <v>3</v>
       </c>
       <c r="P48" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27512,63 +27508,63 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="45" t="str">
-        <f>'RAW GRADES'!C46</f>
-        <v>RAPAS JOHN CARLO C</v>
+        <f>'RAW GRADES'!C48</f>
+        <v>REAL  JERICO B</v>
       </c>
       <c r="C49" s="52">
-        <f>'RAW GRADES'!F46</f>
-        <v>24</v>
+        <f>'RAW GRADES'!F48</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="D49" s="73">
-        <f>'RAW GRADES'!I46</f>
-        <v>21.599999999999998</v>
+        <f>'RAW GRADES'!I48</f>
+        <v>30</v>
       </c>
       <c r="E49" s="47">
-        <f>'RAW GRADES'!AN46</f>
-        <v>16.5</v>
+        <f>'RAW GRADES'!AN48</f>
+        <v>18.75</v>
       </c>
       <c r="F49" s="47">
-        <f>'RAW GRADES'!AU46</f>
+        <f>'RAW GRADES'!AU48</f>
         <v>9.5</v>
       </c>
       <c r="G49" s="47">
-        <f>'RAW GRADES'!BB46</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB48</f>
+        <v>8.5</v>
       </c>
       <c r="H49" s="48">
-        <f>'RAW GRADES'!BC46</f>
-        <v>81.599999999999994</v>
+        <f>'RAW GRADES'!BC48</f>
+        <v>94.35</v>
       </c>
       <c r="I49" s="48">
-        <f>'RAW GRADES'!BD46</f>
-        <v>81.599999999999994</v>
+        <f>'RAW GRADES'!BD48</f>
+        <v>94.35</v>
       </c>
       <c r="J49" s="47">
-        <f>'RAW GRADES'!BK46</f>
-        <v>39</v>
+        <f>'RAW GRADES'!BK48</f>
+        <v>45</v>
       </c>
       <c r="K49" s="47">
-        <f>'RAW GRADES'!CP46</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP48</f>
+        <v>40.625</v>
       </c>
       <c r="L49" s="47">
-        <f>'RAW GRADES'!CQ46</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CQ48</f>
+        <v>85.625</v>
       </c>
       <c r="M49" s="49">
-        <f>'RAW GRADES'!CR46</f>
-        <v>75.25</v>
+        <f>'RAW GRADES'!CR48</f>
+        <v>85.63</v>
       </c>
       <c r="N49" s="53">
-        <f>'RAW GRADES'!CS46</f>
-        <v>77.789999999999992</v>
+        <f>'RAW GRADES'!CS48</f>
+        <v>89.117999999999995</v>
       </c>
       <c r="O49" s="51">
-        <f>'RAW GRADES'!CT46</f>
-        <v>2.5</v>
+        <f>'RAW GRADES'!CT48</f>
+        <v>1.75</v>
       </c>
       <c r="P49" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27577,128 +27573,128 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="45" t="str">
-        <f>'RAW GRADES'!C47</f>
-        <v xml:space="preserve">RAZO LINWEL JOHN </v>
+        <f>'RAW GRADES'!C49</f>
+        <v>RODRIGUEZ CYLEE Y</v>
       </c>
       <c r="C50" s="52">
-        <f>'RAW GRADES'!F47</f>
-        <v>21</v>
+        <f>'RAW GRADES'!F49</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="D50" s="73">
-        <f>'RAW GRADES'!I47</f>
-        <v>1.2</v>
+        <f>'RAW GRADES'!I49</f>
+        <v>0</v>
       </c>
       <c r="E50" s="47">
-        <f>'RAW GRADES'!AN47</f>
-        <v>11.75</v>
+        <f>'RAW GRADES'!AN49</f>
+        <v>11.5</v>
       </c>
       <c r="F50" s="47">
-        <f>'RAW GRADES'!AU47</f>
+        <f>'RAW GRADES'!AU49</f>
         <v>9.5</v>
       </c>
       <c r="G50" s="47">
-        <f>'RAW GRADES'!BB47</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB49</f>
+        <v>2</v>
       </c>
       <c r="H50" s="48">
-        <f>'RAW GRADES'!BC47</f>
-        <v>53.45</v>
+        <f>'RAW GRADES'!BC49</f>
+        <v>44.599999999999994</v>
       </c>
       <c r="I50" s="48">
-        <f>'RAW GRADES'!BD47</f>
-        <v>53.45</v>
+        <f>'RAW GRADES'!BD49</f>
+        <v>44.6</v>
       </c>
       <c r="J50" s="47">
-        <f>'RAW GRADES'!BK47</f>
-        <v>46</v>
+        <f>'RAW GRADES'!BK49</f>
+        <v>0</v>
       </c>
       <c r="K50" s="47">
-        <f>'RAW GRADES'!CP47</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP49</f>
+        <v>13.125</v>
       </c>
       <c r="L50" s="47">
-        <f>'RAW GRADES'!CQ47</f>
-        <v>82.25</v>
+        <f>'RAW GRADES'!CQ49</f>
+        <v>13.125</v>
       </c>
       <c r="M50" s="49">
-        <f>'RAW GRADES'!CR47</f>
-        <v>82.25</v>
+        <f>'RAW GRADES'!CR49</f>
+        <v>13.13</v>
       </c>
       <c r="N50" s="53">
-        <f>'RAW GRADES'!CS47</f>
-        <v>70.73</v>
+        <f>'RAW GRADES'!CS49</f>
+        <v>25.718</v>
       </c>
       <c r="O50" s="51">
-        <f>'RAW GRADES'!CT47</f>
-        <v>3</v>
+        <f>'RAW GRADES'!CT49</f>
+        <v>5</v>
       </c>
       <c r="P50" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>PASSED</v>
+        <v>FAILED</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="44">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="45" t="str">
-        <f>'RAW GRADES'!C48</f>
-        <v>REAL  JERICO B</v>
+        <f>'RAW GRADES'!C50</f>
+        <v>SALUDO MANUEL B</v>
       </c>
       <c r="C51" s="52">
-        <f>'RAW GRADES'!F48</f>
-        <v>27.599999999999998</v>
+        <f>'RAW GRADES'!F50</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="D51" s="73">
-        <f>'RAW GRADES'!I48</f>
-        <v>30</v>
+        <f>'RAW GRADES'!I50</f>
+        <v>24</v>
       </c>
       <c r="E51" s="47">
-        <f>'RAW GRADES'!AN48</f>
-        <v>18.75</v>
+        <f>'RAW GRADES'!AN50</f>
+        <v>18.5</v>
       </c>
       <c r="F51" s="47">
-        <f>'RAW GRADES'!AU48</f>
+        <f>'RAW GRADES'!AU50</f>
         <v>9.5</v>
       </c>
       <c r="G51" s="47">
-        <f>'RAW GRADES'!BB48</f>
-        <v>8.5</v>
+        <f>'RAW GRADES'!BB50</f>
+        <v>9</v>
       </c>
       <c r="H51" s="48">
-        <f>'RAW GRADES'!BC48</f>
-        <v>94.35</v>
+        <f>'RAW GRADES'!BC50</f>
+        <v>81.400000000000006</v>
       </c>
       <c r="I51" s="48">
-        <f>'RAW GRADES'!BD48</f>
-        <v>94.35</v>
+        <f>'RAW GRADES'!BD50</f>
+        <v>81.400000000000006</v>
       </c>
       <c r="J51" s="47">
-        <f>'RAW GRADES'!BK48</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK50</f>
+        <v>44.5</v>
       </c>
       <c r="K51" s="47">
-        <f>'RAW GRADES'!CP48</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP50</f>
+        <v>36.25</v>
       </c>
       <c r="L51" s="47">
-        <f>'RAW GRADES'!CQ48</f>
-        <v>85.625</v>
+        <f>'RAW GRADES'!CQ50</f>
+        <v>80.75</v>
       </c>
       <c r="M51" s="49">
-        <f>'RAW GRADES'!CR48</f>
-        <v>85.63</v>
+        <f>'RAW GRADES'!CR50</f>
+        <v>80.75</v>
       </c>
       <c r="N51" s="53">
-        <f>'RAW GRADES'!CS48</f>
-        <v>89.117999999999995</v>
+        <f>'RAW GRADES'!CS50</f>
+        <v>81.009999999999991</v>
       </c>
       <c r="O51" s="51">
-        <f>'RAW GRADES'!CT48</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT50</f>
+        <v>2.25</v>
       </c>
       <c r="P51" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27707,128 +27703,128 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="45" t="str">
-        <f>'RAW GRADES'!C49</f>
-        <v>RODRIGUEZ CYLEE Y</v>
+        <f>'RAW GRADES'!C51</f>
+        <v>SANAREZ CARL GEVEN R</v>
       </c>
       <c r="C52" s="52">
-        <f>'RAW GRADES'!F49</f>
-        <v>21.599999999999998</v>
+        <f>'RAW GRADES'!F51</f>
+        <v>22.8</v>
       </c>
       <c r="D52" s="73">
-        <f>'RAW GRADES'!I49</f>
-        <v>0</v>
+        <f>'RAW GRADES'!I51</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="E52" s="47">
-        <f>'RAW GRADES'!AN49</f>
-        <v>11.5</v>
+        <f>'RAW GRADES'!AN51</f>
+        <v>16.25</v>
       </c>
       <c r="F52" s="47">
-        <f>'RAW GRADES'!AU49</f>
+        <f>'RAW GRADES'!AU51</f>
         <v>9.5</v>
       </c>
       <c r="G52" s="47">
-        <f>'RAW GRADES'!BB49</f>
+        <f>'RAW GRADES'!BB51</f>
+        <v>10</v>
+      </c>
+      <c r="H52" s="48">
+        <f>'RAW GRADES'!BC51</f>
+        <v>86.149999999999991</v>
+      </c>
+      <c r="I52" s="48">
+        <f>'RAW GRADES'!BD51</f>
+        <v>86.15</v>
+      </c>
+      <c r="J52" s="47">
+        <f>'RAW GRADES'!BK51</f>
+        <v>47.5</v>
+      </c>
+      <c r="K52" s="47">
+        <f>'RAW GRADES'!CP51</f>
+        <v>36.25</v>
+      </c>
+      <c r="L52" s="47">
+        <f>'RAW GRADES'!CQ51</f>
+        <v>83.75</v>
+      </c>
+      <c r="M52" s="49">
+        <f>'RAW GRADES'!CR51</f>
+        <v>83.75</v>
+      </c>
+      <c r="N52" s="53">
+        <f>'RAW GRADES'!CS51</f>
+        <v>84.710000000000008</v>
+      </c>
+      <c r="O52" s="51">
+        <f>'RAW GRADES'!CT51</f>
         <v>2</v>
-      </c>
-      <c r="H52" s="48">
-        <f>'RAW GRADES'!BC49</f>
-        <v>44.599999999999994</v>
-      </c>
-      <c r="I52" s="48">
-        <f>'RAW GRADES'!BD49</f>
-        <v>44.6</v>
-      </c>
-      <c r="J52" s="47">
-        <f>'RAW GRADES'!BK49</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="47">
-        <f>'RAW GRADES'!CP49</f>
-        <v>13.125</v>
-      </c>
-      <c r="L52" s="47">
-        <f>'RAW GRADES'!CQ49</f>
-        <v>13.125</v>
-      </c>
-      <c r="M52" s="49">
-        <f>'RAW GRADES'!CR49</f>
-        <v>13.13</v>
-      </c>
-      <c r="N52" s="53">
-        <f>'RAW GRADES'!CS49</f>
-        <v>25.718</v>
-      </c>
-      <c r="O52" s="51">
-        <f>'RAW GRADES'!CT49</f>
-        <v>5</v>
       </c>
       <c r="P52" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="45" t="str">
-        <f>'RAW GRADES'!C50</f>
-        <v>SALUDO MANUEL B</v>
+        <f>'RAW GRADES'!C52</f>
+        <v>SAYSAY ROWELL B</v>
       </c>
       <c r="C53" s="52">
-        <f>'RAW GRADES'!F50</f>
-        <v>20.399999999999999</v>
+        <f>'RAW GRADES'!F52</f>
+        <v>22.8</v>
       </c>
       <c r="D53" s="73">
-        <f>'RAW GRADES'!I50</f>
-        <v>24</v>
+        <f>'RAW GRADES'!I52</f>
+        <v>28.799999999999997</v>
       </c>
       <c r="E53" s="47">
-        <f>'RAW GRADES'!AN50</f>
-        <v>18.5</v>
+        <f>'RAW GRADES'!AN52</f>
+        <v>18.75</v>
       </c>
       <c r="F53" s="47">
-        <f>'RAW GRADES'!AU50</f>
+        <f>'RAW GRADES'!AU52</f>
         <v>9.5</v>
       </c>
       <c r="G53" s="47">
-        <f>'RAW GRADES'!BB50</f>
-        <v>9</v>
+        <f>'RAW GRADES'!BB52</f>
+        <v>10</v>
       </c>
       <c r="H53" s="48">
-        <f>'RAW GRADES'!BC50</f>
-        <v>81.400000000000006</v>
+        <f>'RAW GRADES'!BC52</f>
+        <v>89.85</v>
       </c>
       <c r="I53" s="48">
-        <f>'RAW GRADES'!BD50</f>
-        <v>81.400000000000006</v>
+        <f>'RAW GRADES'!BD52</f>
+        <v>89.85</v>
       </c>
       <c r="J53" s="47">
-        <f>'RAW GRADES'!BK50</f>
-        <v>44.5</v>
+        <f>'RAW GRADES'!BK52</f>
+        <v>45</v>
       </c>
       <c r="K53" s="47">
-        <f>'RAW GRADES'!CP50</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP52</f>
+        <v>40.625</v>
       </c>
       <c r="L53" s="47">
-        <f>'RAW GRADES'!CQ50</f>
-        <v>80.75</v>
+        <f>'RAW GRADES'!CQ52</f>
+        <v>85.625</v>
       </c>
       <c r="M53" s="49">
-        <f>'RAW GRADES'!CR50</f>
-        <v>80.75</v>
+        <f>'RAW GRADES'!CR52</f>
+        <v>85.63</v>
       </c>
       <c r="N53" s="53">
-        <f>'RAW GRADES'!CS50</f>
-        <v>81.009999999999991</v>
+        <f>'RAW GRADES'!CS52</f>
+        <v>87.317999999999984</v>
       </c>
       <c r="O53" s="51">
-        <f>'RAW GRADES'!CT50</f>
-        <v>2.25</v>
+        <f>'RAW GRADES'!CT52</f>
+        <v>1.75</v>
       </c>
       <c r="P53" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27837,62 +27833,62 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="45" t="str">
-        <f>'RAW GRADES'!C51</f>
-        <v>SANAREZ CARL GEVEN R</v>
+        <f>'RAW GRADES'!C53</f>
+        <v>SERBISE JAYVEE H</v>
       </c>
       <c r="C54" s="52">
-        <f>'RAW GRADES'!F51</f>
-        <v>22.8</v>
+        <f>'RAW GRADES'!F53</f>
+        <v>25.2</v>
       </c>
       <c r="D54" s="73">
-        <f>'RAW GRADES'!I51</f>
-        <v>27.599999999999998</v>
+        <f>'RAW GRADES'!I53</f>
+        <v>27.199999999999996</v>
       </c>
       <c r="E54" s="47">
-        <f>'RAW GRADES'!AN51</f>
-        <v>16.25</v>
+        <f>'RAW GRADES'!AN53</f>
+        <v>18.166666666666668</v>
       </c>
       <c r="F54" s="47">
-        <f>'RAW GRADES'!AU51</f>
+        <f>'RAW GRADES'!AU53</f>
         <v>9.5</v>
       </c>
       <c r="G54" s="47">
-        <f>'RAW GRADES'!BB51</f>
-        <v>10</v>
+        <f>'RAW GRADES'!BB53</f>
+        <v>9</v>
       </c>
       <c r="H54" s="48">
-        <f>'RAW GRADES'!BC51</f>
-        <v>86.149999999999991</v>
+        <f>'RAW GRADES'!BC53</f>
+        <v>89.066666666666663</v>
       </c>
       <c r="I54" s="48">
-        <f>'RAW GRADES'!BD51</f>
-        <v>86.15</v>
+        <f>'RAW GRADES'!BD53</f>
+        <v>89.07</v>
       </c>
       <c r="J54" s="47">
-        <f>'RAW GRADES'!BK51</f>
-        <v>47.5</v>
+        <f>'RAW GRADES'!BK53</f>
+        <v>44</v>
       </c>
       <c r="K54" s="47">
-        <f>'RAW GRADES'!CP51</f>
-        <v>36.25</v>
+        <f>'RAW GRADES'!CP53</f>
+        <v>40.625</v>
       </c>
       <c r="L54" s="47">
-        <f>'RAW GRADES'!CQ51</f>
-        <v>83.75</v>
+        <f>'RAW GRADES'!CQ53</f>
+        <v>84.625</v>
       </c>
       <c r="M54" s="49">
-        <f>'RAW GRADES'!CR51</f>
-        <v>83.75</v>
+        <f>'RAW GRADES'!CR53</f>
+        <v>84.63</v>
       </c>
       <c r="N54" s="53">
-        <f>'RAW GRADES'!CS51</f>
-        <v>84.710000000000008</v>
+        <f>'RAW GRADES'!CS53</f>
+        <v>86.406000000000006</v>
       </c>
       <c r="O54" s="51">
-        <f>'RAW GRADES'!CT51</f>
+        <f>'RAW GRADES'!CT53</f>
         <v>2</v>
       </c>
       <c r="P54" s="54" t="str">
@@ -27902,63 +27898,63 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="45" t="str">
-        <f>'RAW GRADES'!C52</f>
-        <v>SAYSAY ROWELL B</v>
+        <f>'RAW GRADES'!C54</f>
+        <v>SICAPIRO ALDWIN JOHN O</v>
       </c>
       <c r="C55" s="52">
-        <f>'RAW GRADES'!F52</f>
+        <f>'RAW GRADES'!F54</f>
         <v>22.8</v>
       </c>
       <c r="D55" s="73">
-        <f>'RAW GRADES'!I52</f>
+        <f>'RAW GRADES'!I54</f>
         <v>28.799999999999997</v>
       </c>
       <c r="E55" s="47">
-        <f>'RAW GRADES'!AN52</f>
-        <v>18.75</v>
+        <f>'RAW GRADES'!AN54</f>
+        <v>19</v>
       </c>
       <c r="F55" s="47">
-        <f>'RAW GRADES'!AU52</f>
+        <f>'RAW GRADES'!AU54</f>
         <v>9.5</v>
       </c>
       <c r="G55" s="47">
-        <f>'RAW GRADES'!BB52</f>
+        <f>'RAW GRADES'!BB54</f>
         <v>10</v>
       </c>
       <c r="H55" s="48">
-        <f>'RAW GRADES'!BC52</f>
-        <v>89.85</v>
+        <f>'RAW GRADES'!BC54</f>
+        <v>90.1</v>
       </c>
       <c r="I55" s="48">
-        <f>'RAW GRADES'!BD52</f>
-        <v>89.85</v>
+        <f>'RAW GRADES'!BD54</f>
+        <v>90.1</v>
       </c>
       <c r="J55" s="47">
-        <f>'RAW GRADES'!BK52</f>
-        <v>45</v>
+        <f>'RAW GRADES'!BK54</f>
+        <v>39</v>
       </c>
       <c r="K55" s="47">
-        <f>'RAW GRADES'!CP52</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP54</f>
+        <v>36.25</v>
       </c>
       <c r="L55" s="47">
-        <f>'RAW GRADES'!CQ52</f>
-        <v>85.625</v>
+        <f>'RAW GRADES'!CQ54</f>
+        <v>75.25</v>
       </c>
       <c r="M55" s="49">
-        <f>'RAW GRADES'!CR52</f>
-        <v>85.63</v>
+        <f>'RAW GRADES'!CR54</f>
+        <v>75.25</v>
       </c>
       <c r="N55" s="53">
-        <f>'RAW GRADES'!CS52</f>
-        <v>87.317999999999984</v>
+        <f>'RAW GRADES'!CS54</f>
+        <v>81.19</v>
       </c>
       <c r="O55" s="51">
-        <f>'RAW GRADES'!CT52</f>
-        <v>1.75</v>
+        <f>'RAW GRADES'!CT54</f>
+        <v>2.25</v>
       </c>
       <c r="P55" s="54" t="str">
         <f t="shared" si="0"/>
@@ -27967,1210 +27963,1144 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
+        <v>43</v>
+      </c>
+      <c r="B56" s="45" t="str">
+        <f>'RAW GRADES'!C55</f>
+        <v>TEQUEL MARVIN B</v>
+      </c>
+      <c r="C56" s="52">
+        <f>'RAW GRADES'!F55</f>
+        <v>22.8</v>
+      </c>
+      <c r="D56" s="73">
+        <f>'RAW GRADES'!I55</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E56" s="47">
+        <f>'RAW GRADES'!AN55</f>
+        <v>11.25</v>
+      </c>
+      <c r="F56" s="47">
+        <f>'RAW GRADES'!AU55</f>
+        <v>9.5</v>
+      </c>
+      <c r="G56" s="47">
+        <f>'RAW GRADES'!BB55</f>
+        <v>7</v>
+      </c>
+      <c r="H56" s="48">
+        <f>'RAW GRADES'!BC55</f>
+        <v>57.75</v>
+      </c>
+      <c r="I56" s="48">
+        <f>'RAW GRADES'!BD55</f>
+        <v>57.75</v>
+      </c>
+      <c r="J56" s="47">
+        <f>'RAW GRADES'!BK55</f>
         <v>44</v>
       </c>
-      <c r="B56" s="45" t="str">
-        <f>'RAW GRADES'!C53</f>
-        <v>SERBISE JAYVEE H</v>
-      </c>
-      <c r="C56" s="52">
-        <f>'RAW GRADES'!F53</f>
-        <v>25.2</v>
-      </c>
-      <c r="D56" s="73">
-        <f>'RAW GRADES'!I53</f>
-        <v>27.199999999999996</v>
-      </c>
-      <c r="E56" s="47">
-        <f>'RAW GRADES'!AN53</f>
-        <v>18.166666666666668</v>
-      </c>
-      <c r="F56" s="47">
-        <f>'RAW GRADES'!AU53</f>
-        <v>9.5</v>
-      </c>
-      <c r="G56" s="47">
-        <f>'RAW GRADES'!BB53</f>
-        <v>9</v>
-      </c>
-      <c r="H56" s="48">
-        <f>'RAW GRADES'!BC53</f>
-        <v>89.066666666666663</v>
-      </c>
-      <c r="I56" s="48">
-        <f>'RAW GRADES'!BD53</f>
-        <v>89.07</v>
-      </c>
-      <c r="J56" s="47">
-        <f>'RAW GRADES'!BK53</f>
-        <v>44</v>
-      </c>
       <c r="K56" s="47">
-        <f>'RAW GRADES'!CP53</f>
-        <v>40.625</v>
+        <f>'RAW GRADES'!CP55</f>
+        <v>38.125</v>
       </c>
       <c r="L56" s="47">
-        <f>'RAW GRADES'!CQ53</f>
-        <v>84.625</v>
+        <f>'RAW GRADES'!CQ55</f>
+        <v>82.125</v>
       </c>
       <c r="M56" s="49">
-        <f>'RAW GRADES'!CR53</f>
-        <v>84.63</v>
+        <f>'RAW GRADES'!CR55</f>
+        <v>82.13</v>
       </c>
       <c r="N56" s="53">
-        <f>'RAW GRADES'!CS53</f>
-        <v>86.406000000000006</v>
+        <f>'RAW GRADES'!CS55</f>
+        <v>72.378</v>
       </c>
       <c r="O56" s="51">
-        <f>'RAW GRADES'!CT53</f>
-        <v>2</v>
+        <f>'RAW GRADES'!CT55</f>
+        <v>3</v>
       </c>
       <c r="P56" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P56:P72" si="1">IF(O56&gt;3,"FAILED","PASSED")</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="44">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="45" t="str">
-        <f>'RAW GRADES'!C54</f>
-        <v>SICAPIRO ALDWIN JOHN O</v>
-      </c>
-      <c r="C57" s="52">
-        <f>'RAW GRADES'!F54</f>
-        <v>22.8</v>
-      </c>
-      <c r="D57" s="73">
-        <f>'RAW GRADES'!I54</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="E57" s="47">
-        <f>'RAW GRADES'!AN54</f>
-        <v>19</v>
-      </c>
-      <c r="F57" s="47">
-        <f>'RAW GRADES'!AU54</f>
-        <v>9.5</v>
-      </c>
-      <c r="G57" s="47">
-        <f>'RAW GRADES'!BB54</f>
-        <v>10</v>
-      </c>
-      <c r="H57" s="48">
-        <f>'RAW GRADES'!BC54</f>
-        <v>90.1</v>
-      </c>
-      <c r="I57" s="48">
-        <f>'RAW GRADES'!BD54</f>
-        <v>90.1</v>
-      </c>
-      <c r="J57" s="47">
-        <f>'RAW GRADES'!BK54</f>
-        <v>39</v>
-      </c>
-      <c r="K57" s="47">
-        <f>'RAW GRADES'!CP54</f>
-        <v>36.25</v>
-      </c>
-      <c r="L57" s="47">
-        <f>'RAW GRADES'!CQ54</f>
-        <v>75.25</v>
-      </c>
-      <c r="M57" s="49">
-        <f>'RAW GRADES'!CR54</f>
-        <v>75.25</v>
-      </c>
-      <c r="N57" s="53">
-        <f>'RAW GRADES'!CS54</f>
-        <v>81.19</v>
-      </c>
-      <c r="O57" s="51">
-        <f>'RAW GRADES'!CT54</f>
-        <v>2.25</v>
-      </c>
-      <c r="P57" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>PASSED</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44">
-        <v>46</v>
-      </c>
-      <c r="B58" s="45" t="str">
-        <f>'RAW GRADES'!C55</f>
-        <v>TEQUEL MARVIN B</v>
-      </c>
-      <c r="C58" s="52">
-        <f>'RAW GRADES'!F55</f>
-        <v>22.8</v>
-      </c>
-      <c r="D58" s="73">
-        <f>'RAW GRADES'!I55</f>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="E58" s="47">
-        <f>'RAW GRADES'!AN55</f>
-        <v>11.25</v>
-      </c>
-      <c r="F58" s="47">
-        <f>'RAW GRADES'!AU55</f>
-        <v>9.5</v>
-      </c>
-      <c r="G58" s="47">
-        <f>'RAW GRADES'!BB55</f>
-        <v>7</v>
-      </c>
-      <c r="H58" s="48">
-        <f>'RAW GRADES'!BC55</f>
-        <v>57.75</v>
-      </c>
-      <c r="I58" s="48">
-        <f>'RAW GRADES'!BD55</f>
-        <v>57.75</v>
-      </c>
-      <c r="J58" s="47">
-        <f>'RAW GRADES'!BK55</f>
-        <v>44</v>
-      </c>
-      <c r="K58" s="47">
-        <f>'RAW GRADES'!CP55</f>
-        <v>38.125</v>
-      </c>
-      <c r="L58" s="47">
-        <f>'RAW GRADES'!CQ55</f>
-        <v>82.125</v>
-      </c>
-      <c r="M58" s="49">
-        <f>'RAW GRADES'!CR55</f>
-        <v>82.13</v>
-      </c>
-      <c r="N58" s="53">
-        <f>'RAW GRADES'!CS55</f>
-        <v>72.378</v>
-      </c>
-      <c r="O58" s="51">
-        <f>'RAW GRADES'!CT55</f>
-        <v>3</v>
-      </c>
-      <c r="P58" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>PASSED</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44">
-        <v>47</v>
-      </c>
-      <c r="B59" s="45" t="str">
         <f>'RAW GRADES'!C56</f>
         <v>URATE JISSELLE B</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C57" s="52">
         <f>'RAW GRADES'!F56</f>
         <v>25.2</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D57" s="73">
         <f>'RAW GRADES'!I56</f>
         <v>31.2</v>
       </c>
-      <c r="E59" s="47">
+      <c r="E57" s="47">
         <f>'RAW GRADES'!AN56</f>
         <v>19.25</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F57" s="47">
         <f>'RAW GRADES'!AU56</f>
         <v>9.5</v>
       </c>
-      <c r="G59" s="47">
+      <c r="G57" s="47">
         <f>'RAW GRADES'!BB56</f>
         <v>10</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H57" s="48">
         <f>'RAW GRADES'!BC56</f>
         <v>95.15</v>
       </c>
-      <c r="I59" s="48">
+      <c r="I57" s="48">
         <f>'RAW GRADES'!BD56</f>
         <v>95.15</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J57" s="47">
         <f>'RAW GRADES'!BK56</f>
         <v>49</v>
       </c>
-      <c r="K59" s="47">
+      <c r="K57" s="47">
         <f>'RAW GRADES'!CP56</f>
         <v>40.625</v>
       </c>
-      <c r="L59" s="47">
+      <c r="L57" s="47">
         <f>'RAW GRADES'!CQ56</f>
         <v>89.625</v>
       </c>
-      <c r="M59" s="49">
+      <c r="M57" s="49">
         <f>'RAW GRADES'!CR56</f>
         <v>89.63</v>
       </c>
-      <c r="N59" s="53">
+      <c r="N57" s="53">
         <f>'RAW GRADES'!CS56</f>
         <v>91.837999999999994</v>
       </c>
-      <c r="O59" s="51">
+      <c r="O57" s="51">
         <f>'RAW GRADES'!CT56</f>
         <v>1.5</v>
       </c>
-      <c r="P59" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P57" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
-        <v>48</v>
-      </c>
-      <c r="B60" s="45" t="str">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="44">
+        <v>45</v>
+      </c>
+      <c r="B58" s="45" t="str">
         <f>'RAW GRADES'!C57</f>
         <v>VALLESCAS RINA LYN M</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C58" s="52">
         <f>'RAW GRADES'!F57</f>
         <v>24.599999999999998</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D58" s="73">
         <f>'RAW GRADES'!I57</f>
         <v>21.999999999999996</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E58" s="47">
         <f>'RAW GRADES'!AN57</f>
         <v>12.083333333333334</v>
       </c>
-      <c r="F60" s="47">
+      <c r="F58" s="47">
         <f>'RAW GRADES'!AU57</f>
         <v>9.5</v>
       </c>
-      <c r="G60" s="47">
+      <c r="G58" s="47">
         <f>'RAW GRADES'!BB57</f>
         <v>7</v>
       </c>
-      <c r="H60" s="48">
+      <c r="H58" s="48">
         <f>'RAW GRADES'!BC57</f>
         <v>75.183333333333323</v>
       </c>
-      <c r="I60" s="48">
+      <c r="I58" s="48">
         <f>'RAW GRADES'!BD57</f>
         <v>75.180000000000007</v>
       </c>
-      <c r="J60" s="47">
+      <c r="J58" s="47">
         <f>'RAW GRADES'!BK57</f>
         <v>36</v>
       </c>
-      <c r="K60" s="47">
+      <c r="K58" s="47">
         <f>'RAW GRADES'!CP57</f>
         <v>36.25</v>
       </c>
-      <c r="L60" s="47">
+      <c r="L58" s="47">
         <f>'RAW GRADES'!CQ57</f>
         <v>72.25</v>
       </c>
-      <c r="M60" s="49">
+      <c r="M58" s="49">
         <f>'RAW GRADES'!CR57</f>
         <v>72.25</v>
       </c>
-      <c r="N60" s="53">
+      <c r="N58" s="53">
         <f>'RAW GRADES'!CS57</f>
         <v>73.421999999999997</v>
       </c>
-      <c r="O60" s="51">
+      <c r="O58" s="51">
         <f>'RAW GRADES'!CT57</f>
         <v>2.75</v>
       </c>
-      <c r="P60" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P58" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44">
-        <v>49</v>
-      </c>
-      <c r="B61" s="45" t="str">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="44">
+        <v>46</v>
+      </c>
+      <c r="B59" s="45" t="str">
         <f>'RAW GRADES'!C58</f>
         <v>VENTURA CHRISTOPHER LAURENCE K</v>
       </c>
-      <c r="C61" s="52">
+      <c r="C59" s="52">
         <f>'RAW GRADES'!F58</f>
         <v>22.8</v>
       </c>
-      <c r="D61" s="73">
+      <c r="D59" s="73">
         <f>'RAW GRADES'!I58</f>
         <v>26</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E59" s="47">
         <f>'RAW GRADES'!AN58</f>
         <v>11.75</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F59" s="47">
         <f>'RAW GRADES'!AU58</f>
         <v>9.5</v>
       </c>
-      <c r="G61" s="47">
+      <c r="G59" s="47">
         <f>'RAW GRADES'!BB58</f>
         <v>5</v>
       </c>
-      <c r="H61" s="48">
+      <c r="H59" s="48">
         <f>'RAW GRADES'!BC58</f>
         <v>75.05</v>
       </c>
-      <c r="I61" s="48">
+      <c r="I59" s="48">
         <f>'RAW GRADES'!BD58</f>
         <v>75.05</v>
       </c>
-      <c r="J61" s="47">
+      <c r="J59" s="47">
         <f>'RAW GRADES'!BK58</f>
         <v>44</v>
       </c>
-      <c r="K61" s="47">
+      <c r="K59" s="47">
         <f>'RAW GRADES'!CP58</f>
         <v>38.125</v>
       </c>
-      <c r="L61" s="47">
+      <c r="L59" s="47">
         <f>'RAW GRADES'!CQ58</f>
         <v>82.125</v>
       </c>
-      <c r="M61" s="49">
+      <c r="M59" s="49">
         <f>'RAW GRADES'!CR58</f>
         <v>82.13</v>
       </c>
-      <c r="N61" s="53">
+      <c r="N59" s="53">
         <f>'RAW GRADES'!CS58</f>
         <v>79.298000000000002</v>
       </c>
-      <c r="O61" s="51">
+      <c r="O59" s="51">
         <f>'RAW GRADES'!CT58</f>
         <v>2.5</v>
       </c>
-      <c r="P61" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P59" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44">
-        <v>50</v>
-      </c>
-      <c r="B62" s="45" t="str">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="44">
+        <v>47</v>
+      </c>
+      <c r="B60" s="45" t="str">
         <f>'RAW GRADES'!C59</f>
         <v>VERGARA JOAN VERONICA J</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C60" s="52">
         <f>'RAW GRADES'!F59</f>
         <v>18</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D60" s="73">
         <f>'RAW GRADES'!I59</f>
         <v>25.6</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E60" s="47">
         <f>'RAW GRADES'!AN59</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F60" s="47">
         <f>'RAW GRADES'!AU59</f>
         <v>9.5</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G60" s="47">
         <f>'RAW GRADES'!BB59</f>
         <v>9.5</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H60" s="48">
         <f>'RAW GRADES'!BC59</f>
         <v>79.433333333333337</v>
       </c>
-      <c r="I62" s="48">
+      <c r="I60" s="48">
         <f>'RAW GRADES'!BD59</f>
         <v>79.430000000000007</v>
       </c>
-      <c r="J62" s="47">
+      <c r="J60" s="47">
         <f>'RAW GRADES'!BK59</f>
         <v>44.5</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K60" s="47">
         <f>'RAW GRADES'!CP59</f>
         <v>40.625</v>
       </c>
-      <c r="L62" s="47">
+      <c r="L60" s="47">
         <f>'RAW GRADES'!CQ59</f>
         <v>85.125</v>
       </c>
-      <c r="M62" s="49">
+      <c r="M60" s="49">
         <f>'RAW GRADES'!CR59</f>
         <v>85.13</v>
       </c>
-      <c r="N62" s="53">
+      <c r="N60" s="53">
         <f>'RAW GRADES'!CS59</f>
         <v>82.85</v>
       </c>
-      <c r="O62" s="51">
+      <c r="O60" s="51">
         <f>'RAW GRADES'!CT59</f>
         <v>2.25</v>
       </c>
-      <c r="P62" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P60" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44">
-        <v>51</v>
-      </c>
-      <c r="B63" s="45" t="str">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <v>48</v>
+      </c>
+      <c r="B61" s="45" t="str">
         <f>'RAW GRADES'!C60</f>
         <v>VERGARA MARK JASON L</v>
       </c>
-      <c r="C63" s="52">
+      <c r="C61" s="52">
         <f>'RAW GRADES'!F60</f>
         <v>24.599999999999998</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D61" s="73">
         <f>'RAW GRADES'!I60</f>
         <v>27.199999999999996</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E61" s="47">
         <f>'RAW GRADES'!AN60</f>
         <v>12.5</v>
       </c>
-      <c r="F63" s="47">
+      <c r="F61" s="47">
         <f>'RAW GRADES'!AU60</f>
         <v>9.5</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G61" s="47">
         <f>'RAW GRADES'!BB60</f>
         <v>7</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H61" s="48">
         <f>'RAW GRADES'!BC60</f>
         <v>80.8</v>
       </c>
-      <c r="I63" s="48">
+      <c r="I61" s="48">
         <f>'RAW GRADES'!BD60</f>
         <v>80.8</v>
       </c>
-      <c r="J63" s="47">
+      <c r="J61" s="47">
         <f>'RAW GRADES'!BK60</f>
         <v>0</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K61" s="47">
         <f>'RAW GRADES'!CP60</f>
         <v>40.625</v>
       </c>
-      <c r="L63" s="47">
+      <c r="L61" s="47">
         <f>'RAW GRADES'!CQ60</f>
         <v>40.625</v>
       </c>
-      <c r="M63" s="49">
+      <c r="M61" s="49">
         <f>'RAW GRADES'!CR60</f>
         <v>40.630000000000003</v>
       </c>
-      <c r="N63" s="53">
+      <c r="N61" s="53">
         <f>'RAW GRADES'!CS60</f>
         <v>56.698</v>
       </c>
-      <c r="O63" s="51">
+      <c r="O61" s="51">
         <f>'RAW GRADES'!CT60</f>
         <v>5</v>
       </c>
-      <c r="P63" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P61" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
-        <v>52</v>
-      </c>
-      <c r="B64" s="45" t="str">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <v>49</v>
+      </c>
+      <c r="B62" s="45" t="str">
         <f>'RAW GRADES'!C61</f>
         <v>VILLANUEVA JAKE S</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C62" s="52">
         <f>'RAW GRADES'!F61</f>
-        <v>21</v>
-      </c>
-      <c r="D64" s="73">
+        <v>22.8</v>
+      </c>
+      <c r="D62" s="73">
         <f>'RAW GRADES'!I61</f>
-        <v>31.2</v>
-      </c>
-      <c r="E64" s="47">
+        <v>30</v>
+      </c>
+      <c r="E62" s="47">
         <f>'RAW GRADES'!AN61</f>
         <v>12.5</v>
       </c>
-      <c r="F64" s="47">
+      <c r="F62" s="47">
         <f>'RAW GRADES'!AU61</f>
         <v>9.5</v>
       </c>
-      <c r="G64" s="47">
+      <c r="G62" s="47">
         <f>'RAW GRADES'!BB61</f>
         <v>10</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H62" s="48">
         <f>'RAW GRADES'!BC61</f>
-        <v>84.2</v>
-      </c>
-      <c r="I64" s="48">
+        <v>84.8</v>
+      </c>
+      <c r="I62" s="48">
         <f>'RAW GRADES'!BD61</f>
-        <v>84.2</v>
-      </c>
-      <c r="J64" s="47">
+        <v>84.8</v>
+      </c>
+      <c r="J62" s="47">
         <f>'RAW GRADES'!BK61</f>
         <v>38.5</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K62" s="47">
         <f>'RAW GRADES'!CP61</f>
         <v>36.25</v>
       </c>
-      <c r="L64" s="47">
+      <c r="L62" s="47">
         <f>'RAW GRADES'!CQ61</f>
         <v>74.75</v>
       </c>
-      <c r="M64" s="49">
+      <c r="M62" s="49">
         <f>'RAW GRADES'!CR61</f>
         <v>74.75</v>
       </c>
-      <c r="N64" s="53">
+      <c r="N62" s="53">
         <f>'RAW GRADES'!CS61</f>
-        <v>78.53</v>
-      </c>
-      <c r="O64" s="51">
+        <v>78.77000000000001</v>
+      </c>
+      <c r="O62" s="51">
         <f>'RAW GRADES'!CT61</f>
         <v>2.5</v>
       </c>
-      <c r="P64" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P62" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
-        <v>53</v>
-      </c>
-      <c r="B65" s="45" t="str">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
+        <v>50</v>
+      </c>
+      <c r="B63" s="45" t="str">
         <f>'RAW GRADES'!C62</f>
         <v>VILLAREAL JOVELYN A</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C63" s="52">
         <f>'RAW GRADES'!F62</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D65" s="73">
+        <v>22.2</v>
+      </c>
+      <c r="D63" s="73">
         <f>'RAW GRADES'!I62</f>
-        <v>31.2</v>
-      </c>
-      <c r="E65" s="47">
+        <v>30</v>
+      </c>
+      <c r="E63" s="47">
         <f>'RAW GRADES'!AN62</f>
         <v>18.166666666666668</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F63" s="47">
         <f>'RAW GRADES'!AU62</f>
         <v>9.5</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G63" s="47">
         <f>'RAW GRADES'!BB62</f>
         <v>10</v>
       </c>
-      <c r="H65" s="48">
+      <c r="H63" s="48">
         <f>'RAW GRADES'!BC62</f>
-        <v>89.26666666666668</v>
-      </c>
-      <c r="I65" s="48">
+        <v>89.866666666666674</v>
+      </c>
+      <c r="I63" s="48">
         <f>'RAW GRADES'!BD62</f>
-        <v>89.27</v>
-      </c>
-      <c r="J65" s="47">
+        <v>89.87</v>
+      </c>
+      <c r="J63" s="47">
         <f>'RAW GRADES'!BK62</f>
         <v>46</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K63" s="47">
         <f>'RAW GRADES'!CP62</f>
         <v>42.5</v>
       </c>
-      <c r="L65" s="47">
+      <c r="L63" s="47">
         <f>'RAW GRADES'!CQ62</f>
         <v>88.5</v>
       </c>
-      <c r="M65" s="49">
+      <c r="M63" s="49">
         <f>'RAW GRADES'!CR62</f>
         <v>88.5</v>
       </c>
-      <c r="N65" s="53">
+      <c r="N63" s="53">
         <f>'RAW GRADES'!CS62</f>
-        <v>88.807999999999993</v>
-      </c>
-      <c r="O65" s="51">
+        <v>89.048000000000002</v>
+      </c>
+      <c r="O63" s="51">
         <f>'RAW GRADES'!CT62</f>
         <v>1.75</v>
       </c>
-      <c r="P65" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P63" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
-        <v>54</v>
-      </c>
-      <c r="B66" s="45" t="str">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
+        <v>51</v>
+      </c>
+      <c r="B64" s="45" t="str">
         <f>'RAW GRADES'!C63</f>
         <v>VILLAREAL JANINE A.</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C64" s="52">
         <f>'RAW GRADES'!F63</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="D66" s="73">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="D64" s="73">
         <f>'RAW GRADES'!I63</f>
-        <v>31.2</v>
-      </c>
-      <c r="E66" s="47">
+        <v>30</v>
+      </c>
+      <c r="E64" s="47">
         <f>'RAW GRADES'!AN63</f>
         <v>18.166666666666668</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F64" s="47">
         <f>'RAW GRADES'!AU63</f>
         <v>9.5</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G64" s="47">
         <f>'RAW GRADES'!BB63</f>
         <v>10</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H64" s="48">
         <f>'RAW GRADES'!BC63</f>
-        <v>97.666666666666671</v>
-      </c>
-      <c r="I66" s="48">
+        <v>98.266666666666666</v>
+      </c>
+      <c r="I64" s="48">
         <f>'RAW GRADES'!BD63</f>
-        <v>97.67</v>
-      </c>
-      <c r="J66" s="47">
+        <v>98.27</v>
+      </c>
+      <c r="J64" s="47">
         <f>'RAW GRADES'!BK63</f>
         <v>46</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K64" s="47">
         <f>'RAW GRADES'!CP63</f>
         <v>42.5</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L64" s="47">
         <f>'RAW GRADES'!CQ63</f>
         <v>88.5</v>
       </c>
-      <c r="M66" s="49">
+      <c r="M64" s="49">
         <f>'RAW GRADES'!CR63</f>
         <v>88.5</v>
       </c>
-      <c r="N66" s="53">
+      <c r="N64" s="53">
         <f>'RAW GRADES'!CS63</f>
-        <v>92.168000000000006</v>
-      </c>
-      <c r="O66" s="51">
+        <v>92.408000000000001</v>
+      </c>
+      <c r="O64" s="51">
         <f>'RAW GRADES'!CT63</f>
         <v>1.5</v>
       </c>
-      <c r="P66" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P64" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44">
-        <v>55</v>
-      </c>
-      <c r="B67" s="45" t="str">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
+        <v>52</v>
+      </c>
+      <c r="B65" s="45" t="str">
         <f>'RAW GRADES'!C64</f>
         <v>ZARAGOZA RHEYNZQUEL JOYCE R</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C65" s="52">
         <f>'RAW GRADES'!F64</f>
         <v>24</v>
       </c>
-      <c r="D67" s="73">
+      <c r="D65" s="73">
         <f>'RAW GRADES'!I64</f>
         <v>24.8</v>
       </c>
-      <c r="E67" s="47">
+      <c r="E65" s="47">
         <f>'RAW GRADES'!AN64</f>
         <v>16.75</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F65" s="47">
         <f>'RAW GRADES'!AU64</f>
         <v>9.5</v>
       </c>
-      <c r="G67" s="47">
+      <c r="G65" s="47">
         <f>'RAW GRADES'!BB64</f>
         <v>8</v>
       </c>
-      <c r="H67" s="48">
+      <c r="H65" s="48">
         <f>'RAW GRADES'!BC64</f>
         <v>83.05</v>
       </c>
-      <c r="I67" s="48">
+      <c r="I65" s="48">
         <f>'RAW GRADES'!BD64</f>
         <v>83.05</v>
       </c>
-      <c r="J67" s="47">
+      <c r="J65" s="47">
         <f>'RAW GRADES'!BK64</f>
         <v>44</v>
       </c>
-      <c r="K67" s="47">
+      <c r="K65" s="47">
         <f>'RAW GRADES'!CP64</f>
         <v>36.25</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L65" s="47">
         <f>'RAW GRADES'!CQ64</f>
         <v>80.25</v>
       </c>
-      <c r="M67" s="49">
+      <c r="M65" s="49">
         <f>'RAW GRADES'!CR64</f>
         <v>80.25</v>
       </c>
-      <c r="N67" s="53">
+      <c r="N65" s="53">
         <f>'RAW GRADES'!CS64</f>
         <v>81.37</v>
       </c>
-      <c r="O67" s="51">
+      <c r="O65" s="51">
         <f>'RAW GRADES'!CT64</f>
         <v>2.25</v>
       </c>
-      <c r="P67" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P65" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>PASSED</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
         <v>56</v>
       </c>
-      <c r="B68" s="45" t="str">
+      <c r="B66" s="45" t="str">
         <f>'RAW GRADES'!C65</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C68" s="52">
+      <c r="C66" s="52">
         <f>'RAW GRADES'!F65</f>
         <v>0</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D66" s="73">
         <f>'RAW GRADES'!I65</f>
         <v>0</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E66" s="47">
         <f>'RAW GRADES'!AN65</f>
         <v>0</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F66" s="47">
         <f>'RAW GRADES'!AU65</f>
         <v>0</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G66" s="47">
         <f>'RAW GRADES'!BB65</f>
         <v>0</v>
       </c>
-      <c r="H68" s="48">
+      <c r="H66" s="48">
         <f>'RAW GRADES'!BC65</f>
         <v>0</v>
       </c>
-      <c r="I68" s="48">
+      <c r="I66" s="48">
         <f>'RAW GRADES'!BD65</f>
         <v>0</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J66" s="47">
         <f>'RAW GRADES'!BK65</f>
         <v>0</v>
       </c>
-      <c r="K68" s="47">
+      <c r="K66" s="47">
         <f>'RAW GRADES'!CP65</f>
         <v>0</v>
       </c>
-      <c r="L68" s="47">
+      <c r="L66" s="47">
         <f>'RAW GRADES'!CQ65</f>
         <v>0</v>
       </c>
-      <c r="M68" s="49">
+      <c r="M66" s="49">
         <f>'RAW GRADES'!CR65</f>
         <v>0</v>
       </c>
-      <c r="N68" s="53">
+      <c r="N66" s="53">
         <f>'RAW GRADES'!CS65</f>
         <v>0</v>
       </c>
-      <c r="O68" s="51">
+      <c r="O66" s="51">
         <f>'RAW GRADES'!CT65</f>
         <v>5</v>
       </c>
-      <c r="P68" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P66" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
         <v>57</v>
       </c>
-      <c r="B69" s="45" t="str">
+      <c r="B67" s="45" t="str">
         <f>'RAW GRADES'!C66</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C69" s="52">
+      <c r="C67" s="52">
         <f>'RAW GRADES'!F66</f>
         <v>0</v>
       </c>
-      <c r="D69" s="73">
+      <c r="D67" s="73">
         <f>'RAW GRADES'!I66</f>
         <v>0</v>
       </c>
-      <c r="E69" s="47">
+      <c r="E67" s="47">
         <f>'RAW GRADES'!AN66</f>
         <v>0</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F67" s="47">
         <f>'RAW GRADES'!AU66</f>
         <v>0</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G67" s="47">
         <f>'RAW GRADES'!BB66</f>
         <v>0</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H67" s="48">
         <f>'RAW GRADES'!BC66</f>
         <v>0</v>
       </c>
-      <c r="I69" s="48">
+      <c r="I67" s="48">
         <f>'RAW GRADES'!BD66</f>
         <v>0</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J67" s="47">
         <f>'RAW GRADES'!BK66</f>
         <v>0</v>
       </c>
-      <c r="K69" s="47">
+      <c r="K67" s="47">
         <f>'RAW GRADES'!CP66</f>
         <v>0</v>
       </c>
-      <c r="L69" s="47">
+      <c r="L67" s="47">
         <f>'RAW GRADES'!CQ66</f>
         <v>0</v>
       </c>
-      <c r="M69" s="49">
+      <c r="M67" s="49">
         <f>'RAW GRADES'!CR66</f>
         <v>0</v>
       </c>
-      <c r="N69" s="53">
+      <c r="N67" s="53">
         <f>'RAW GRADES'!CS66</f>
         <v>0</v>
       </c>
-      <c r="O69" s="51">
+      <c r="O67" s="51">
         <f>'RAW GRADES'!CT66</f>
         <v>5</v>
       </c>
-      <c r="P69" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P67" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="44">
         <v>58</v>
       </c>
-      <c r="B70" s="45" t="str">
+      <c r="B68" s="45" t="str">
         <f>'RAW GRADES'!C67</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C70" s="52">
+      <c r="C68" s="52">
         <f>'RAW GRADES'!F67</f>
         <v>0</v>
       </c>
-      <c r="D70" s="73">
+      <c r="D68" s="73">
         <f>'RAW GRADES'!I67</f>
         <v>0</v>
       </c>
-      <c r="E70" s="47">
+      <c r="E68" s="47">
         <f>'RAW GRADES'!AN67</f>
         <v>0</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F68" s="47">
         <f>'RAW GRADES'!AU67</f>
         <v>0</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G68" s="47">
         <f>'RAW GRADES'!BB67</f>
         <v>0</v>
       </c>
-      <c r="H70" s="48">
+      <c r="H68" s="48">
         <f>'RAW GRADES'!BC67</f>
         <v>0</v>
       </c>
-      <c r="I70" s="48">
+      <c r="I68" s="48">
         <f>'RAW GRADES'!BD67</f>
         <v>0</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J68" s="47">
         <f>'RAW GRADES'!BK67</f>
         <v>0</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K68" s="47">
         <f>'RAW GRADES'!CP67</f>
         <v>0</v>
       </c>
-      <c r="L70" s="47">
+      <c r="L68" s="47">
         <f>'RAW GRADES'!CQ67</f>
         <v>0</v>
       </c>
-      <c r="M70" s="49">
+      <c r="M68" s="49">
         <f>'RAW GRADES'!CR67</f>
         <v>0</v>
       </c>
-      <c r="N70" s="53">
+      <c r="N68" s="53">
         <f>'RAW GRADES'!CS67</f>
         <v>0</v>
       </c>
-      <c r="O70" s="51">
+      <c r="O68" s="51">
         <f>'RAW GRADES'!CT67</f>
         <v>5</v>
       </c>
-      <c r="P70" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P68" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="44">
         <v>59</v>
       </c>
-      <c r="B71" s="45" t="str">
+      <c r="B69" s="45" t="str">
         <f>'RAW GRADES'!C68</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C71" s="52">
+      <c r="C69" s="52">
         <f>'RAW GRADES'!F68</f>
         <v>0</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D69" s="73">
         <f>'RAW GRADES'!I68</f>
         <v>0</v>
       </c>
-      <c r="E71" s="47">
+      <c r="E69" s="47">
         <f>'RAW GRADES'!AN68</f>
         <v>0</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F69" s="47">
         <f>'RAW GRADES'!AU68</f>
         <v>0</v>
       </c>
-      <c r="G71" s="47">
+      <c r="G69" s="47">
         <f>'RAW GRADES'!BB68</f>
         <v>0</v>
       </c>
-      <c r="H71" s="48">
+      <c r="H69" s="48">
         <f>'RAW GRADES'!BC68</f>
         <v>0</v>
       </c>
-      <c r="I71" s="48">
+      <c r="I69" s="48">
         <f>'RAW GRADES'!BD68</f>
         <v>0</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J69" s="47">
         <f>'RAW GRADES'!BK68</f>
         <v>0</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K69" s="47">
         <f>'RAW GRADES'!CP68</f>
         <v>0</v>
       </c>
-      <c r="L71" s="47">
+      <c r="L69" s="47">
         <f>'RAW GRADES'!CQ68</f>
         <v>0</v>
       </c>
-      <c r="M71" s="49">
+      <c r="M69" s="49">
         <f>'RAW GRADES'!CR68</f>
         <v>0</v>
       </c>
-      <c r="N71" s="53">
+      <c r="N69" s="53">
         <f>'RAW GRADES'!CS68</f>
         <v>0</v>
       </c>
-      <c r="O71" s="51">
+      <c r="O69" s="51">
         <f>'RAW GRADES'!CT68</f>
         <v>5</v>
       </c>
-      <c r="P71" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P69" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44">
+    <row r="70" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44">
         <v>60</v>
       </c>
-      <c r="B72" s="45" t="str">
+      <c r="B70" s="45" t="str">
         <f>'RAW GRADES'!C69</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C72" s="52">
+      <c r="C70" s="52">
         <f>'RAW GRADES'!F69</f>
         <v>0</v>
       </c>
-      <c r="D72" s="73">
+      <c r="D70" s="73">
         <f>'RAW GRADES'!I69</f>
         <v>0</v>
       </c>
-      <c r="E72" s="47">
+      <c r="E70" s="47">
         <f>'RAW GRADES'!AN69</f>
         <v>0</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F70" s="47">
         <f>'RAW GRADES'!AU69</f>
         <v>0</v>
       </c>
-      <c r="G72" s="47">
+      <c r="G70" s="47">
         <f>'RAW GRADES'!BB69</f>
         <v>0</v>
       </c>
-      <c r="H72" s="48">
+      <c r="H70" s="48">
         <f>'RAW GRADES'!BC69</f>
         <v>0</v>
       </c>
-      <c r="I72" s="48">
+      <c r="I70" s="48">
         <f>'RAW GRADES'!BD69</f>
         <v>0</v>
       </c>
-      <c r="J72" s="47">
+      <c r="J70" s="47">
         <f>'RAW GRADES'!BK69</f>
         <v>0</v>
       </c>
-      <c r="K72" s="47">
+      <c r="K70" s="47">
         <f>'RAW GRADES'!CP69</f>
         <v>0</v>
       </c>
-      <c r="L72" s="47">
+      <c r="L70" s="47">
         <f>'RAW GRADES'!CQ69</f>
         <v>0</v>
       </c>
-      <c r="M72" s="49">
+      <c r="M70" s="49">
         <f>'RAW GRADES'!CR69</f>
         <v>0</v>
       </c>
-      <c r="N72" s="53">
+      <c r="N70" s="53">
         <f>'RAW GRADES'!CS69</f>
         <v>0</v>
       </c>
-      <c r="O72" s="51">
+      <c r="O70" s="51">
         <f>'RAW GRADES'!CT69</f>
         <v>5</v>
       </c>
-      <c r="P72" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P70" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44">
+    <row r="71" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44">
         <v>61</v>
       </c>
-      <c r="B73" s="45" t="str">
+      <c r="B71" s="45" t="str">
         <f>'RAW GRADES'!C70</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C73" s="52">
+      <c r="C71" s="52">
         <f>'RAW GRADES'!F70</f>
         <v>0</v>
       </c>
-      <c r="D73" s="73">
+      <c r="D71" s="73">
         <f>'RAW GRADES'!I70</f>
         <v>0</v>
       </c>
-      <c r="E73" s="47">
+      <c r="E71" s="47">
         <f>'RAW GRADES'!AN70</f>
         <v>0</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F71" s="47">
         <f>'RAW GRADES'!AU70</f>
         <v>0</v>
       </c>
-      <c r="G73" s="47">
+      <c r="G71" s="47">
         <f>'RAW GRADES'!BB70</f>
         <v>0</v>
       </c>
-      <c r="H73" s="48">
+      <c r="H71" s="48">
         <f>'RAW GRADES'!BC70</f>
         <v>0</v>
       </c>
-      <c r="I73" s="48">
+      <c r="I71" s="48">
         <f>'RAW GRADES'!BD70</f>
         <v>0</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J71" s="47">
         <f>'RAW GRADES'!BK70</f>
         <v>0</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K71" s="47">
         <f>'RAW GRADES'!CP70</f>
         <v>0</v>
       </c>
-      <c r="L73" s="47">
+      <c r="L71" s="47">
         <f>'RAW GRADES'!CQ70</f>
         <v>0</v>
       </c>
-      <c r="M73" s="49">
+      <c r="M71" s="49">
         <f>'RAW GRADES'!CR70</f>
         <v>0</v>
       </c>
-      <c r="N73" s="53">
+      <c r="N71" s="53">
         <f>'RAW GRADES'!CS70</f>
         <v>0</v>
       </c>
-      <c r="O73" s="51">
+      <c r="O71" s="51">
         <f>'RAW GRADES'!CT70</f>
         <v>5</v>
       </c>
-      <c r="P73" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="P71" s="54" t="str">
+        <f t="shared" si="1"/>
         <v>FAILED</v>
       </c>
     </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="44">
+        <v>62</v>
+      </c>
+      <c r="B72" s="45">
+        <f>'RAW GRADES'!C71</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="52">
+        <f>'RAW GRADES'!F71</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="73">
+        <f>'RAW GRADES'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="47">
+        <f>'RAW GRADES'!AN71</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="47">
+        <f>'RAW GRADES'!AU71</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="47">
+        <f>'RAW GRADES'!BB71</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="48">
+        <f>'RAW GRADES'!BC71</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="48">
+        <f>'RAW GRADES'!BD71</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="47">
+        <f>'RAW GRADES'!BK71</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="47">
+        <f>'RAW GRADES'!CP71</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="47">
+        <f>'RAW GRADES'!CQ71</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="49">
+        <f>'RAW GRADES'!CR71</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="53">
+        <f>'RAW GRADES'!CS71</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="51">
+        <f>'RAW GRADES'!CT71</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>PASSED</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D75" s="103"/>
+    </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>171</v>
-      </c>
-      <c r="K76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D77" s="103"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="108" t="str">
+      <c r="B76" s="108" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="C78" s="109"/>
-      <c r="D78" s="103"/>
-      <c r="K78" s="109" t="str">
+      <c r="C76" s="109"/>
+      <c r="D76" s="103"/>
+      <c r="K76" s="109" t="str">
         <f>UPPER(REGISTRATION!Q15)</f>
         <v>BRYLLE D. SAMSON</v>
       </c>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="83" t="s">
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K79" s="83" t="s">
+      <c r="K77" s="83" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="J10:M10"/>
@@ -29182,14 +29112,14 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C10:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="P13:P73">
+  <conditionalFormatting sqref="P13:P72">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="77" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="256" scale="51" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29200,8 +29130,8 @@
   </sheetPr>
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29459,7 +29389,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="138" t="str">
-        <f>'DEPT CHAIR'!B15</f>
+        <f>'DEPT CHAIR'!B14</f>
         <v>ADRIANO JOMARI A</v>
       </c>
       <c r="C23" s="61" t="str">
@@ -29467,7 +29397,7 @@
         <v>20115-01-916</v>
       </c>
       <c r="D23" s="62">
-        <f>'DEPT CHAIR'!O15</f>
+        <f>'DEPT CHAIR'!O14</f>
         <v>2</v>
       </c>
       <c r="E23" s="63" t="str">
@@ -29475,7 +29405,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="64" t="str">
-        <f>'DEPT CHAIR'!P15</f>
+        <f>'DEPT CHAIR'!P14</f>
         <v>PASSED</v>
       </c>
     </row>
@@ -29484,7 +29414,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="138" t="str">
-        <f>'DEPT CHAIR'!B16</f>
+        <f>'DEPT CHAIR'!B15</f>
         <v>ALVAREZ DARYL L</v>
       </c>
       <c r="C24" s="61" t="str">
@@ -29492,7 +29422,7 @@
         <v>2017-01-157</v>
       </c>
       <c r="D24" s="62">
-        <f>'DEPT CHAIR'!O16</f>
+        <f>'DEPT CHAIR'!O15</f>
         <v>2.25</v>
       </c>
       <c r="E24" s="63" t="str">
@@ -29500,7 +29430,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="64" t="str">
-        <f>'DEPT CHAIR'!P16</f>
+        <f>'DEPT CHAIR'!P15</f>
         <v>PASSED</v>
       </c>
     </row>
@@ -29509,7 +29439,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="138" t="str">
-        <f>'DEPT CHAIR'!B17</f>
+        <f>'DEPT CHAIR'!B16</f>
         <v>ANENIAS DANILO DANIEL  M</v>
       </c>
       <c r="C25" s="61" t="str">
@@ -29517,7 +29447,7 @@
         <v>2015-0-285</v>
       </c>
       <c r="D25" s="62">
-        <f>'DEPT CHAIR'!O17</f>
+        <f>'DEPT CHAIR'!O16</f>
         <v>1.75</v>
       </c>
       <c r="E25" s="63" t="str">
@@ -29525,16 +29455,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="64" t="str">
-        <f>'DEPT CHAIR'!P17</f>
+        <f>'DEPT CHAIR'!P16</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+      <c r="A26" s="60">
         <v>5</v>
       </c>
       <c r="B26" s="138" t="str">
-        <f>'DEPT CHAIR'!B18</f>
+        <f>'DEPT CHAIR'!B17</f>
         <v>ANGCON NIGUELITO H</v>
       </c>
       <c r="C26" s="61" t="str">
@@ -29542,7 +29472,7 @@
         <v>2015-01-1786</v>
       </c>
       <c r="D26" s="62">
-        <f>'DEPT CHAIR'!O18</f>
+        <f>'DEPT CHAIR'!O17</f>
         <v>2.75</v>
       </c>
       <c r="E26" s="63" t="str">
@@ -29550,16 +29480,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="64" t="str">
-        <f>'DEPT CHAIR'!P18</f>
+        <f>'DEPT CHAIR'!P17</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="65">
         <v>6</v>
       </c>
       <c r="B27" s="138" t="str">
-        <f>'DEPT CHAIR'!B19</f>
+        <f>'DEPT CHAIR'!B18</f>
         <v>ATIENZA MHEL VINCE V</v>
       </c>
       <c r="C27" s="61" t="str">
@@ -29567,7 +29497,7 @@
         <v>2015-01-701</v>
       </c>
       <c r="D27" s="62">
-        <f>'DEPT CHAIR'!O19</f>
+        <f>'DEPT CHAIR'!O18</f>
         <v>5</v>
       </c>
       <c r="E27" s="63" t="str">
@@ -29575,16 +29505,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="64" t="str">
-        <f>'DEPT CHAIR'!P19</f>
+        <f>'DEPT CHAIR'!P18</f>
         <v>FAILED</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+      <c r="A28" s="60">
         <v>7</v>
       </c>
       <c r="B28" s="138" t="str">
-        <f>'DEPT CHAIR'!B20</f>
+        <f>'DEPT CHAIR'!B19</f>
         <v>BABADILLA MARK ANTHONY B</v>
       </c>
       <c r="C28" s="61" t="str">
@@ -29592,7 +29522,7 @@
         <v>2014-01-398</v>
       </c>
       <c r="D28" s="62">
-        <f>'DEPT CHAIR'!O20</f>
+        <f>'DEPT CHAIR'!O19</f>
         <v>2.5</v>
       </c>
       <c r="E28" s="63" t="str">
@@ -29600,7 +29530,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="64" t="str">
-        <f>'DEPT CHAIR'!P20</f>
+        <f>'DEPT CHAIR'!P19</f>
         <v>PASSED</v>
       </c>
     </row>
@@ -29609,7 +29539,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="138" t="str">
-        <f>'DEPT CHAIR'!B21</f>
+        <f>'DEPT CHAIR'!B20</f>
         <v>BACUNGAN KIMBERLY C</v>
       </c>
       <c r="C29" s="61" t="str">
@@ -29617,7 +29547,7 @@
         <v>2017-01-152</v>
       </c>
       <c r="D29" s="62">
-        <f>'DEPT CHAIR'!O21</f>
+        <f>'DEPT CHAIR'!O20</f>
         <v>2.25</v>
       </c>
       <c r="E29" s="63" t="str">
@@ -29625,7 +29555,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="64" t="str">
-        <f>'DEPT CHAIR'!P21</f>
+        <f>'DEPT CHAIR'!P20</f>
         <v>PASSED</v>
       </c>
     </row>
@@ -29634,7 +29564,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="138" t="str">
-        <f>'DEPT CHAIR'!B22</f>
+        <f>'DEPT CHAIR'!B21</f>
         <v>BAYLA ADRIAN PAULO C</v>
       </c>
       <c r="C30" s="61" t="str">
@@ -29642,7 +29572,7 @@
         <v>2016-01-596</v>
       </c>
       <c r="D30" s="62">
-        <f>'DEPT CHAIR'!O22</f>
+        <f>'DEPT CHAIR'!O21</f>
         <v>2</v>
       </c>
       <c r="E30" s="63" t="str">
@@ -29650,16 +29580,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="64" t="str">
-        <f>'DEPT CHAIR'!P22</f>
+        <f>'DEPT CHAIR'!P21</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
-        <v>11</v>
+      <c r="A31" s="60">
+        <v>10</v>
       </c>
       <c r="B31" s="138" t="str">
-        <f>'DEPT CHAIR'!B24</f>
+        <f>'DEPT CHAIR'!B23</f>
         <v>CABASAN ELMAR V</v>
       </c>
       <c r="C31" s="61" t="str">
@@ -29667,7 +29597,7 @@
         <v>2015-01-965</v>
       </c>
       <c r="D31" s="62">
-        <f>'DEPT CHAIR'!O24</f>
+        <f>'DEPT CHAIR'!O23</f>
         <v>2</v>
       </c>
       <c r="E31" s="63" t="str">
@@ -29675,16 +29605,16 @@
         <v>3</v>
       </c>
       <c r="F31" s="64" t="str">
-        <f>'DEPT CHAIR'!P24</f>
+        <f>'DEPT CHAIR'!P23</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="60">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="138" t="str">
-        <f>'DEPT CHAIR'!B25</f>
+        <f>'DEPT CHAIR'!B24</f>
         <v>CANDIDO PELEGRIN III D</v>
       </c>
       <c r="C32" s="61" t="str">
@@ -29692,7 +29622,7 @@
         <v>2017-01-223</v>
       </c>
       <c r="D32" s="62">
-        <f>'DEPT CHAIR'!O25</f>
+        <f>'DEPT CHAIR'!O24</f>
         <v>5</v>
       </c>
       <c r="E32" s="63" t="str">
@@ -29700,16 +29630,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="64" t="str">
-        <f>'DEPT CHAIR'!P25</f>
+        <f>'DEPT CHAIR'!P24</f>
         <v>FAILED</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="138" t="str">
-        <f>'DEPT CHAIR'!B26</f>
+        <f>'DEPT CHAIR'!B25</f>
         <v>CANTORNE BLENNOX YAAQOV L</v>
       </c>
       <c r="C33" s="61" t="str">
@@ -29717,7 +29647,7 @@
         <v>2017-01-841</v>
       </c>
       <c r="D33" s="62">
-        <f>'DEPT CHAIR'!O26</f>
+        <f>'DEPT CHAIR'!O25</f>
         <v>2.75</v>
       </c>
       <c r="E33" s="63" t="str">
@@ -29725,16 +29655,16 @@
         <v>3</v>
       </c>
       <c r="F33" s="64" t="str">
-        <f>'DEPT CHAIR'!P26</f>
+        <f>'DEPT CHAIR'!P25</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="138" t="str">
-        <f>'DEPT CHAIR'!B27</f>
+        <f>'DEPT CHAIR'!B26</f>
         <v>CANTUBA JOHN VINCENT B</v>
       </c>
       <c r="C34" s="61" t="str">
@@ -29742,7 +29672,7 @@
         <v>2015-01-1939</v>
       </c>
       <c r="D34" s="62">
-        <f>'DEPT CHAIR'!O27</f>
+        <f>'DEPT CHAIR'!O26</f>
         <v>2.25</v>
       </c>
       <c r="E34" s="63" t="str">
@@ -29750,16 +29680,16 @@
         <v>3</v>
       </c>
       <c r="F34" s="64" t="str">
-        <f>'DEPT CHAIR'!P27</f>
+        <f>'DEPT CHAIR'!P26</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
-        <v>15</v>
+      <c r="A35" s="60">
+        <v>14</v>
       </c>
       <c r="B35" s="138" t="str">
-        <f>'DEPT CHAIR'!B28</f>
+        <f>'DEPT CHAIR'!B27</f>
         <v>CARPIO JAYSON JAY C</v>
       </c>
       <c r="C35" s="61" t="str">
@@ -29767,7 +29697,7 @@
         <v>2016-01-623</v>
       </c>
       <c r="D35" s="62">
-        <f>'DEPT CHAIR'!O28</f>
+        <f>'DEPT CHAIR'!O27</f>
         <v>2</v>
       </c>
       <c r="E35" s="63" t="str">
@@ -29775,16 +29705,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="64" t="str">
-        <f>'DEPT CHAIR'!P28</f>
+        <f>'DEPT CHAIR'!P27</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="60">
-        <v>16</v>
+      <c r="A36" s="65">
+        <v>15</v>
       </c>
       <c r="B36" s="138" t="str">
-        <f>'DEPT CHAIR'!B29</f>
+        <f>'DEPT CHAIR'!B28</f>
         <v>CENTENO MATTHEW N</v>
       </c>
       <c r="C36" s="61" t="str">
@@ -29792,7 +29722,7 @@
         <v>2015-01-2016</v>
       </c>
       <c r="D36" s="62">
-        <f>'DEPT CHAIR'!O29</f>
+        <f>'DEPT CHAIR'!O28</f>
         <v>2.25</v>
       </c>
       <c r="E36" s="63" t="str">
@@ -29800,16 +29730,16 @@
         <v>3</v>
       </c>
       <c r="F36" s="64" t="str">
-        <f>'DEPT CHAIR'!P29</f>
+        <f>'DEPT CHAIR'!P28</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
-        <v>17</v>
+      <c r="A37" s="60">
+        <v>16</v>
       </c>
       <c r="B37" s="138" t="str">
-        <f>'DEPT CHAIR'!B30</f>
+        <f>'DEPT CHAIR'!B29</f>
         <v>CERVANTES JESUS H</v>
       </c>
       <c r="C37" s="61" t="str">
@@ -29817,7 +29747,7 @@
         <v>2016-01-526</v>
       </c>
       <c r="D37" s="62">
-        <f>'DEPT CHAIR'!O30</f>
+        <f>'DEPT CHAIR'!O29</f>
         <v>1.75</v>
       </c>
       <c r="E37" s="63" t="str">
@@ -29825,16 +29755,16 @@
         <v>3</v>
       </c>
       <c r="F37" s="64" t="str">
-        <f>'DEPT CHAIR'!P30</f>
+        <f>'DEPT CHAIR'!P29</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="138" t="str">
-        <f>'DEPT CHAIR'!B31</f>
+        <f>'DEPT CHAIR'!B30</f>
         <v>CONDE MARC ALDOUS S</v>
       </c>
       <c r="C38" s="61" t="str">
@@ -29842,7 +29772,7 @@
         <v>2017-02-064</v>
       </c>
       <c r="D38" s="62">
-        <f>'DEPT CHAIR'!O31</f>
+        <f>'DEPT CHAIR'!O30</f>
         <v>2.25</v>
       </c>
       <c r="E38" s="63" t="str">
@@ -29850,16 +29780,16 @@
         <v>3</v>
       </c>
       <c r="F38" s="64" t="str">
-        <f>'DEPT CHAIR'!P31</f>
+        <f>'DEPT CHAIR'!P30</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="138" t="str">
-        <f>'DEPT CHAIR'!B32</f>
+        <f>'DEPT CHAIR'!B31</f>
         <v>CORTEZ ADRIAN PHILIP V</v>
       </c>
       <c r="C39" s="61" t="str">
@@ -29867,7 +29797,7 @@
         <v>2015-01-2062</v>
       </c>
       <c r="D39" s="62">
-        <f>'DEPT CHAIR'!O32</f>
+        <f>'DEPT CHAIR'!O31</f>
         <v>2</v>
       </c>
       <c r="E39" s="63" t="str">
@@ -29875,16 +29805,16 @@
         <v>3</v>
       </c>
       <c r="F39" s="64" t="str">
-        <f>'DEPT CHAIR'!P32</f>
+        <f>'DEPT CHAIR'!P31</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="138" t="str">
-        <f>'DEPT CHAIR'!B33</f>
+        <f>'DEPT CHAIR'!B32</f>
         <v>DELA CRUZ CHARLES B</v>
       </c>
       <c r="C40" s="61" t="str">
@@ -29892,7 +29822,7 @@
         <v>2017-01-808</v>
       </c>
       <c r="D40" s="62">
-        <f>'DEPT CHAIR'!O33</f>
+        <f>'DEPT CHAIR'!O32</f>
         <v>2.25</v>
       </c>
       <c r="E40" s="63" t="str">
@@ -29900,16 +29830,16 @@
         <v>3</v>
       </c>
       <c r="F40" s="64" t="str">
-        <f>'DEPT CHAIR'!P33</f>
+        <f>'DEPT CHAIR'!P32</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="65">
-        <v>21</v>
+      <c r="A41" s="60">
+        <v>20</v>
       </c>
       <c r="B41" s="138" t="str">
-        <f>'DEPT CHAIR'!B34</f>
+        <f>'DEPT CHAIR'!B33</f>
         <v>ELEPTICO RAYGIN F</v>
       </c>
       <c r="C41" s="61" t="str">
@@ -29917,7 +29847,7 @@
         <v>2017-01-153</v>
       </c>
       <c r="D41" s="62">
-        <f>'DEPT CHAIR'!O34</f>
+        <f>'DEPT CHAIR'!O33</f>
         <v>2.5</v>
       </c>
       <c r="E41" s="63" t="str">
@@ -29925,16 +29855,16 @@
         <v>3</v>
       </c>
       <c r="F41" s="64" t="str">
-        <f>'DEPT CHAIR'!P34</f>
+        <f>'DEPT CHAIR'!P33</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="60">
-        <v>22</v>
+      <c r="A42" s="65">
+        <v>21</v>
       </c>
       <c r="B42" s="138" t="str">
-        <f>'DEPT CHAIR'!B35</f>
+        <f>'DEPT CHAIR'!B34</f>
         <v>FRANCO JUNIEL C</v>
       </c>
       <c r="C42" s="61" t="str">
@@ -29942,7 +29872,7 @@
         <v>2016-01-642</v>
       </c>
       <c r="D42" s="62">
-        <f>'DEPT CHAIR'!O35</f>
+        <f>'DEPT CHAIR'!O34</f>
         <v>2.25</v>
       </c>
       <c r="E42" s="63" t="str">
@@ -29950,16 +29880,16 @@
         <v>3</v>
       </c>
       <c r="F42" s="64" t="str">
-        <f>'DEPT CHAIR'!P35</f>
+        <f>'DEPT CHAIR'!P34</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
-        <v>23</v>
+      <c r="A43" s="60">
+        <v>22</v>
       </c>
       <c r="B43" s="138" t="str">
-        <f>'DEPT CHAIR'!B36</f>
+        <f>'DEPT CHAIR'!B35</f>
         <v>GOMEZ CELEEN MAE M</v>
       </c>
       <c r="C43" s="61" t="str">
@@ -29967,7 +29897,7 @@
         <v>2017-01-138</v>
       </c>
       <c r="D43" s="62">
-        <f>'DEPT CHAIR'!O36</f>
+        <f>'DEPT CHAIR'!O35</f>
         <v>1.75</v>
       </c>
       <c r="E43" s="63" t="str">
@@ -29975,16 +29905,16 @@
         <v>3</v>
       </c>
       <c r="F43" s="64" t="str">
-        <f>'DEPT CHAIR'!P36</f>
+        <f>'DEPT CHAIR'!P35</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="138" t="str">
-        <f>'DEPT CHAIR'!B37</f>
+        <f>'DEPT CHAIR'!B36</f>
         <v>IMPERIO RONALD BENEDICT M</v>
       </c>
       <c r="C44" s="61" t="str">
@@ -29992,7 +29922,7 @@
         <v>2017-01-701</v>
       </c>
       <c r="D44" s="62">
-        <f>'DEPT CHAIR'!O37</f>
+        <f>'DEPT CHAIR'!O36</f>
         <v>3</v>
       </c>
       <c r="E44" s="63" t="str">
@@ -30000,16 +29930,16 @@
         <v>3</v>
       </c>
       <c r="F44" s="64" t="str">
-        <f>'DEPT CHAIR'!P37</f>
+        <f>'DEPT CHAIR'!P36</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="138" t="str">
-        <f>'DEPT CHAIR'!B38</f>
+        <f>'DEPT CHAIR'!B37</f>
         <v>JOSE RALPH RHOLWEN M</v>
       </c>
       <c r="C45" s="61" t="str">
@@ -30017,7 +29947,7 @@
         <v>2016-02-069</v>
       </c>
       <c r="D45" s="62">
-        <f>'DEPT CHAIR'!O38</f>
+        <f>'DEPT CHAIR'!O37</f>
         <v>2</v>
       </c>
       <c r="E45" s="63" t="str">
@@ -30025,16 +29955,16 @@
         <v>3</v>
       </c>
       <c r="F45" s="64" t="str">
-        <f>'DEPT CHAIR'!P38</f>
+        <f>'DEPT CHAIR'!P37</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
-        <v>27</v>
+      <c r="A46" s="60">
+        <v>25</v>
       </c>
       <c r="B46" s="138" t="str">
-        <f>'DEPT CHAIR'!B40</f>
+        <f>'DEPT CHAIR'!B38</f>
         <v>LOZADA ANGELICA T</v>
       </c>
       <c r="C46" s="61" t="str">
@@ -30042,7 +29972,7 @@
         <v>2015-02-013</v>
       </c>
       <c r="D46" s="62">
-        <f>'DEPT CHAIR'!O40</f>
+        <f>'DEPT CHAIR'!O38</f>
         <v>1.5</v>
       </c>
       <c r="E46" s="63" t="str">
@@ -30050,16 +29980,16 @@
         <v>3</v>
       </c>
       <c r="F46" s="64" t="str">
-        <f>'DEPT CHAIR'!P40</f>
+        <f>'DEPT CHAIR'!P38</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="138" t="str">
-        <f>'DEPT CHAIR'!B41</f>
+        <f>'DEPT CHAIR'!B39</f>
         <v>MAGLIAN MATHEOJAY R</v>
       </c>
       <c r="C47" s="61" t="str">
@@ -30067,7 +29997,7 @@
         <v>2016-01-106</v>
       </c>
       <c r="D47" s="62">
-        <f>'DEPT CHAIR'!O41</f>
+        <f>'DEPT CHAIR'!O39</f>
         <v>1.5</v>
       </c>
       <c r="E47" s="63" t="str">
@@ -30075,16 +30005,16 @@
         <v>3</v>
       </c>
       <c r="F47" s="64" t="str">
-        <f>'DEPT CHAIR'!P41</f>
+        <f>'DEPT CHAIR'!P39</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="138" t="str">
-        <f>'DEPT CHAIR'!B42</f>
+        <f>'DEPT CHAIR'!B40</f>
         <v>MERCADO ALLEN PAUL S</v>
       </c>
       <c r="C48" s="61" t="str">
@@ -30092,7 +30022,7 @@
         <v>2015-02-094</v>
       </c>
       <c r="D48" s="62">
-        <f>'DEPT CHAIR'!O42</f>
+        <f>'DEPT CHAIR'!O40</f>
         <v>2.25</v>
       </c>
       <c r="E48" s="63" t="str">
@@ -30100,16 +30030,16 @@
         <v>3</v>
       </c>
       <c r="F48" s="64" t="str">
-        <f>'DEPT CHAIR'!P42</f>
+        <f>'DEPT CHAIR'!P40</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" s="138" t="str">
-        <f>'DEPT CHAIR'!B43</f>
+        <f>'DEPT CHAIR'!B41</f>
         <v>MISCREOLA ANGEL JOY R</v>
       </c>
       <c r="C49" s="61" t="str">
@@ -30117,7 +30047,7 @@
         <v>2015-01-1458</v>
       </c>
       <c r="D49" s="62">
-        <f>'DEPT CHAIR'!O43</f>
+        <f>'DEPT CHAIR'!O41</f>
         <v>2.5</v>
       </c>
       <c r="E49" s="63" t="str">
@@ -30125,16 +30055,16 @@
         <v>3</v>
       </c>
       <c r="F49" s="64" t="str">
-        <f>'DEPT CHAIR'!P43</f>
+        <f>'DEPT CHAIR'!P41</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="65">
-        <v>31</v>
+      <c r="A50" s="60">
+        <v>29</v>
       </c>
       <c r="B50" s="138" t="str">
-        <f>'DEPT CHAIR'!B44</f>
+        <f>'DEPT CHAIR'!B42</f>
         <v>NAVARRA JHON ANGELO  D</v>
       </c>
       <c r="C50" s="61" t="str">
@@ -30142,7 +30072,7 @@
         <v>2014-01-706</v>
       </c>
       <c r="D50" s="62">
-        <f>'DEPT CHAIR'!O44</f>
+        <f>'DEPT CHAIR'!O42</f>
         <v>2.5</v>
       </c>
       <c r="E50" s="63" t="str">
@@ -30150,16 +30080,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="64" t="str">
-        <f>'DEPT CHAIR'!P44</f>
+        <f>'DEPT CHAIR'!P42</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="60">
-        <v>32</v>
+      <c r="A51" s="65">
+        <v>30</v>
       </c>
       <c r="B51" s="138" t="str">
-        <f>'DEPT CHAIR'!B45</f>
+        <f>'DEPT CHAIR'!B43</f>
         <v>NOVEROS KENNETH O</v>
       </c>
       <c r="C51" s="61" t="str">
@@ -30167,7 +30097,7 @@
         <v>2015-01-742</v>
       </c>
       <c r="D51" s="62">
-        <f>'DEPT CHAIR'!O45</f>
+        <f>'DEPT CHAIR'!O43</f>
         <v>2.25</v>
       </c>
       <c r="E51" s="63" t="str">
@@ -30175,16 +30105,16 @@
         <v>3</v>
       </c>
       <c r="F51" s="64" t="str">
-        <f>'DEPT CHAIR'!P45</f>
+        <f>'DEPT CHAIR'!P43</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
-        <v>33</v>
+      <c r="A52" s="60">
+        <v>31</v>
       </c>
       <c r="B52" s="138" t="str">
-        <f>'DEPT CHAIR'!B46</f>
+        <f>'DEPT CHAIR'!B44</f>
         <v>ONIA JAYVEE RENZ J</v>
       </c>
       <c r="C52" s="61" t="str">
@@ -30192,7 +30122,7 @@
         <v>2012-01-686</v>
       </c>
       <c r="D52" s="62">
-        <f>'DEPT CHAIR'!O46</f>
+        <f>'DEPT CHAIR'!O44</f>
         <v>2.75</v>
       </c>
       <c r="E52" s="63" t="str">
@@ -30200,16 +30130,16 @@
         <v>3</v>
       </c>
       <c r="F52" s="64" t="str">
-        <f>'DEPT CHAIR'!P46</f>
+        <f>'DEPT CHAIR'!P44</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="60">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53" s="138" t="str">
-        <f>'DEPT CHAIR'!B47</f>
+        <f>'DEPT CHAIR'!B45</f>
         <v>PEREA KIM NATHANIEL C</v>
       </c>
       <c r="C53" s="61" t="str">
@@ -30217,7 +30147,7 @@
         <v>2015-02-080</v>
       </c>
       <c r="D53" s="62">
-        <f>'DEPT CHAIR'!O47</f>
+        <f>'DEPT CHAIR'!O45</f>
         <v>1.75</v>
       </c>
       <c r="E53" s="63" t="str">
@@ -30225,16 +30155,16 @@
         <v>3</v>
       </c>
       <c r="F53" s="64" t="str">
-        <f>'DEPT CHAIR'!P47</f>
+        <f>'DEPT CHAIR'!P45</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54" s="138" t="str">
-        <f>'DEPT CHAIR'!B48</f>
+        <f>'DEPT CHAIR'!B46</f>
         <v>PETINGLAY REX JR. A</v>
       </c>
       <c r="C54" s="61" t="str">
@@ -30242,7 +30172,7 @@
         <v>2017-01-099</v>
       </c>
       <c r="D54" s="62">
-        <f>'DEPT CHAIR'!O48</f>
+        <f>'DEPT CHAIR'!O46</f>
         <v>2.25</v>
       </c>
       <c r="E54" s="63" t="str">
@@ -30250,16 +30180,16 @@
         <v>3</v>
       </c>
       <c r="F54" s="64" t="str">
-        <f>'DEPT CHAIR'!P48</f>
+        <f>'DEPT CHAIR'!P46</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="60">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B55" s="138" t="str">
-        <f>'DEPT CHAIR'!B49</f>
+        <f>'DEPT CHAIR'!B47</f>
         <v>RAPAS JOHN CARLO C</v>
       </c>
       <c r="C55" s="61" t="str">
@@ -30267,7 +30197,7 @@
         <v>2014-01-669</v>
       </c>
       <c r="D55" s="62">
-        <f>'DEPT CHAIR'!O49</f>
+        <f>'DEPT CHAIR'!O47</f>
         <v>2.5</v>
       </c>
       <c r="E55" s="63" t="str">
@@ -30275,16 +30205,16 @@
         <v>3</v>
       </c>
       <c r="F55" s="64" t="str">
-        <f>'DEPT CHAIR'!P49</f>
+        <f>'DEPT CHAIR'!P47</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="65">
-        <v>37</v>
+      <c r="A56" s="60">
+        <v>35</v>
       </c>
       <c r="B56" s="138" t="str">
-        <f>'DEPT CHAIR'!B50</f>
+        <f>'DEPT CHAIR'!B48</f>
         <v xml:space="preserve">RAZO LINWEL JOHN </v>
       </c>
       <c r="C56" s="61" t="str">
@@ -30292,7 +30222,7 @@
         <v>2015-01-2074</v>
       </c>
       <c r="D56" s="62">
-        <f>'DEPT CHAIR'!O50</f>
+        <f>'DEPT CHAIR'!O48</f>
         <v>3</v>
       </c>
       <c r="E56" s="63" t="str">
@@ -30300,16 +30230,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="64" t="str">
-        <f>'DEPT CHAIR'!P50</f>
+        <f>'DEPT CHAIR'!P48</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="60">
-        <v>38</v>
+      <c r="A57" s="65">
+        <v>36</v>
       </c>
       <c r="B57" s="138" t="str">
-        <f>'DEPT CHAIR'!B51</f>
+        <f>'DEPT CHAIR'!B49</f>
         <v>REAL  JERICO B</v>
       </c>
       <c r="C57" s="61" t="str">
@@ -30317,7 +30247,7 @@
         <v>2015-01-553</v>
       </c>
       <c r="D57" s="62">
-        <f>'DEPT CHAIR'!O51</f>
+        <f>'DEPT CHAIR'!O49</f>
         <v>1.75</v>
       </c>
       <c r="E57" s="63" t="str">
@@ -30325,16 +30255,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="64" t="str">
-        <f>'DEPT CHAIR'!P51</f>
+        <f>'DEPT CHAIR'!P49</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="65">
-        <v>39</v>
+      <c r="A58" s="60">
+        <v>37</v>
       </c>
       <c r="B58" s="138" t="str">
-        <f>'DEPT CHAIR'!B52</f>
+        <f>'DEPT CHAIR'!B50</f>
         <v>RODRIGUEZ CYLEE Y</v>
       </c>
       <c r="C58" s="61" t="str">
@@ -30342,7 +30272,7 @@
         <v>2016-01-554</v>
       </c>
       <c r="D58" s="62">
-        <f>'DEPT CHAIR'!O52</f>
+        <f>'DEPT CHAIR'!O50</f>
         <v>5</v>
       </c>
       <c r="E58" s="63" t="str">
@@ -30350,16 +30280,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="64" t="str">
-        <f>'DEPT CHAIR'!P52</f>
+        <f>'DEPT CHAIR'!P50</f>
         <v>FAILED</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="60">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B59" s="138" t="str">
-        <f>'DEPT CHAIR'!B53</f>
+        <f>'DEPT CHAIR'!B51</f>
         <v>SALUDO MANUEL B</v>
       </c>
       <c r="C59" s="61" t="str">
@@ -30367,7 +30297,7 @@
         <v>2015-02-004</v>
       </c>
       <c r="D59" s="62">
-        <f>'DEPT CHAIR'!O53</f>
+        <f>'DEPT CHAIR'!O51</f>
         <v>2.25</v>
       </c>
       <c r="E59" s="63" t="str">
@@ -30375,16 +30305,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="64" t="str">
-        <f>'DEPT CHAIR'!P53</f>
+        <f>'DEPT CHAIR'!P51</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="138" t="str">
-        <f>'DEPT CHAIR'!B54</f>
+        <f>'DEPT CHAIR'!B52</f>
         <v>SANAREZ CARL GEVEN R</v>
       </c>
       <c r="C60" s="61" t="str">
@@ -30392,7 +30322,7 @@
         <v>2015-01-1533</v>
       </c>
       <c r="D60" s="62">
-        <f>'DEPT CHAIR'!O54</f>
+        <f>'DEPT CHAIR'!O52</f>
         <v>2</v>
       </c>
       <c r="E60" s="63" t="str">
@@ -30400,16 +30330,16 @@
         <v>3</v>
       </c>
       <c r="F60" s="64" t="str">
-        <f>'DEPT CHAIR'!P54</f>
+        <f>'DEPT CHAIR'!P52</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="60">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" s="138" t="str">
-        <f>'DEPT CHAIR'!B55</f>
+        <f>'DEPT CHAIR'!B53</f>
         <v>SAYSAY ROWELL B</v>
       </c>
       <c r="C61" s="61" t="str">
@@ -30417,7 +30347,7 @@
         <v>2015-01-1859</v>
       </c>
       <c r="D61" s="62">
-        <f>'DEPT CHAIR'!O55</f>
+        <f>'DEPT CHAIR'!O53</f>
         <v>1.75</v>
       </c>
       <c r="E61" s="63" t="str">
@@ -30425,16 +30355,16 @@
         <v>3</v>
       </c>
       <c r="F61" s="64" t="str">
-        <f>'DEPT CHAIR'!P55</f>
+        <f>'DEPT CHAIR'!P53</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="65">
-        <v>43</v>
+      <c r="A62" s="60">
+        <v>41</v>
       </c>
       <c r="B62" s="138" t="str">
-        <f>'DEPT CHAIR'!B56</f>
+        <f>'DEPT CHAIR'!B54</f>
         <v>SERBISE JAYVEE H</v>
       </c>
       <c r="C62" s="61" t="str">
@@ -30442,7 +30372,7 @@
         <v>2015-01-1447</v>
       </c>
       <c r="D62" s="62">
-        <f>'DEPT CHAIR'!O56</f>
+        <f>'DEPT CHAIR'!O54</f>
         <v>2</v>
       </c>
       <c r="E62" s="63" t="str">
@@ -30450,16 +30380,16 @@
         <v>3</v>
       </c>
       <c r="F62" s="64" t="str">
-        <f>'DEPT CHAIR'!P56</f>
+        <f>'DEPT CHAIR'!P54</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="60">
-        <v>44</v>
+      <c r="A63" s="65">
+        <v>42</v>
       </c>
       <c r="B63" s="138" t="str">
-        <f>'DEPT CHAIR'!B57</f>
+        <f>'DEPT CHAIR'!B55</f>
         <v>SICAPIRO ALDWIN JOHN O</v>
       </c>
       <c r="C63" s="61" t="str">
@@ -30467,7 +30397,7 @@
         <v>2015-01-530</v>
       </c>
       <c r="D63" s="62">
-        <f>'DEPT CHAIR'!O57</f>
+        <f>'DEPT CHAIR'!O55</f>
         <v>2.25</v>
       </c>
       <c r="E63" s="63" t="str">
@@ -30475,16 +30405,16 @@
         <v>3</v>
       </c>
       <c r="F63" s="64" t="str">
-        <f>'DEPT CHAIR'!P57</f>
+        <f>'DEPT CHAIR'!P55</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65">
-        <v>45</v>
+      <c r="A64" s="60">
+        <v>43</v>
       </c>
       <c r="B64" s="138" t="str">
-        <f>'DEPT CHAIR'!B58</f>
+        <f>'DEPT CHAIR'!B56</f>
         <v>TEQUEL MARVIN B</v>
       </c>
       <c r="C64" s="61" t="str">
@@ -30492,7 +30422,7 @@
         <v>2017-01-150</v>
       </c>
       <c r="D64" s="62">
-        <f>'DEPT CHAIR'!O58</f>
+        <f>'DEPT CHAIR'!O56</f>
         <v>3</v>
       </c>
       <c r="E64" s="63" t="str">
@@ -30500,16 +30430,16 @@
         <v>3</v>
       </c>
       <c r="F64" s="64" t="str">
-        <f>'DEPT CHAIR'!P58</f>
+        <f>'DEPT CHAIR'!P56</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="60">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65" s="138" t="str">
-        <f>'DEPT CHAIR'!B59</f>
+        <f>'DEPT CHAIR'!B57</f>
         <v>URATE JISSELLE B</v>
       </c>
       <c r="C65" s="61" t="str">
@@ -30517,7 +30447,7 @@
         <v>2016-01-249</v>
       </c>
       <c r="D65" s="62">
-        <f>'DEPT CHAIR'!O59</f>
+        <f>'DEPT CHAIR'!O57</f>
         <v>1.5</v>
       </c>
       <c r="E65" s="63" t="str">
@@ -30525,16 +30455,16 @@
         <v>3</v>
       </c>
       <c r="F65" s="64" t="str">
-        <f>'DEPT CHAIR'!P59</f>
+        <f>'DEPT CHAIR'!P57</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="65">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" s="138" t="str">
-        <f>'DEPT CHAIR'!B60</f>
+        <f>'DEPT CHAIR'!B58</f>
         <v>VALLESCAS RINA LYN M</v>
       </c>
       <c r="C66" s="61" t="str">
@@ -30542,7 +30472,7 @@
         <v>2016-01-453</v>
       </c>
       <c r="D66" s="62">
-        <f>'DEPT CHAIR'!O60</f>
+        <f>'DEPT CHAIR'!O58</f>
         <v>2.75</v>
       </c>
       <c r="E66" s="63" t="str">
@@ -30550,16 +30480,16 @@
         <v>3</v>
       </c>
       <c r="F66" s="64" t="str">
-        <f>'DEPT CHAIR'!P60</f>
+        <f>'DEPT CHAIR'!P58</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="60">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" s="138" t="str">
-        <f>'DEPT CHAIR'!B61</f>
+        <f>'DEPT CHAIR'!B59</f>
         <v>VENTURA CHRISTOPHER LAURENCE K</v>
       </c>
       <c r="C67" s="61" t="str">
@@ -30567,7 +30497,7 @@
         <v>2017-01-686</v>
       </c>
       <c r="D67" s="62">
-        <f>'DEPT CHAIR'!O61</f>
+        <f>'DEPT CHAIR'!O59</f>
         <v>2.5</v>
       </c>
       <c r="E67" s="63" t="str">
@@ -30575,16 +30505,16 @@
         <v>3</v>
       </c>
       <c r="F67" s="64" t="str">
-        <f>'DEPT CHAIR'!P61</f>
+        <f>'DEPT CHAIR'!P59</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="65">
-        <v>49</v>
+      <c r="A68" s="60">
+        <v>47</v>
       </c>
       <c r="B68" s="138" t="str">
-        <f>'DEPT CHAIR'!B62</f>
+        <f>'DEPT CHAIR'!B60</f>
         <v>VERGARA JOAN VERONICA J</v>
       </c>
       <c r="C68" s="61" t="str">
@@ -30592,7 +30522,7 @@
         <v>2016-01-201</v>
       </c>
       <c r="D68" s="62">
-        <f>'DEPT CHAIR'!O62</f>
+        <f>'DEPT CHAIR'!O60</f>
         <v>2.25</v>
       </c>
       <c r="E68" s="63" t="str">
@@ -30600,16 +30530,16 @@
         <v>3</v>
       </c>
       <c r="F68" s="64" t="str">
-        <f>'DEPT CHAIR'!P62</f>
+        <f>'DEPT CHAIR'!P60</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
-        <v>50</v>
+      <c r="A69" s="65">
+        <v>48</v>
       </c>
       <c r="B69" s="138" t="str">
-        <f>'DEPT CHAIR'!B63</f>
+        <f>'DEPT CHAIR'!B61</f>
         <v>VERGARA MARK JASON L</v>
       </c>
       <c r="C69" s="61" t="str">
@@ -30617,7 +30547,7 @@
         <v>2015-01-749</v>
       </c>
       <c r="D69" s="62">
-        <f>'DEPT CHAIR'!O63</f>
+        <f>'DEPT CHAIR'!O61</f>
         <v>5</v>
       </c>
       <c r="E69" s="63" t="str">
@@ -30625,16 +30555,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="64" t="str">
-        <f>'DEPT CHAIR'!P63</f>
+        <f>'DEPT CHAIR'!P61</f>
         <v>FAILED</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="65">
-        <v>51</v>
+      <c r="A70" s="60">
+        <v>49</v>
       </c>
       <c r="B70" s="138" t="str">
-        <f>'DEPT CHAIR'!B64</f>
+        <f>'DEPT CHAIR'!B62</f>
         <v>VILLANUEVA JAKE S</v>
       </c>
       <c r="C70" s="61" t="str">
@@ -30642,7 +30572,7 @@
         <v>2015-02-169</v>
       </c>
       <c r="D70" s="62">
-        <f>'DEPT CHAIR'!O64</f>
+        <f>'DEPT CHAIR'!O62</f>
         <v>2.5</v>
       </c>
       <c r="E70" s="63" t="str">
@@ -30650,16 +30580,16 @@
         <v>3</v>
       </c>
       <c r="F70" s="64" t="str">
-        <f>'DEPT CHAIR'!P64</f>
+        <f>'DEPT CHAIR'!P62</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="60">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" s="138" t="str">
-        <f>'DEPT CHAIR'!B65</f>
+        <f>'DEPT CHAIR'!B63</f>
         <v>VILLAREAL JOVELYN A</v>
       </c>
       <c r="C71" s="61" t="str">
@@ -30667,7 +30597,7 @@
         <v>2016-01-484</v>
       </c>
       <c r="D71" s="62">
-        <f>'DEPT CHAIR'!O65</f>
+        <f>'DEPT CHAIR'!O63</f>
         <v>1.75</v>
       </c>
       <c r="E71" s="63" t="str">
@@ -30675,16 +30605,16 @@
         <v>3</v>
       </c>
       <c r="F71" s="64" t="str">
-        <f>'DEPT CHAIR'!P65</f>
+        <f>'DEPT CHAIR'!P63</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="65">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72" s="138" t="str">
-        <f>'DEPT CHAIR'!B66</f>
+        <f>'DEPT CHAIR'!B64</f>
         <v>VILLAREAL JANINE A.</v>
       </c>
       <c r="C72" s="61" t="str">
@@ -30692,7 +30622,7 @@
         <v>2016-01-484</v>
       </c>
       <c r="D72" s="62">
-        <f>'DEPT CHAIR'!O66</f>
+        <f>'DEPT CHAIR'!O64</f>
         <v>1.5</v>
       </c>
       <c r="E72" s="63" t="str">
@@ -30700,16 +30630,16 @@
         <v>3</v>
       </c>
       <c r="F72" s="64" t="str">
-        <f>'DEPT CHAIR'!P66</f>
+        <f>'DEPT CHAIR'!P64</f>
         <v>PASSED</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73" s="138" t="str">
-        <f>'DEPT CHAIR'!B67</f>
+        <f>'DEPT CHAIR'!B65</f>
         <v>ZARAGOZA RHEYNZQUEL JOYCE R</v>
       </c>
       <c r="C73" s="61" t="str">
@@ -30717,7 +30647,7 @@
         <v>2017-01-350</v>
       </c>
       <c r="D73" s="62">
-        <f>'DEPT CHAIR'!O67</f>
+        <f>'DEPT CHAIR'!O65</f>
         <v>2.25</v>
       </c>
       <c r="E73" s="63" t="str">
@@ -30725,7 +30655,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="64" t="str">
-        <f>'DEPT CHAIR'!P67</f>
+        <f>'DEPT CHAIR'!P65</f>
         <v>PASSED</v>
       </c>
     </row>
@@ -30756,7 +30686,7 @@
       <c r="D76" s="55"/>
       <c r="E76" s="263">
         <f ca="1">NOW()</f>
-        <v>43248.787171180556</v>
+        <v>43250.933248842593</v>
       </c>
       <c r="F76" s="263"/>
     </row>
@@ -30862,10 +30792,10 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" scale="51" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="62" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="71" max="16383" man="1"/>
+    <brk id="78" max="5" man="1"/>
     <brk id="80" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
@@ -30876,8 +30806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H30"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
